--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74D7E0EE-8ED5-4ADD-BB0F-DA27CD835A2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23760" windowHeight="9795"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23760" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de ação" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="155">
   <si>
     <t>Item</t>
   </si>
@@ -135,9 +141,6 @@
   </si>
   <si>
     <t>Solução definitiva com módulo de SLA Planserv</t>
-  </si>
-  <si>
-    <t>13/07/18 - Divergências apresentadas na reunião de fechamento de SLA de junho, com algumas mudanças justificadas. Todos os meses serão calculados retroativamente pelo módulo de SLA Planserv</t>
   </si>
   <si>
     <t>Indicadores inconsistentes nos paineis de SLA</t>
@@ -383,15 +386,6 @@
     <t>Em avaliação</t>
   </si>
   <si>
-    <t xml:space="preserve">Trecho de mail enviado em 05/07 p/ esclarecimento da entrega
----------------------------------------------------------------------
-Interface pública
-1) Foi solicitada a criação da interface púbica de acesso aos dados do Planserv. 
-2) Ficou acordado a criação de um ambiente com uma "cópia simplificada" do banco de dados do Planserv, com latência de 1 dia, contendo apenas as informações relacionadas aos requisitos de negócio. Tal ambiente seria acessível através de VPN, separadamente do ambiente operacional do Plano. 
-3) A Qualirede irá enviar à TI da Planserv documentação sobre as principais entidades que deverão compor está base de dados. O Planserv irá avaliar o modelo para, eventualmente, sugerir alterações. Após aprovação do Planserv, será iniciado o processo de construção/ajustes das rotinas de copia dos dados. 
-</t>
-  </si>
-  <si>
     <t>PLN 91</t>
   </si>
   <si>
@@ -458,60 +452,82 @@
     <t>Usuários impedidos de trabalhar com o novo sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">01/08/18 - </t>
-  </si>
-  <si>
-    <t>01/08/18 - 
-24/07/18 - Ficou definido que a resposta automatica será mantida, mas será avaliado pela equipe PSV a diferença entre esta e a efetiva primeira resposta enviada pelo técnico na avaliação inicial do chamado após abertura. Se o tempo for muito elevado, a resposta automática deve ser reavaliada</t>
-  </si>
-  <si>
-    <t>01/08/18 - 
-24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
-  </si>
-  <si>
-    <t>01/08/18 - 
-23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
-  </si>
-  <si>
-    <t>01/08/18 - 
+    <t>01/08/18 - Foi liberado 30/07/18 será avaliado pela equipe.
 27/01/18 - PRevisão de entrega somente em 17/08, será feito novo alinamento em 31/07 para entendimento das dificuldades técnicas.
 06/07/18 - Foi realizada tentativa de envio do arquivo como alternativa ao acesso web pelo módulo analítico, sem sucesso
 04/07/18 - Formalizado por André Machado em resumo sobre reuniões realizadas em 03 e 04/07. Foi sinalizado por Raniere necessidade de intervenção da TI QRD para que o painel fosse disponibilizado, com previsão de produção na semana de 09 a 13/07, porém entrega ainda não foi realizada até o momento.</t>
   </si>
   <si>
-    <t>01/08/18 - 
-23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
-  </si>
-  <si>
-    <t>01/08/18 - 
+    <t>01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela equipe de BI QRD até o momento
 19/06/18 - Retorno do PSV com ajustes e aprovação para especificação enviada
 08/06/18 - Envio de especificação sobre levantamento pela QRD
 30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
   </si>
   <si>
-    <t>01/08/18 - 
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>01/08/18 - Entendimento sobre Stage como banco de apoio e Interface Pública
+27/07/18 - Modelo de dados entregue pela equipe de BI e sob avaliação da equipe PSV.
+24/07/18 - O modelo foi solicitado novamente em reunião com equipe de BI e TI QRD, fundamental para conclusão do módulo de SLA
+03/07/18 - Foi definido em reunião com equipes de TI que a base de dados origem para Interface pública será a Stage 1, e portanto foi solicitado novamente o Diagrama para avaliação da TI PSV</t>
+  </si>
+  <si>
+    <t>01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será discutido com equipe.</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será criado um resumo sobre dados de biometria e problemas associados</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será feita revisão dos dados do extrato, em comparação com base operacional</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será discutido com Infra até 03/08
 27/07/18 - Sem retorno, em mail enviado para toda a liderança da QRD.
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento, fundamental para conclusão do módulo de SLA
 03/07/18 - Definição de uma cópia da Stage 1 com acesso direto à banco de dados via VPN</t>
   </si>
   <si>
-    <t>01/08/18 - 
-27/07/18 - Modelo de dados entregue pela equipe de BI e sob avaliação da equipe PSV.
-24/07/18 - O modelo foi solicitado novamente em reunião com equipe de BI e TI QRD, fundamental para conclusão do módulo de SLA
-03/07/18 - Foi definido em reunião com equipes de TI que a base de dados origem para Interface pública será a Stage 1, e portanto foi solicitado novamente o Diagrama para avaliação da TI PSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/08/18 - 
+    <t>01/08/18 - Será mudado no fluxo Jira, com mudança para "Aguardando solicitante" somente quando a função validar for executada pela equipe de suporte QRD
+24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
+  </si>
+  <si>
+    <t>01/08/18 - Ação apresentada para TI QRD, conforme conversado com André Machado
+24/07/18 - Ficou definido que a resposta automatica será mantida, mas será avaliado pela equipe PSV a diferença entre esta e a efetiva primeira resposta enviada pelo técnico na avaliação inicial do chamado após abertura. Se o tempo for muito elevado, a resposta automática deve ser reavaliada</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será apresentado por Tipo e Criticidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
 03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
+  </si>
+  <si>
+    <t>01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
+23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
+  </si>
+  <si>
+    <t>01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
+23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
+  </si>
+  <si>
+    <t>01/08/18 - Citado, será tratado com evidências já enviadas pelo André
+13/07/18 - Divergências apresentadas na reunião de fechamento de SLA de junho, com algumas mudanças justificadas. Todos os meses serão calculados retroativamente pelo módulo de SLA Planserv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,6 +967,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,9 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,6 +1000,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1004,7 +1028,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv"/>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1037,7 +1067,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1068,7 +1104,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1106,9 +1142,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1140,9 +1176,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,9 +1228,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1349,14 +1421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
@@ -1371,9 +1443,9 @@
     <col min="13" max="13" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="43"/>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1386,13 +1458,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="46"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A3" s="44"/>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1405,13 +1477,13 @@
       <c r="I3" s="6"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="47"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="45"/>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1426,10 +1498,10 @@
       <c r="I4" s="3"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5">
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1449,10 +1521,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>4</v>
@@ -1470,7 +1542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="240">
+    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -1484,13 +1556,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="7" t="s">
@@ -1500,16 +1572,14 @@
         <v>15</v>
       </c>
       <c r="K7" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="165">
+        <v>141</v>
+      </c>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -1529,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="7" t="s">
@@ -1539,25 +1609,25 @@
         <v>15</v>
       </c>
       <c r="K8" s="26">
-        <v>43312</v>
+        <v>43315</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>147</v>
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="120">
+    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
@@ -1566,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="7" t="s">
@@ -1576,14 +1646,14 @@
         <v>26</v>
       </c>
       <c r="K9" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="75">
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -1603,7 +1673,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="7" t="s">
@@ -1613,34 +1683,34 @@
         <v>32</v>
       </c>
       <c r="K10" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="240">
+    <row r="11" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="7" t="s">
@@ -1650,71 +1720,71 @@
         <v>26</v>
       </c>
       <c r="K11" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="210">
+    <row r="12" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="60">
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="7" t="s">
@@ -1724,14 +1794,14 @@
         <v>26</v>
       </c>
       <c r="K13" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="60">
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -1751,11 +1821,11 @@
         <v>30</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>36</v>
@@ -1764,22 +1834,22 @@
         <v>37</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" ht="75">
+    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>38</v>
@@ -1788,11 +1858,11 @@
         <v>30</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>36</v>
@@ -1801,307 +1871,307 @@
         <v>37</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" ht="90">
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K16" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" ht="105">
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" ht="45">
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K18" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="60">
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" s="26">
-        <v>43312</v>
-      </c>
-      <c r="L19" s="51" t="s">
-        <v>140</v>
+        <v>43321</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>142</v>
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" ht="60">
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="26">
-        <v>43312</v>
-      </c>
-      <c r="L20" s="51" t="s">
-        <v>140</v>
+        <v>43321</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>143</v>
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="75">
+    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K21" s="26">
-        <v>43312</v>
-      </c>
-      <c r="L21" s="51" t="s">
-        <v>140</v>
+        <v>43321</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" ht="60">
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22" s="26">
-        <v>43312</v>
-      </c>
-      <c r="L22" s="51" t="s">
-        <v>140</v>
+        <v>43321</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>145</v>
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="60">
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K23" s="26">
-        <v>43312</v>
+        <v>43321</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="30.75" customHeight="1">
+    <row r="24" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>18</v>
       </c>
@@ -2118,7 +2188,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="30.75" customHeight="1">
+    <row r="25" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>19</v>
       </c>
@@ -2135,7 +2205,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="30.75" customHeight="1">
+    <row r="26" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2153,9 +2223,7 @@
       <c r="M26" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:M26">
-    <filterColumn colId="7"/>
-  </autoFilter>
+  <autoFilter ref="A6:M26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="L2:L4"/>
@@ -2167,14 +2235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" customWidth="1"/>
@@ -2187,55 +2255,55 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>60</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>65</v>
       </c>
       <c r="D3" s="36">
         <v>43283</v>
@@ -2244,23 +2312,23 @@
         <v>43284</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>66</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>67</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="36">
         <v>43283</v>
@@ -2269,23 +2337,23 @@
         <v>43284</v>
       </c>
       <c r="F4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>67</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="36">
         <v>43285</v>
@@ -2295,22 +2363,22 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="36">
         <v>43286</v>
@@ -2320,20 +2388,20 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="36">
         <v>43284</v>
@@ -2343,22 +2411,22 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5">
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="36">
         <v>43287</v>
@@ -2367,23 +2435,23 @@
         <v>43287</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="36">
         <v>43305</v>
@@ -2394,19 +2462,19 @@
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:9" ht="38.25">
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="36">
         <v>43305</v>
@@ -2416,22 +2484,22 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5">
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="36">
         <v>43271</v>
@@ -2440,23 +2508,23 @@
         <v>43271</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="36">
         <v>43271</v>
@@ -2465,23 +2533,23 @@
         <v>43271</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>11</v>
       </c>
       <c r="B13" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="D13" s="36">
         <v>43278</v>
@@ -2490,25 +2558,25 @@
         <v>43315</v>
       </c>
       <c r="F13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>88</v>
-      </c>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>12</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="36">
         <v>43290</v>
@@ -2517,23 +2585,23 @@
         <v>43294</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:9" ht="153">
+    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>13</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="36">
         <v>43297</v>
@@ -2542,25 +2610,25 @@
         <v>43315</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>93</v>
-      </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>94</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>95</v>
       </c>
       <c r="D16" s="36">
         <v>43318</v>
@@ -2573,15 +2641,15 @@
       <c r="H16" s="30"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25">
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>96</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>97</v>
       </c>
       <c r="D17" s="36">
         <v>43280</v>
@@ -2590,17 +2658,17 @@
         <v>43313</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="34"/>
       <c r="C18" s="28"/>
@@ -2611,7 +2679,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="34"/>
       <c r="C19" s="28"/>
@@ -2622,7 +2690,7 @@
       <c r="H19" s="30"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="34"/>
       <c r="C20" s="28"/>
@@ -2633,7 +2701,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="34"/>
       <c r="C21" s="28"/>
@@ -2644,7 +2712,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="34"/>
       <c r="C22" s="28"/>
@@ -2655,7 +2723,7 @@
       <c r="H22" s="30"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="34"/>
       <c r="C23" s="28"/>
@@ -2666,7 +2734,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="34"/>
       <c r="C24" s="28"/>
@@ -2677,7 +2745,7 @@
       <c r="H24" s="30"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="34"/>
       <c r="C25" s="28"/>
@@ -2688,7 +2756,7 @@
       <c r="H25" s="30"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="34"/>
       <c r="C26" s="28"/>
@@ -2699,7 +2767,7 @@
       <c r="H26" s="30"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -2710,7 +2778,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -2721,7 +2789,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2732,7 +2800,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -2743,7 +2811,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -2754,7 +2822,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -2765,7 +2833,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="27"/>
       <c r="C225" s="27"/>
@@ -2776,7 +2844,7 @@
       <c r="H225" s="27"/>
       <c r="I225" s="27"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="27"/>
       <c r="C226" s="27"/>
@@ -2787,7 +2855,7 @@
       <c r="H226" s="27"/>
       <c r="I226" s="27"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="27"/>
       <c r="B227" s="27"/>
       <c r="C227" s="27"/>
@@ -2798,7 +2866,7 @@
       <c r="H227" s="27"/>
       <c r="I227" s="27"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="27"/>
       <c r="B228" s="27"/>
       <c r="C228" s="27"/>
@@ -2809,7 +2877,7 @@
       <c r="H228" s="27"/>
       <c r="I228" s="27"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="27"/>
       <c r="B229" s="27"/>
       <c r="C229" s="27"/>
@@ -2820,7 +2888,7 @@
       <c r="H229" s="27"/>
       <c r="I229" s="27"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="27"/>
       <c r="B230" s="27"/>
       <c r="C230" s="27"/>
@@ -2831,7 +2899,7 @@
       <c r="H230" s="27"/>
       <c r="I230" s="27"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="27"/>
       <c r="B231" s="27"/>
       <c r="C231" s="27"/>
@@ -2842,7 +2910,7 @@
       <c r="H231" s="27"/>
       <c r="I231" s="27"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="27"/>
       <c r="C232" s="27"/>
@@ -2853,7 +2921,7 @@
       <c r="H232" s="27"/>
       <c r="I232" s="27"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="27"/>
       <c r="B233" s="27"/>
       <c r="C233" s="27"/>
@@ -2864,7 +2932,7 @@
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="27"/>
       <c r="B234" s="27"/>
       <c r="C234" s="27"/>
@@ -2875,7 +2943,7 @@
       <c r="H234" s="27"/>
       <c r="I234" s="27"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="27"/>
       <c r="B235" s="27"/>
       <c r="C235" s="27"/>
@@ -2886,7 +2954,7 @@
       <c r="H235" s="27"/>
       <c r="I235" s="27"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="27"/>
       <c r="B236" s="27"/>
       <c r="C236" s="27"/>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74D7E0EE-8ED5-4ADD-BB0F-DA27CD835A2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23760" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23760" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de ação" sheetId="1" r:id="rId1"/>
-    <sheet name="Cronograma BI QRD" sheetId="2" r:id="rId2"/>
+    <sheet name="Diagnóstico detalhado" sheetId="3" r:id="rId2"/>
+    <sheet name="Cronograma BI QRD" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$M$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cronograma BI QRD'!$A$2:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$M$38</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="196">
   <si>
     <t>Item</t>
   </si>
@@ -150,9 +146,6 @@
   </si>
   <si>
     <t>Luis</t>
-  </si>
-  <si>
-    <t>Entrega com muito atraso</t>
   </si>
   <si>
     <t>Impactos Principais</t>
@@ -452,82 +445,214 @@
     <t>Usuários impedidos de trabalhar com o novo sistema</t>
   </si>
   <si>
-    <t>01/08/18 - Foi liberado 30/07/18 será avaliado pela equipe.
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>01/08/18 - Entendimento sobre Stage como banco de apoio e Interface Pública
+27/07/18 - Modelo de dados entregue pela equipe de BI e sob avaliação da equipe PSV.
+24/07/18 - O modelo foi solicitado novamente em reunião com equipe de BI e TI QRD, fundamental para conclusão do módulo de SLA
+03/07/18 - Foi definido em reunião com equipes de TI que a base de dados origem para Interface pública será a Stage 1, e portanto foi solicitado novamente o Diagrama para avaliação da TI PSV</t>
+  </si>
+  <si>
+    <t>01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será discutido com equipe.</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será criado um resumo sobre dados de biometria e problemas associados</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será feita revisão dos dados do extrato, em comparação com base operacional</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será discutido com Infra até 03/08
+27/07/18 - Sem retorno, em mail enviado para toda a liderança da QRD.
+23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento, fundamental para conclusão do módulo de SLA
+03/07/18 - Definição de uma cópia da Stage 1 com acesso direto à banco de dados via VPN</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será mudado no fluxo Jira, com mudança para "Aguardando solicitante" somente quando a função validar for executada pela equipe de suporte QRD
+24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
+  </si>
+  <si>
+    <t>01/08/18 - Ação apresentada para TI QRD, conforme conversado com André Machado
+24/07/18 - Ficou definido que a resposta automatica será mantida, mas será avaliado pela equipe PSV a diferença entre esta e a efetiva primeira resposta enviada pelo técnico na avaliação inicial do chamado após abertura. Se o tempo for muito elevado, a resposta automática deve ser reavaliada</t>
+  </si>
+  <si>
+    <t>01/08/18 - Será apresentado por Tipo e Criticidade.</t>
+  </si>
+  <si>
+    <t>01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
+23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
+  </si>
+  <si>
+    <t>01/08/18 - Citado, será tratado com evidências já enviadas pelo André
+13/07/18 - Divergências apresentadas na reunião de fechamento de SLA de junho, com algumas mudanças justificadas. Todos os meses serão calculados retroativamente pelo módulo de SLA Planserv</t>
+  </si>
+  <si>
+    <t>Totais referentes a contas</t>
+  </si>
+  <si>
+    <t>Ocorrências de guias</t>
+  </si>
+  <si>
+    <t>Nomeclatura de itens no Power BI</t>
+  </si>
+  <si>
+    <t>Valores de Grupos, Subgrupos e Grupo Planserv</t>
+  </si>
+  <si>
+    <t>Número total de beneficiários</t>
+  </si>
+  <si>
+    <t>Ausência de especialidade para itens da tabela</t>
+  </si>
+  <si>
+    <t>Ausência de classificação de liminar em contas</t>
+  </si>
+  <si>
+    <t>Valores não são conferidos, e não batem com totais gerais de pagamento</t>
+  </si>
+  <si>
+    <t>Inconsistências devido a problemas frequentes em cargas (defazagem de dados)</t>
+  </si>
+  <si>
+    <t>Informações imcompletas, com muitos itens sem classificação</t>
+  </si>
+  <si>
+    <t>Informações distintas em relação ao módulo de cadastro, módulo de AIS e lista de beneficiários para medição de SLA</t>
+  </si>
+  <si>
+    <t>Atualmente o sistema não relaciona uma especialidade para cada item da tabela, limitando a análise</t>
+  </si>
+  <si>
+    <t>As informações de liminar presentes em autorização ainda não foram correlacionadas a conta, para avaliação de custos</t>
+  </si>
+  <si>
+    <t>Pastas e campos apresentam nome original do banco de dados</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>Operacional</t>
+  </si>
+  <si>
+    <t>Resolução</t>
+  </si>
+  <si>
+    <t>Item sendo tratado com chamados e também será alvo do ID 3</t>
+  </si>
+  <si>
+    <t>Item sendo tratado como foco do ID 3 do painel de controle (Análise de Valores carregados no BI  )</t>
+  </si>
+  <si>
+    <t>Não é possível avaliar valores de recurso, separar glosa técnica de glosa edital ou glosa 358</t>
+  </si>
+  <si>
+    <t>Campos iniciais previsão somente valor liberado, glosado e cancelado, foi adicionado valor em analise, porém conforme demonstrado pela dificuldade em extração de dados do passivo da glosa edital, uma mudança no lançamentos por prestador é necessária para posterior consolidação no BI</t>
+  </si>
+  <si>
+    <t>Valores divergentes em cada ponto de visualização, um trabalho deve ser realizado diretamente na base do cadastro, funcionalidade de sistema que permita contar o total de beneficiários em qualquer data de referência, este total deve então ser apresentado em todos os outros módulos e no BI</t>
+  </si>
+  <si>
+    <t>Citado em reunião do dia 01/08/18, trabalho reportado como em andamento por Ana Cláudia</t>
+  </si>
+  <si>
+    <t>Campos de valor informado, glosa edital, valor de recurso</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Liminar no painel de contas</t>
+  </si>
+  <si>
+    <t>Marcação de liminar ainda não foi associada da solicitação para respectiva conta</t>
+  </si>
+  <si>
+    <t>Avaliação de custos referentes a liminar</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Nomeclatura em paineis do BI</t>
+  </si>
+  <si>
+    <t>Áreas de construção de visões no Power BI apresentam o nome original do banco de dados</t>
+  </si>
+  <si>
+    <t>Usabilidade comprometida</t>
+  </si>
+  <si>
+    <t>09/08/18 - 
+24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/18 - 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/18 - 
+01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
+23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
+03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
+  </si>
+  <si>
+    <t>09/08/18 - 
+01/08/18 - Foi liberado 30/07/18 será avaliado pela equipe.
 27/01/18 - PRevisão de entrega somente em 17/08, será feito novo alinamento em 31/07 para entendimento das dificuldades técnicas.
 06/07/18 - Foi realizada tentativa de envio do arquivo como alternativa ao acesso web pelo módulo analítico, sem sucesso
 04/07/18 - Formalizado por André Machado em resumo sobre reuniões realizadas em 03 e 04/07. Foi sinalizado por Raniere necessidade de intervenção da TI QRD para que o painel fosse disponibilizado, com previsão de produção na semana de 09 a 13/07, porém entrega ainda não foi realizada até o momento.</t>
   </si>
   <si>
-    <t>01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
+    <t>09/08/18 - 
+01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela equipe de BI QRD até o momento
 19/06/18 - Retorno do PSV com ajustes e aprovação para especificação enviada
 08/06/18 - Envio de especificação sobre levantamento pela QRD
 30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
   </si>
   <si>
-    <t>Baixa</t>
-  </si>
-  <si>
-    <t>01/08/18 - Entendimento sobre Stage como banco de apoio e Interface Pública
-27/07/18 - Modelo de dados entregue pela equipe de BI e sob avaliação da equipe PSV.
-24/07/18 - O modelo foi solicitado novamente em reunião com equipe de BI e TI QRD, fundamental para conclusão do módulo de SLA
-03/07/18 - Foi definido em reunião com equipes de TI que a base de dados origem para Interface pública será a Stage 1, e portanto foi solicitado novamente o Diagrama para avaliação da TI PSV</t>
-  </si>
-  <si>
-    <t>01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será discutido com equipe.</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será criado um resumo sobre dados de biometria e problemas associados</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será feita revisão dos dados do extrato, em comparação com base operacional</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será discutido com Infra até 03/08
-27/07/18 - Sem retorno, em mail enviado para toda a liderança da QRD.
-23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento, fundamental para conclusão do módulo de SLA
-03/07/18 - Definição de uma cópia da Stage 1 com acesso direto à banco de dados via VPN</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será mudado no fluxo Jira, com mudança para "Aguardando solicitante" somente quando a função validar for executada pela equipe de suporte QRD
-24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
-  </si>
-  <si>
-    <t>01/08/18 - Ação apresentada para TI QRD, conforme conversado com André Machado
-24/07/18 - Ficou definido que a resposta automatica será mantida, mas será avaliado pela equipe PSV a diferença entre esta e a efetiva primeira resposta enviada pelo técnico na avaliação inicial do chamado após abertura. Se o tempo for muito elevado, a resposta automática deve ser reavaliada</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será apresentado por Tipo e Criticidade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
-23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
-03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
-  </si>
-  <si>
-    <t>01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
+    <t>09/08/18 - 
+01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
 23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
   </si>
   <si>
-    <t>01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
-23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
-  </si>
-  <si>
-    <t>01/08/18 - Citado, será tratado com evidências já enviadas pelo André
-13/07/18 - Divergências apresentadas na reunião de fechamento de SLA de junho, com algumas mudanças justificadas. Todos os meses serão calculados retroativamente pelo módulo de SLA Planserv</t>
+    <t>Evidência/Exemplo</t>
+  </si>
+  <si>
+    <t>Tratado em reunião do dia 01/08/18, está sendo conduzida revisão e foi priorizado por André Machado. Não existem mais valores nulos, porém deve ser avaliado pela área técnica quanto ao conteúdo.</t>
+  </si>
+  <si>
+    <t>Ainda não disponível</t>
+  </si>
+  <si>
+    <t>Tratado em reunião do dia 24/07/18, não consta no cronograma atualizado da equipe de BI. ID 18 no painel.</t>
+  </si>
+  <si>
+    <t>Padrão demonstrado pelo BI enviado durante transição, deve ser aplicado em todos os paineis de construção. ID 19 no painel.</t>
+  </si>
+  <si>
+    <t>Detalhamento de Inconsistências/Pendências encontradas na Base de Suporte a Decisão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,8 +730,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,6 +796,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -992,6 +1154,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,7 +1219,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1031,7 +1227,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1266,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1101,10 +1297,255 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3551230</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1657350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9715501" y="704850"/>
+          <a:ext cx="3236904" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3409950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1467037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9829800" y="2457451"/>
+          <a:ext cx="2981325" cy="1352736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3571875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1565090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9801225" y="4181475"/>
+          <a:ext cx="3171825" cy="1450790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2028437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10201275" y="11715751"/>
+          <a:ext cx="2247900" cy="1876036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3590925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1116666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2058" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9648825" y="8020051"/>
+          <a:ext cx="3343275" cy="1040465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1228726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2219794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2060" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9648825" y="9172576"/>
+          <a:ext cx="1323975" cy="991068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1142,9 +1583,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1176,27 +1617,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1228,27 +1651,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1421,14 +1826,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
@@ -1443,8 +1849,8 @@
     <col min="13" max="13" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
       <c r="A2" s="44"/>
       <c r="B2" s="9" t="s">
         <v>6</v>
@@ -1463,7 +1869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="22.5" customHeight="1">
       <c r="A3" s="45"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -1482,7 +1888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
       <c r="A4" s="46"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1501,7 +1907,7 @@
       <c r="L4" s="49"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="31.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1521,10 +1927,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>4</v>
@@ -1542,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" hidden="1">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -1556,13 +1962,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="7" t="s">
@@ -1571,15 +1977,15 @@
       <c r="J7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="26">
-        <v>43321</v>
+      <c r="K7" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="165">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -1599,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="7" t="s">
@@ -1608,26 +2014,26 @@
       <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="57">
         <v>43315</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="165" hidden="1">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
@@ -1636,7 +2042,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="7" t="s">
@@ -1649,11 +2055,11 @@
         <v>43321</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="105" hidden="1">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -1673,7 +2079,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="7" t="s">
@@ -1686,31 +2092,31 @@
         <v>43321</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="270" hidden="1">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>114</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="7" t="s">
@@ -1719,35 +2125,35 @@
       <c r="J11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="26">
-        <v>43321</v>
+      <c r="K11" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="285" hidden="1">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>115</v>
+        <v>53</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="7" t="s">
@@ -1760,31 +2166,31 @@
         <v>43321</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="75" hidden="1">
       <c r="A13" s="7">
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="7" t="s">
@@ -1793,15 +2199,15 @@
       <c r="J13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="26">
-        <v>43321</v>
+      <c r="K13" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="105" hidden="1">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -1821,7 +2227,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="7" t="s">
@@ -1834,11 +2240,11 @@
         <v>37</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="105" hidden="1">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -1858,7 +2264,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="7" t="s">
@@ -1871,341 +2277,381 @@
         <v>37</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="90" hidden="1">
       <c r="A16" s="7">
         <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="26">
-        <v>43321</v>
+        <v>105</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120" hidden="1">
       <c r="A17" s="7">
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" s="26">
-        <v>43321</v>
+        <v>109</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="45" hidden="1">
       <c r="A18" s="7">
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="26">
-        <v>43321</v>
+        <v>113</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="60" hidden="1">
       <c r="A19" s="7">
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="26">
-        <v>43321</v>
+        <v>105</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="60" hidden="1">
       <c r="A20" s="7">
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="26">
-        <v>43321</v>
+        <v>109</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="75" hidden="1">
       <c r="A21" s="7">
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K21" s="26">
-        <v>43321</v>
+        <v>123</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L21" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="60" hidden="1">
       <c r="A22" s="7">
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" s="26">
-        <v>43321</v>
+        <v>126</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="60">
       <c r="A23" s="7">
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="26">
-        <v>43321</v>
+        <v>113</v>
+      </c>
+      <c r="K23" s="57">
+        <v>43315</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="60" hidden="1">
       <c r="A24" s="7">
         <v>18</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="16"/>
+      <c r="B24" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="H24" s="16"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="11"/>
+      <c r="I24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="26">
+        <v>43321</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="45" hidden="1">
       <c r="A25" s="7">
         <v>19</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="16"/>
+      <c r="B25" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>183</v>
+      </c>
       <c r="H25" s="16"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="11"/>
+      <c r="I25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="26">
+        <v>43321</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30.75" hidden="1" customHeight="1">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2222,8 +2668,218 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
+    <row r="27" spans="1:13" hidden="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" hidden="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" hidden="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" hidden="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" hidden="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" hidden="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" hidden="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" hidden="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" hidden="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" hidden="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" hidden="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" hidden="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:M26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A6:M38">
+    <filterColumn colId="10">
+      <filters>
+        <dateGroupItem year="2018" month="8" day="3" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="L2:L4"/>
@@ -2235,14 +2891,194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="58" style="19" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" style="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="61"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="154.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="135.75" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="140.25" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="165">
+      <c r="A7" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="193.5" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="174" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" customWidth="1"/>
@@ -2255,9 +3091,9 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2268,42 +3104,42 @@
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="31.5">
       <c r="A2" s="32"/>
       <c r="B2" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>59</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="D3" s="36">
         <v>43283</v>
@@ -2312,23 +3148,23 @@
         <v>43284</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="28">
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="36">
         <v>43283</v>
@@ -2337,23 +3173,23 @@
         <v>43284</v>
       </c>
       <c r="F4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+    <row r="5" spans="1:9" ht="25.5">
+      <c r="A5" s="63">
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="36">
         <v>43285</v>
@@ -2363,22 +3199,22 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="63">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>4</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="C6" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="36">
         <v>43286</v>
@@ -2388,20 +3224,20 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+    <row r="7" spans="1:9">
+      <c r="A7" s="63">
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="36">
         <v>43284</v>
@@ -2411,22 +3247,22 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25.5" hidden="1">
       <c r="A8" s="28">
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="36">
         <v>43287</v>
@@ -2435,23 +3271,23 @@
         <v>43287</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+    <row r="9" spans="1:9" ht="25.5">
+      <c r="A9" s="63">
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="36">
         <v>43305</v>
@@ -2462,19 +3298,19 @@
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" ht="38.25">
+      <c r="A10" s="63">
+        <v>8</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>8</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>78</v>
-      </c>
       <c r="C10" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="36">
         <v>43305</v>
@@ -2484,22 +3320,22 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.5" hidden="1">
       <c r="A11" s="28">
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="36">
         <v>43271</v>
@@ -2508,23 +3344,23 @@
         <v>43271</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="28">
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="36">
         <v>43271</v>
@@ -2533,23 +3369,23 @@
         <v>43271</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+    <row r="13" spans="1:9">
+      <c r="A13" s="63">
         <v>11</v>
       </c>
       <c r="B13" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="D13" s="36">
         <v>43278</v>
@@ -2558,25 +3394,25 @@
         <v>43315</v>
       </c>
       <c r="F13" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="63">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>12</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="C14" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="36">
         <v>43290</v>
@@ -2585,23 +3421,23 @@
         <v>43294</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+    <row r="15" spans="1:9" ht="153">
+      <c r="A15" s="63">
         <v>13</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="36">
         <v>43297</v>
@@ -2610,25 +3446,25 @@
         <v>43315</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>92</v>
-      </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="28">
         <v>14</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>94</v>
       </c>
       <c r="D16" s="36">
         <v>43318</v>
@@ -2641,15 +3477,15 @@
       <c r="H16" s="30"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+    <row r="17" spans="1:9" ht="38.25">
+      <c r="A17" s="63">
         <v>15</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>95</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>96</v>
       </c>
       <c r="D17" s="36">
         <v>43280</v>
@@ -2658,28 +3494,30 @@
         <v>43313</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="28"/>
       <c r="B18" s="34"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="28"/>
       <c r="B19" s="34"/>
       <c r="C19" s="28"/>
@@ -2690,7 +3528,7 @@
       <c r="H19" s="30"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="28"/>
       <c r="B20" s="34"/>
       <c r="C20" s="28"/>
@@ -2701,7 +3539,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="28"/>
       <c r="B21" s="34"/>
       <c r="C21" s="28"/>
@@ -2712,7 +3550,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="28"/>
       <c r="B22" s="34"/>
       <c r="C22" s="28"/>
@@ -2723,7 +3561,7 @@
       <c r="H22" s="30"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="28"/>
       <c r="B23" s="34"/>
       <c r="C23" s="28"/>
@@ -2734,7 +3572,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="28"/>
       <c r="B24" s="34"/>
       <c r="C24" s="28"/>
@@ -2745,7 +3583,7 @@
       <c r="H24" s="30"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="28"/>
       <c r="B25" s="34"/>
       <c r="C25" s="28"/>
@@ -2756,7 +3594,7 @@
       <c r="H25" s="30"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="28"/>
       <c r="B26" s="34"/>
       <c r="C26" s="28"/>
@@ -2767,7 +3605,7 @@
       <c r="H26" s="30"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -2778,7 +3616,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -2789,7 +3627,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2800,7 +3638,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -2811,7 +3649,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -2822,7 +3660,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -2833,7 +3671,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="27"/>
       <c r="B225" s="27"/>
       <c r="C225" s="27"/>
@@ -2844,7 +3682,7 @@
       <c r="H225" s="27"/>
       <c r="I225" s="27"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="27"/>
       <c r="B226" s="27"/>
       <c r="C226" s="27"/>
@@ -2855,7 +3693,7 @@
       <c r="H226" s="27"/>
       <c r="I226" s="27"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="27"/>
       <c r="B227" s="27"/>
       <c r="C227" s="27"/>
@@ -2866,7 +3704,7 @@
       <c r="H227" s="27"/>
       <c r="I227" s="27"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="27"/>
       <c r="B228" s="27"/>
       <c r="C228" s="27"/>
@@ -2877,7 +3715,7 @@
       <c r="H228" s="27"/>
       <c r="I228" s="27"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="27"/>
       <c r="B229" s="27"/>
       <c r="C229" s="27"/>
@@ -2888,7 +3726,7 @@
       <c r="H229" s="27"/>
       <c r="I229" s="27"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="27"/>
       <c r="B230" s="27"/>
       <c r="C230" s="27"/>
@@ -2899,7 +3737,7 @@
       <c r="H230" s="27"/>
       <c r="I230" s="27"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="27"/>
       <c r="B231" s="27"/>
       <c r="C231" s="27"/>
@@ -2910,7 +3748,7 @@
       <c r="H231" s="27"/>
       <c r="I231" s="27"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="27"/>
       <c r="B232" s="27"/>
       <c r="C232" s="27"/>
@@ -2921,7 +3759,7 @@
       <c r="H232" s="27"/>
       <c r="I232" s="27"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="27"/>
       <c r="B233" s="27"/>
       <c r="C233" s="27"/>
@@ -2932,7 +3770,7 @@
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="27"/>
       <c r="B234" s="27"/>
       <c r="C234" s="27"/>
@@ -2943,7 +3781,7 @@
       <c r="H234" s="27"/>
       <c r="I234" s="27"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="27"/>
       <c r="B235" s="27"/>
       <c r="C235" s="27"/>
@@ -2954,7 +3792,7 @@
       <c r="H235" s="27"/>
       <c r="I235" s="27"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="27"/>
       <c r="B236" s="27"/>
       <c r="C236" s="27"/>
@@ -2966,6 +3804,21 @@
       <c r="I236" s="27"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I18">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2018" month="7" dateTimeGrouping="month"/>
+        <dateGroupItem year="2018" month="8" day="1" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="3" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="Homologação"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cronograma BI QRD'!$A$2:$I$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$M$38</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="199">
   <si>
     <t>Item</t>
   </si>
@@ -642,10 +642,19 @@
     <t>Tratado em reunião do dia 24/07/18, não consta no cronograma atualizado da equipe de BI. ID 18 no painel.</t>
   </si>
   <si>
-    <t>Padrão demonstrado pelo BI enviado durante transição, deve ser aplicado em todos os paineis de construção. ID 19 no painel.</t>
-  </si>
-  <si>
     <t>Detalhamento de Inconsistências/Pendências encontradas na Base de Suporte a Decisão</t>
+  </si>
+  <si>
+    <t>Dados de SLA</t>
+  </si>
+  <si>
+    <t>Painel de controle de SLA apresenta inconsistências quanto a quantidade de itens, datas de abertura versus fechamento e classificações que tem influência no resultado do indicador</t>
+  </si>
+  <si>
+    <t>Citado em reuniões de fechamento, em reunião de BI e recentemente novo conjunto de evidências foi capturado por Luis, será tratado em próxima reunião de fechamento de SLA</t>
+  </si>
+  <si>
+    <t>Padrão demonstrado pelo BI enviado durante transição, deve ser aplicado em todos os paineis de construção. ID 19 no painel</t>
   </si>
 </sst>
 </file>
@@ -1132,30 +1141,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1184,10 +1169,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1539,6 +1548,46 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3827465</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1266825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9467849" y="14830425"/>
+          <a:ext cx="3760791" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1851,7 +1900,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="44"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1864,13 +1913,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="47"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1883,13 +1932,13 @@
       <c r="I3" s="6"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="48"/>
+      <c r="L3" s="59"/>
       <c r="M3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1953,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="49"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="31.5">
@@ -1977,7 +2026,7 @@
       <c r="J7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L7" s="11" t="s">
@@ -2014,7 +2063,7 @@
       <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="49">
         <v>43315</v>
       </c>
       <c r="L8" s="11" t="s">
@@ -2125,7 +2174,7 @@
       <c r="J11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L11" s="11" t="s">
@@ -2199,7 +2248,7 @@
       <c r="J13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L13" s="11" t="s">
@@ -2310,7 +2359,7 @@
       <c r="J16" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L16" s="11" t="s">
@@ -2347,7 +2396,7 @@
       <c r="J17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L17" s="11" t="s">
@@ -2384,7 +2433,7 @@
       <c r="J18" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L18" s="11" t="s">
@@ -2421,7 +2470,7 @@
       <c r="J19" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L19" s="43" t="s">
@@ -2458,7 +2507,7 @@
       <c r="J20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L20" s="43" t="s">
@@ -2495,7 +2544,7 @@
       <c r="J21" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="56" t="s">
+      <c r="K21" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -2532,7 +2581,7 @@
       <c r="J22" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="56" t="s">
+      <c r="K22" s="48" t="s">
         <v>180</v>
       </c>
       <c r="L22" s="43" t="s">
@@ -2569,7 +2618,7 @@
       <c r="J23" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="49">
         <v>43315</v>
       </c>
       <c r="L23" s="11" t="s">
@@ -2590,7 +2639,7 @@
       <c r="D24" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="46" t="s">
         <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -2627,7 +2676,7 @@
       <c r="D25" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="46" t="s">
         <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -2892,7 +2941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -2904,32 +2953,32 @@
     <col min="2" max="2" width="58" style="19" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61"/>
+      <c r="A1" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="52" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2940,10 +2989,10 @@
       <c r="B4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="50" t="s">
         <v>170</v>
       </c>
       <c r="E4" s="7"/>
@@ -2955,10 +3004,10 @@
       <c r="B5" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="50" t="s">
         <v>169</v>
       </c>
       <c r="E5" s="7"/>
@@ -2970,10 +3019,10 @@
       <c r="B6" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="50" t="s">
         <v>191</v>
       </c>
       <c r="E6" s="7"/>
@@ -2985,10 +3034,10 @@
       <c r="B7" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="51" t="s">
         <v>172</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3002,10 +3051,10 @@
       <c r="B8" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="51" t="s">
         <v>173</v>
       </c>
       <c r="E8" s="7"/>
@@ -3017,10 +3066,10 @@
       <c r="B9" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="51" t="s">
         <v>174</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -3034,10 +3083,10 @@
       <c r="B10" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -3051,13 +3100,28 @@
       <c r="B11" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>194</v>
+      <c r="D11" s="51" t="s">
+        <v>198</v>
       </c>
       <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="112.5" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3092,17 +3156,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="31.5">
       <c r="A2" s="32"/>
@@ -3182,7 +3246,7 @@
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="25.5">
-      <c r="A5" s="63">
+      <c r="A5" s="54">
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -3207,7 +3271,7 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="63">
+      <c r="A6" s="54">
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
@@ -3230,7 +3294,7 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="63">
+      <c r="A7" s="54">
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -3280,7 +3344,7 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="25.5">
-      <c r="A9" s="63">
+      <c r="A9" s="54">
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
@@ -3303,7 +3367,7 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="38.25">
-      <c r="A10" s="63">
+      <c r="A10" s="54">
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -3378,7 +3442,7 @@
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="63">
+      <c r="A13" s="54">
         <v>11</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -3405,7 +3469,7 @@
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="63">
+      <c r="A14" s="54">
         <v>12</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3430,7 +3494,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="153">
-      <c r="A15" s="63">
+      <c r="A15" s="54">
         <v>13</v>
       </c>
       <c r="B15" s="41" t="s">
@@ -3478,7 +3542,7 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="38.25">
-      <c r="A17" s="63">
+      <c r="A17" s="54">
         <v>15</v>
       </c>
       <c r="B17" s="34" t="s">
@@ -3814,7 +3878,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="5">
-      <filters blank="1">
+      <filters>
         <filter val="Homologação"/>
       </filters>
     </filterColumn>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="199">
   <si>
     <t>Item</t>
   </si>
@@ -460,32 +460,16 @@
     <t>01/08/18 - Será discutido com equipe.</t>
   </si>
   <si>
-    <t>01/08/18 - Será criado um resumo sobre dados de biometria e problemas associados</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será feita revisão dos dados do extrato, em comparação com base operacional</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
-  </si>
-  <si>
     <t>01/08/18 - Será discutido com Infra até 03/08
 27/07/18 - Sem retorno, em mail enviado para toda a liderança da QRD.
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento, fundamental para conclusão do módulo de SLA
 03/07/18 - Definição de uma cópia da Stage 1 com acesso direto à banco de dados via VPN</t>
   </si>
   <si>
-    <t>01/08/18 - Será mudado no fluxo Jira, com mudança para "Aguardando solicitante" somente quando a função validar for executada pela equipe de suporte QRD
-24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
-  </si>
-  <si>
     <t>01/08/18 - Ação apresentada para TI QRD, conforme conversado com André Machado
 24/07/18 - Ficou definido que a resposta automatica será mantida, mas será avaliado pela equipe PSV a diferença entre esta e a efetiva primeira resposta enviada pelo técnico na avaliação inicial do chamado após abertura. Se o tempo for muito elevado, a resposta automática deve ser reavaliada</t>
   </si>
   <si>
-    <t>01/08/18 - Será apresentado por Tipo e Criticidade.</t>
-  </si>
-  <si>
     <t>01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
 23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
   </si>
@@ -570,9 +554,6 @@
   </si>
   <si>
     <t>Campos de valor informado, glosa edital, valor de recurso</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
   </si>
   <si>
     <t>Liminar no painel de contas</t>
@@ -655,6 +636,30 @@
   </si>
   <si>
     <t>Padrão demonstrado pelo BI enviado durante transição, deve ser aplicado em todos os paineis de construção. ID 19 no painel</t>
+  </si>
+  <si>
+    <t>03/08/18 - Criado novo projeto no Jira (ACESSOS) consolidando chamados de acesso.
+01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
+  </si>
+  <si>
+    <t>03/08/18 - Removida a automação que muda o status do chamado quando o atendente comenta. A alteração será manual.
+01/08/18 - Será mudado no fluxo Jira, com mudança para "Aguardando solicitante" somente quando a função validar for executada pela equipe de suporte QRD
+24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
+  </si>
+  <si>
+    <t>03/08/18 - Será tratado diretamente com André Duarte em reunião presencial.
+01/08/18 - Será apresentado por Tipo e Criticidade.</t>
+  </si>
+  <si>
+    <t>Aguardando deliberação</t>
+  </si>
+  <si>
+    <t>03/08/18 - Relatório em elaboração por Denis, informado por André Duarte.
+01/08/18 - Será criado um resumo sobre dados de biometria e problemas associados</t>
+  </si>
+  <si>
+    <t>03/08/18 - Cálculo de coparticipação realizado no dia 02/08 e os dados estarão disponíveis no extrato do beneficiário.
+01/08/18 - Será feita revisão dos dados do extrato, em comparação com base operacional</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1233,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1236,7 +1241,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1280,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1881,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1997,7 +2001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" hidden="1">
+    <row r="7" spans="1:13" ht="210">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>138</v>
@@ -2067,11 +2071,11 @@
         <v>43315</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="165" hidden="1">
+    <row r="9" spans="1:13" ht="165">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -2104,11 +2108,11 @@
         <v>43321</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="105" hidden="1">
+    <row r="10" spans="1:13" ht="105">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -2141,11 +2145,11 @@
         <v>43321</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="270" hidden="1">
+    <row r="11" spans="1:13" ht="270">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2175,14 +2179,14 @@
         <v>26</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="285" hidden="1">
+    <row r="12" spans="1:13" ht="285">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -2215,11 +2219,11 @@
         <v>43321</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="75" hidden="1">
+    <row r="13" spans="1:13" ht="75">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -2249,14 +2253,14 @@
         <v>26</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="105" hidden="1">
+    <row r="14" spans="1:13" ht="105">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -2289,11 +2293,11 @@
         <v>37</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" ht="105" hidden="1">
+    <row r="15" spans="1:13" ht="105">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -2326,11 +2330,11 @@
         <v>37</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" ht="90" hidden="1">
+    <row r="16" spans="1:13" ht="150">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2343,8 +2347,8 @@
       <c r="D16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>106</v>
+      <c r="E16" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>30</v>
@@ -2360,14 +2364,14 @@
         <v>105</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" ht="120" hidden="1">
+    <row r="17" spans="1:13" ht="120">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -2397,14 +2401,14 @@
         <v>109</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" ht="45" hidden="1">
+    <row r="18" spans="1:13" ht="60">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -2417,8 +2421,8 @@
       <c r="D18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>176</v>
+      <c r="E18" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>30</v>
@@ -2433,15 +2437,15 @@
       <c r="J18" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="48" t="s">
-        <v>180</v>
+      <c r="K18" s="26">
+        <v>43321</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="60" hidden="1">
+    <row r="19" spans="1:13" ht="60">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -2471,14 +2475,14 @@
         <v>105</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L19" s="43" t="s">
         <v>139</v>
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" ht="60" hidden="1">
+    <row r="20" spans="1:13" ht="60">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -2508,14 +2512,14 @@
         <v>109</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L20" s="43" t="s">
         <v>140</v>
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="75" hidden="1">
+    <row r="21" spans="1:13" ht="75">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2545,14 +2549,14 @@
         <v>123</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L21" s="43" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" ht="60" hidden="1">
+    <row r="22" spans="1:13" ht="105" customHeight="1">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2582,14 +2586,14 @@
         <v>126</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="60">
+    <row r="23" spans="1:13" ht="105">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>135</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>30</v>
@@ -2622,22 +2626,22 @@
         <v>43315</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="60" hidden="1">
+    <row r="24" spans="1:13" ht="60">
       <c r="A24" s="7">
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E24" s="46" t="s">
         <v>112</v>
@@ -2646,7 +2650,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="7" t="s">
@@ -2659,22 +2663,22 @@
         <v>43321</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="45" hidden="1">
+    <row r="25" spans="1:13" ht="45">
       <c r="A25" s="7">
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E25" s="46" t="s">
         <v>112</v>
@@ -2683,7 +2687,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="7" t="s">
@@ -2696,11 +2700,11 @@
         <v>43321</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="30.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:13" ht="30.75" customHeight="1">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2717,7 +2721,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -2734,7 +2738,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -2751,7 +2755,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -2768,7 +2772,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -2785,7 +2789,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -2802,7 +2806,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -2819,7 +2823,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -2836,7 +2840,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -2853,7 +2857,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -2870,7 +2874,7 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -2887,7 +2891,7 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13">
       <c r="A37" s="7">
         <v>31</v>
       </c>
@@ -2904,7 +2908,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13">
       <c r="A38" s="7">
         <v>32</v>
       </c>
@@ -2923,11 +2927,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:M38">
-    <filterColumn colId="10">
-      <filters>
-        <dateGroupItem year="2018" month="8" day="3" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="10"/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
@@ -2958,7 +2958,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1">
       <c r="A1" s="61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -2970,156 +2970,156 @@
         <v>0</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="154.5" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>165</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>170</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="135.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="140.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="165">
       <c r="A7" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C7" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>172</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="193.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="60">
       <c r="A9" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
       <c r="A10" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="174" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="112.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E12" s="7"/>
     </row>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751769DE-75F5-4436-9143-DDB8039F0361}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23760" windowHeight="9795"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23760" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de ação" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="199">
   <si>
     <t>Item</t>
   </si>
@@ -454,12 +460,6 @@
 03/07/18 - Foi definido em reunião com equipes de TI que a base de dados origem para Interface pública será a Stage 1, e portanto foi solicitado novamente o Diagrama para avaliação da TI PSV</t>
   </si>
   <si>
-    <t>01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
-  </si>
-  <si>
-    <t>01/08/18 - Será discutido com equipe.</t>
-  </si>
-  <si>
     <t>01/08/18 - Será discutido com Infra até 03/08
 27/07/18 - Sem retorno, em mail enviado para toda a liderança da QRD.
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento, fundamental para conclusão do módulo de SLA
@@ -474,10 +474,6 @@
 23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
   </si>
   <si>
-    <t>01/08/18 - Citado, será tratado com evidências já enviadas pelo André
-13/07/18 - Divergências apresentadas na reunião de fechamento de SLA de junho, com algumas mudanças justificadas. Todos os meses serão calculados retroativamente pelo módulo de SLA Planserv</t>
-  </si>
-  <si>
     <t>Totais referentes a contas</t>
   </si>
   <si>
@@ -579,10 +575,6 @@
   <si>
     <t>09/08/18 - 
 24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/08/18 - 
-</t>
   </si>
   <si>
     <t xml:space="preserve">09/08/18 - 
@@ -647,10 +639,6 @@
 24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
   </si>
   <si>
-    <t>03/08/18 - Será tratado diretamente com André Duarte em reunião presencial.
-01/08/18 - Será apresentado por Tipo e Criticidade.</t>
-  </si>
-  <si>
     <t>Aguardando deliberação</t>
   </si>
   <si>
@@ -660,13 +648,36 @@
   <si>
     <t>03/08/18 - Cálculo de coparticipação realizado no dia 02/08 e os dados estarão disponíveis no extrato do beneficiário.
 01/08/18 - Será feita revisão dos dados do extrato, em comparação com base operacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/08/18 - Devido à demanda extraordinária do TCE, esta ação foi adiantada e concluída.
+</t>
+  </si>
+  <si>
+    <t>09/08/18 - 
+03/08/18 - Será tratado diretamente com André Duarte em reunião presencial.
+01/08/18 - Será apresentado por Tipo e Criticidade.</t>
+  </si>
+  <si>
+    <t>07/08/18 - Tratado em detalhes na reunião de SLA referente à julho
+01/08/18 - Citado, será tratado com evidências já enviadas pelo André
+13/07/18 - Divergências apresentadas na reunião de fechamento de SLA de junho, com algumas mudanças justificadas. Todos os meses serão calculados retroativamente pelo módulo de SLA Planserv</t>
+  </si>
+  <si>
+    <t>09/08/18 - 
+07/08/18 - Tratado em reunião com Dulce e Ana Claudia, será relizado alinhamento para todas as demandas controladas em paralelo dentro do Jira e por expecialistas utilizando o BI ou outras extrações de sistema
+01/08/18 - Será discutido com equipe.</t>
+  </si>
+  <si>
+    <t>09/08/18 - 
+01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +758,12 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1034,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1203,6 +1220,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,7 +1261,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +1300,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1348,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPr id="2050" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1368,7 +1394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPr id="2052" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1408,7 +1440,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPr id="2054" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1448,7 +1486,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPr id="2056" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1488,7 +1532,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2058" name="Picture 10"/>
+        <xdr:cNvPr id="2058" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1528,7 +1578,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2060" name="Picture 12"/>
+        <xdr:cNvPr id="2060" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1568,7 +1624,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1599,7 +1661,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1637,9 +1699,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1671,9 +1733,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1705,9 +1785,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1880,14 +1978,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
@@ -1902,8 +2001,8 @@
     <col min="13" max="13" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
       <c r="B2" s="9" t="s">
         <v>6</v>
@@ -1922,7 +2021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1">
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="56"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -1941,7 +2040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1960,7 +2059,7 @@
       <c r="L4" s="60"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5">
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2001,7 +2100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210">
+    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -2031,14 +2130,14 @@
         <v>15</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>138</v>
       </c>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="165">
+    <row r="8" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -2071,11 +2170,11 @@
         <v>43315</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="165">
+    <row r="9" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -2108,11 +2207,11 @@
         <v>43321</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="105">
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -2145,11 +2244,11 @@
         <v>43321</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="270">
+    <row r="11" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2179,14 +2278,14 @@
         <v>26</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="285">
+    <row r="12" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -2219,11 +2318,11 @@
         <v>43321</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="75">
+    <row r="13" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -2253,14 +2352,14 @@
         <v>26</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="105">
+    <row r="14" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -2273,7 +2372,7 @@
       <c r="D14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -2293,11 +2392,11 @@
         <v>37</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" ht="105">
+    <row r="15" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -2310,7 +2409,7 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -2330,11 +2429,11 @@
         <v>37</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" ht="150">
+    <row r="16" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2364,14 +2463,14 @@
         <v>105</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" ht="120">
+    <row r="17" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -2401,14 +2500,14 @@
         <v>109</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" ht="60">
+    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -2422,7 +2521,7 @@
         <v>111</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>30</v>
@@ -2445,7 +2544,7 @@
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="60">
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -2458,7 +2557,7 @@
       <c r="D19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="64" t="s">
         <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -2474,15 +2573,15 @@
       <c r="J19" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="48" t="s">
-        <v>174</v>
+      <c r="K19" s="26">
+        <v>43321</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" ht="60">
+    <row r="20" spans="1:13" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -2511,15 +2610,15 @@
       <c r="J20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="48" t="s">
-        <v>174</v>
+      <c r="K20" s="26">
+        <v>43321</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="75">
+    <row r="21" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2549,14 +2648,14 @@
         <v>123</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L21" s="43" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" ht="105" customHeight="1">
+    <row r="22" spans="1:13" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2586,14 +2685,14 @@
         <v>126</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="105">
+    <row r="23" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -2626,22 +2725,22 @@
         <v>43315</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="60">
+    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E24" s="46" t="s">
         <v>112</v>
@@ -2650,7 +2749,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="7" t="s">
@@ -2663,31 +2762,31 @@
         <v>43321</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="45">
+    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>112</v>
+        <v>173</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="7" t="s">
@@ -2700,11 +2799,11 @@
         <v>43321</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="30.75" customHeight="1">
+    <row r="26" spans="1:13" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2721,7 +2820,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -2738,7 +2837,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -2755,7 +2854,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -2772,7 +2871,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -2789,7 +2888,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -2806,7 +2905,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -2823,7 +2922,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -2840,7 +2939,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -2857,7 +2956,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -2874,7 +2973,7 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -2891,7 +2990,7 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>31</v>
       </c>
@@ -2908,7 +3007,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>32</v>
       </c>
@@ -2926,8 +3025,12 @@
       <c r="M38" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:M38">
-    <filterColumn colId="10"/>
+  <autoFilter ref="A6:M38" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <dateGroupItem year="2018" month="8" day="9" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
@@ -2940,14 +3043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="58" style="19" customWidth="1"/>
@@ -2956,170 +3059,170 @@
     <col min="5" max="5" width="58.140625" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="61"/>
       <c r="E1" s="53"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="44" t="s">
+      <c r="D6" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="154.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="C7" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="50" t="s">
+      <c r="C8" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="135.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="140.25" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="C9" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="50" t="s">
+      <c r="C10" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="165">
-      <c r="A7" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="193.5" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="60">
-      <c r="A9" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="C12" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="51" t="s">
+      <c r="D12" s="51" t="s">
         <v>187</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="174" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="112.5" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>191</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -3134,7 +3237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I236"/>
   <sheetViews>
@@ -3142,7 +3245,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" customWidth="1"/>
@@ -3155,7 +3258,7 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>54</v>
       </c>
@@ -3168,7 +3271,7 @@
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:9" ht="31.5">
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="39" t="s">
         <v>55</v>
@@ -3195,7 +3298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -3220,7 +3323,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -3245,7 +3348,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>3</v>
       </c>
@@ -3270,7 +3373,7 @@
       </c>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>4</v>
       </c>
@@ -3293,7 +3396,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>5</v>
       </c>
@@ -3318,7 +3421,7 @@
       </c>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" hidden="1">
+    <row r="8" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -3343,7 +3446,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>7</v>
       </c>
@@ -3366,7 +3469,7 @@
       </c>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:9" ht="38.25">
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>8</v>
       </c>
@@ -3391,7 +3494,7 @@
       </c>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" hidden="1">
+    <row r="11" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -3416,7 +3519,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -3441,7 +3544,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>11</v>
       </c>
@@ -3468,7 +3571,7 @@
       </c>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>12</v>
       </c>
@@ -3493,7 +3596,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:9" ht="153">
+    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>13</v>
       </c>
@@ -3520,7 +3623,7 @@
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -3541,7 +3644,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25">
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>15</v>
       </c>
@@ -3568,7 +3671,7 @@
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="34"/>
       <c r="C18" s="28"/>
@@ -3581,7 +3684,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="34"/>
       <c r="C19" s="28"/>
@@ -3592,7 +3695,7 @@
       <c r="H19" s="30"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="34"/>
       <c r="C20" s="28"/>
@@ -3603,7 +3706,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="34"/>
       <c r="C21" s="28"/>
@@ -3614,7 +3717,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="34"/>
       <c r="C22" s="28"/>
@@ -3625,7 +3728,7 @@
       <c r="H22" s="30"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="34"/>
       <c r="C23" s="28"/>
@@ -3636,7 +3739,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="34"/>
       <c r="C24" s="28"/>
@@ -3647,7 +3750,7 @@
       <c r="H24" s="30"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="34"/>
       <c r="C25" s="28"/>
@@ -3658,7 +3761,7 @@
       <c r="H25" s="30"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="34"/>
       <c r="C26" s="28"/>
@@ -3669,7 +3772,7 @@
       <c r="H26" s="30"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -3680,7 +3783,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -3691,7 +3794,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -3702,7 +3805,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -3713,7 +3816,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -3724,7 +3827,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -3735,7 +3838,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="27"/>
       <c r="C225" s="27"/>
@@ -3746,7 +3849,7 @@
       <c r="H225" s="27"/>
       <c r="I225" s="27"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="27"/>
       <c r="C226" s="27"/>
@@ -3757,7 +3860,7 @@
       <c r="H226" s="27"/>
       <c r="I226" s="27"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="27"/>
       <c r="B227" s="27"/>
       <c r="C227" s="27"/>
@@ -3768,7 +3871,7 @@
       <c r="H227" s="27"/>
       <c r="I227" s="27"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="27"/>
       <c r="B228" s="27"/>
       <c r="C228" s="27"/>
@@ -3779,7 +3882,7 @@
       <c r="H228" s="27"/>
       <c r="I228" s="27"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="27"/>
       <c r="B229" s="27"/>
       <c r="C229" s="27"/>
@@ -3790,7 +3893,7 @@
       <c r="H229" s="27"/>
       <c r="I229" s="27"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="27"/>
       <c r="B230" s="27"/>
       <c r="C230" s="27"/>
@@ -3801,7 +3904,7 @@
       <c r="H230" s="27"/>
       <c r="I230" s="27"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="27"/>
       <c r="B231" s="27"/>
       <c r="C231" s="27"/>
@@ -3812,7 +3915,7 @@
       <c r="H231" s="27"/>
       <c r="I231" s="27"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="27"/>
       <c r="C232" s="27"/>
@@ -3823,7 +3926,7 @@
       <c r="H232" s="27"/>
       <c r="I232" s="27"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="27"/>
       <c r="B233" s="27"/>
       <c r="C233" s="27"/>
@@ -3834,7 +3937,7 @@
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="27"/>
       <c r="B234" s="27"/>
       <c r="C234" s="27"/>
@@ -3845,7 +3948,7 @@
       <c r="H234" s="27"/>
       <c r="I234" s="27"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="27"/>
       <c r="B235" s="27"/>
       <c r="C235" s="27"/>
@@ -3856,7 +3959,7 @@
       <c r="H235" s="27"/>
       <c r="I235" s="27"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="27"/>
       <c r="B236" s="27"/>
       <c r="C236" s="27"/>
@@ -3868,7 +3971,7 @@
       <c r="I236" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I18">
+  <autoFilter ref="A2:I18" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="4">
       <filters blank="1">
         <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751769DE-75F5-4436-9143-DDB8039F0361}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D972BD4-D06A-4686-99C0-399330C9A744}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23760" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de ação" sheetId="1" r:id="rId1"/>
-    <sheet name="Diagnóstico detalhado" sheetId="3" r:id="rId2"/>
-    <sheet name="Cronograma BI QRD" sheetId="2" r:id="rId3"/>
+    <sheet name="Relatórios do Edital" sheetId="4" r:id="rId2"/>
+    <sheet name="Diagnóstico detalhado" sheetId="3" r:id="rId3"/>
+    <sheet name="Cronograma BI QRD" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cronograma BI QRD'!$A$2:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cronograma BI QRD'!$A$2:$I$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$M$38</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="269">
   <si>
     <t>Item</t>
   </si>
@@ -376,9 +377,6 @@
     <t>Revisão de parametros por tipo de chamado e criticidade, para validação das medições</t>
   </si>
   <si>
-    <t>Ação será inciada em próxima reunião</t>
-  </si>
-  <si>
     <t>Denis/André Duarte</t>
   </si>
   <si>
@@ -571,16 +569,6 @@
   </si>
   <si>
     <t>Usabilidade comprometida</t>
-  </si>
-  <si>
-    <t>09/08/18 - 
-24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/08/18 - 
-01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
-23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
-03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
   </si>
   <si>
     <t>09/08/18 - 
@@ -590,7 +578,74 @@
 04/07/18 - Formalizado por André Machado em resumo sobre reuniões realizadas em 03 e 04/07. Foi sinalizado por Raniere necessidade de intervenção da TI QRD para que o painel fosse disponibilizado, com previsão de produção na semana de 09 a 13/07, porém entrega ainda não foi realizada até o momento.</t>
   </si>
   <si>
-    <t>09/08/18 - 
+    <t>Evidência/Exemplo</t>
+  </si>
+  <si>
+    <t>Tratado em reunião do dia 01/08/18, está sendo conduzida revisão e foi priorizado por André Machado. Não existem mais valores nulos, porém deve ser avaliado pela área técnica quanto ao conteúdo.</t>
+  </si>
+  <si>
+    <t>Ainda não disponível</t>
+  </si>
+  <si>
+    <t>Tratado em reunião do dia 24/07/18, não consta no cronograma atualizado da equipe de BI. ID 18 no painel.</t>
+  </si>
+  <si>
+    <t>Detalhamento de Inconsistências/Pendências encontradas na Base de Suporte a Decisão</t>
+  </si>
+  <si>
+    <t>Dados de SLA</t>
+  </si>
+  <si>
+    <t>Painel de controle de SLA apresenta inconsistências quanto a quantidade de itens, datas de abertura versus fechamento e classificações que tem influência no resultado do indicador</t>
+  </si>
+  <si>
+    <t>Citado em reuniões de fechamento, em reunião de BI e recentemente novo conjunto de evidências foi capturado por Luis, será tratado em próxima reunião de fechamento de SLA</t>
+  </si>
+  <si>
+    <t>Padrão demonstrado pelo BI enviado durante transição, deve ser aplicado em todos os paineis de construção. ID 19 no painel</t>
+  </si>
+  <si>
+    <t>03/08/18 - Criado novo projeto no Jira (ACESSOS) consolidando chamados de acesso.
+01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
+  </si>
+  <si>
+    <t>03/08/18 - Removida a automação que muda o status do chamado quando o atendente comenta. A alteração será manual.
+01/08/18 - Será mudado no fluxo Jira, com mudança para "Aguardando solicitante" somente quando a função validar for executada pela equipe de suporte QRD
+24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/08/18 - Devido à demanda extraordinária do TCE, esta ação foi adiantada e concluída.
+</t>
+  </si>
+  <si>
+    <t>07/08/18 - Tratado em detalhes na reunião de SLA referente à julho
+01/08/18 - Citado, será tratado com evidências já enviadas pelo André
+13/07/18 - Divergências apresentadas na reunião de fechamento de SLA de junho, com algumas mudanças justificadas. Todos os meses serão calculados retroativamente pelo módulo de SLA Planserv</t>
+  </si>
+  <si>
+    <t>09/08/18 - Foi solicitado detalhamento sobre os campos, para verificar o que é possível (quebra de valores de glosa, valor informado e outros)
+01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/18 - Reunião presencial deverá tratar o esquema proposto, prevista para 16/08/18
+01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
+23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
+03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
+  </si>
+  <si>
+    <t>09/08/18 - Prevista para quinta 16/08/18
+01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
+23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
+  </si>
+  <si>
+    <t>09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
+24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
+  </si>
+  <si>
+    <t>Comunicada</t>
+  </si>
+  <si>
+    <t>09/08/18 - Apenas uma parte dos relatórios foi apresentada, com dados referentes a beneficiários (cadastro e relacionamento) e prestadores (credenciamento e ocorrências). Uma nova aba será criada para detalhamento da ação e pendências, e alinhamento deverá ser realizado entre TI e BI QRD para finalização da demanda
 01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela equipe de BI QRD até o momento
 19/06/18 - Retorno do PSV com ajustes e aprovação para especificação enviada
@@ -598,86 +653,244 @@
 30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
   </si>
   <si>
-    <t>09/08/18 - 
-01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
-23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
-  </si>
-  <si>
-    <t>Evidência/Exemplo</t>
-  </si>
-  <si>
-    <t>Tratado em reunião do dia 01/08/18, está sendo conduzida revisão e foi priorizado por André Machado. Não existem mais valores nulos, porém deve ser avaliado pela área técnica quanto ao conteúdo.</t>
-  </si>
-  <si>
-    <t>Ainda não disponível</t>
-  </si>
-  <si>
-    <t>Tratado em reunião do dia 24/07/18, não consta no cronograma atualizado da equipe de BI. ID 18 no painel.</t>
-  </si>
-  <si>
-    <t>Detalhamento de Inconsistências/Pendências encontradas na Base de Suporte a Decisão</t>
-  </si>
-  <si>
-    <t>Dados de SLA</t>
-  </si>
-  <si>
-    <t>Painel de controle de SLA apresenta inconsistências quanto a quantidade de itens, datas de abertura versus fechamento e classificações que tem influência no resultado do indicador</t>
-  </si>
-  <si>
-    <t>Citado em reuniões de fechamento, em reunião de BI e recentemente novo conjunto de evidências foi capturado por Luis, será tratado em próxima reunião de fechamento de SLA</t>
-  </si>
-  <si>
-    <t>Padrão demonstrado pelo BI enviado durante transição, deve ser aplicado em todos os paineis de construção. ID 19 no painel</t>
-  </si>
-  <si>
-    <t>03/08/18 - Criado novo projeto no Jira (ACESSOS) consolidando chamados de acesso.
-01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
-  </si>
-  <si>
-    <t>03/08/18 - Removida a automação que muda o status do chamado quando o atendente comenta. A alteração será manual.
-01/08/18 - Será mudado no fluxo Jira, com mudança para "Aguardando solicitante" somente quando a função validar for executada pela equipe de suporte QRD
-24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
-  </si>
-  <si>
-    <t>Aguardando deliberação</t>
-  </si>
-  <si>
-    <t>03/08/18 - Relatório em elaboração por Denis, informado por André Duarte.
-01/08/18 - Será criado um resumo sobre dados de biometria e problemas associados</t>
-  </si>
-  <si>
-    <t>03/08/18 - Cálculo de coparticipação realizado no dia 02/08 e os dados estarão disponíveis no extrato do beneficiário.
-01/08/18 - Será feita revisão dos dados do extrato, em comparação com base operacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/08/18 - Devido à demanda extraordinária do TCE, esta ação foi adiantada e concluída.
-</t>
-  </si>
-  <si>
-    <t>09/08/18 - 
-03/08/18 - Será tratado diretamente com André Duarte em reunião presencial.
+    <t>09/08/18 - Regras conferidas diretamente no Jira, com ajuste de criticidade Alta para calendário 24/7. Também ficou definida regra para acompanhamento apenas (não será cobrado em SLA formal) de Melhorias Criticidade Média, com 12 horas úteis para primeira resposta e 60 horas úteis para resolução
+03/08/18 - Será tratado diretamente com André Duarte em reunião presencial
 01/08/18 - Será apresentado por Tipo e Criticidade.</t>
   </si>
   <si>
-    <t>07/08/18 - Tratado em detalhes na reunião de SLA referente à julho
-01/08/18 - Citado, será tratado com evidências já enviadas pelo André
-13/07/18 - Divergências apresentadas na reunião de fechamento de SLA de junho, com algumas mudanças justificadas. Todos os meses serão calculados retroativamente pelo módulo de SLA Planserv</t>
-  </si>
-  <si>
-    <t>09/08/18 - 
+    <t>09/08/18 - Reunião de alinhamento em 13/08/18, às 10:00 no Planserv
 07/08/18 - Tratado em reunião com Dulce e Ana Claudia, será relizado alinhamento para todas as demandas controladas em paralelo dentro do Jira e por expecialistas utilizando o BI ou outras extrações de sistema
 01/08/18 - Será discutido com equipe.</t>
   </si>
   <si>
-    <t>09/08/18 - 
-01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
+    <t>Resolvida</t>
+  </si>
+  <si>
+    <t>09/08/18 - Relatório sobre captura e chamados relacionados à biometria elaborados por Denis, serão enviados para avaliação
+03/08/18 - Relatório em elaboração por Denis, informado por André Duarte.
+01/08/18 - Será criado um resumo sobre dados de biometria e problemas associados</t>
+  </si>
+  <si>
+    <t>09/08/18 - Foi solicitado a Denis uma amostra para validação, dados de beneficiários com utilização em abril, período já sob controle da Qualirede e com 90 dias para apresentação de contas já transcorrido
+03/08/18 - Cálculo de coparticipação realizado no dia 02/08 e os dados estarão disponíveis no extrato do beneficiário.
+01/08/18 - Será feita revisão dos dados do extrato, em comparação com base operacional</t>
+  </si>
+  <si>
+    <t>Assegurar que dados da base com acesso pelo Planserv estão atualizados a D-1</t>
+  </si>
+  <si>
+    <t>Uso para: módulo de SLA, projeto de interface pública, suporte a equipe de gestão pela TI PSV</t>
+  </si>
+  <si>
+    <t>Raniere/Bernardo</t>
+  </si>
+  <si>
+    <t>09/08/18 - Foram identificadas tabelas sem dados atualizados, e também fomos informados que a carga está sendo realizada sob demanda. Em reunião foi definido que a base deve estar espelhada com a STG 1 de produção em D-1, o método poderá ser definido pela equipe técnica da QRD, espelhamento ou cargas simultâneas</t>
+  </si>
+  <si>
+    <t>11.4.7.8 Módulo Relatórios</t>
+  </si>
+  <si>
+    <t>11.4.7.8.1 O sistema deve permitir a geração de relatórios básicos, conforme as descrições que seguem.</t>
+  </si>
+  <si>
+    <t>11.4.7.8.1.1 Beneficiários</t>
+  </si>
+  <si>
+    <t>a.Histórico de atendimento do beneficiário;</t>
+  </si>
+  <si>
+    <t>b.Quantidade de atendimentos e ações realizadas por tipo, grupo e beneficiário;</t>
+  </si>
+  <si>
+    <t>c.Extrato de utilização do beneficiário;</t>
+  </si>
+  <si>
+    <t>d.Quantidade de beneficiários por:</t>
+  </si>
+  <si>
+    <t>(i)Tipo de plano;</t>
+  </si>
+  <si>
+    <t>(ii)Faixa etária e gênero;</t>
+  </si>
+  <si>
+    <t>(iii)Órgão de lotação;</t>
+  </si>
+  <si>
+    <t>(iv)Com ação judicial;</t>
+  </si>
+  <si>
+    <t>(v)Por vínculo;</t>
+  </si>
+  <si>
+    <t>(vi)Por domicílio (macrorregião, distrito sanitário, logradouro, CEP);</t>
+  </si>
+  <si>
+    <t>(vii)Por faixa salarial.</t>
+  </si>
+  <si>
+    <t>e.Estatísticas do total de beneficiários;</t>
+  </si>
+  <si>
+    <t>f.Acompanhamento das divergências cadastrais;</t>
+  </si>
+  <si>
+    <t>11.4.7.8.1.2 Rede de Prestadores</t>
+  </si>
+  <si>
+    <t>a.Quantidade de pedidos de credenciamento por:</t>
+  </si>
+  <si>
+    <t>(i)Especialidade e subespecialidade;</t>
+  </si>
+  <si>
+    <t>(ii)Nome do candidato;</t>
+  </si>
+  <si>
+    <t>(iii)Bairro (distrito sanitário);</t>
+  </si>
+  <si>
+    <t>(iv)Região (macro e micro);</t>
+  </si>
+  <si>
+    <t>(v)Cidade;</t>
+  </si>
+  <si>
+    <t>(vi)Regime de atendimento;</t>
+  </si>
+  <si>
+    <t>(vii)Procedimento;</t>
+  </si>
+  <si>
+    <t>(viii)Classificação;</t>
+  </si>
+  <si>
+    <t>(ix)Edital;</t>
+  </si>
+  <si>
+    <t>(x)Tipo de estabelecimento.</t>
+  </si>
+  <si>
+    <t>b.Acompanhamento de atendimentos ao prestador, com histórico e tempo médio de resposta;</t>
+  </si>
+  <si>
+    <t>c.Histórico de ocorrências do prestador;</t>
+  </si>
+  <si>
+    <t>d.Quantidade de prestadores por:</t>
+  </si>
+  <si>
+    <t>(i)Especialidade e sub-especialidade;</t>
+  </si>
+  <si>
+    <t>(ii)Nome do credenciado e razão social;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(vi)Regime de atendimento; </t>
+  </si>
+  <si>
+    <t>(x)Tipo de estabelecimento;</t>
+  </si>
+  <si>
+    <t>(xi)Faturamento;</t>
+  </si>
+  <si>
+    <t>(xii)Glosa;</t>
+  </si>
+  <si>
+    <t>(xiii)Corpo clínico;</t>
+  </si>
+  <si>
+    <t>(xiv)Cota.</t>
+  </si>
+  <si>
+    <t>11.4.7.8.1.3 Coordenação de Saúde:</t>
+  </si>
+  <si>
+    <t>a.Utilização do beneficiário;</t>
+  </si>
+  <si>
+    <t>b.Relatório de beneficiários com limitações cadastrais e autorizações vigentes;</t>
+  </si>
+  <si>
+    <t>c.Relatório de regras de regulação;</t>
+  </si>
+  <si>
+    <t>d.Relatório de fluxo de regulação;</t>
+  </si>
+  <si>
+    <t>e.Relatório de rastreamento de regulações com log de operador e timestamp;</t>
+  </si>
+  <si>
+    <t>f.Quantidade de análise por tipo, grupo, beneficiário, prestador e alçada;</t>
+  </si>
+  <si>
+    <t>g.Relatório de parâmetros dos procedimentos e produtos para a saúde;</t>
+  </si>
+  <si>
+    <t>h.Histórico da solicitação de procedimento;</t>
+  </si>
+  <si>
+    <t>i.Solicitações de procedimentos vinculadas, por beneficiário;</t>
+  </si>
+  <si>
+    <t>11.4.7.8.1.4 Promoção à Saúde e Prevenção de Doenças e Agravos</t>
+  </si>
+  <si>
+    <t>a.Quantidade de atendimentos e ações realizadas por tipo, grupo e beneficiário.</t>
+  </si>
+  <si>
+    <t>11.4.7.8.1.5 Coordenação de Controle</t>
+  </si>
+  <si>
+    <t>a.Quantidade e histórico de contas processadas;</t>
+  </si>
+  <si>
+    <t>b.Quantidade e histórico de contas auditadas;</t>
+  </si>
+  <si>
+    <t>c.Quantidade e histórico das glosas aplicadas;</t>
+  </si>
+  <si>
+    <t>d.Censo de pacientes internados;</t>
+  </si>
+  <si>
+    <t>e.Quantidade de ações de auditoria realizadas por tipo, prestador e localidade;</t>
+  </si>
+  <si>
+    <t>f.Contas cobradas e pagas por tipo, prestador, localidade e beneficiário.</t>
+  </si>
+  <si>
+    <t>11.4.7.8.1.6 Coordenação de Tecnologia da Informação:</t>
+  </si>
+  <si>
+    <t>a.Relatório de perfis de acessos por usuário.</t>
+  </si>
+  <si>
+    <t>11.4.7.8.1.7 FUNSERV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.Acompanhamento das notas fiscais encaminhadas e pendentes, por prestador e referência; </t>
+  </si>
+  <si>
+    <t>b.Status de pagamento por prestador e referência;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.Receita devida e recebida e inadimplência por órgão, beneficiário, grupo familiar e tipo de receita (patronal e consignada). </t>
+  </si>
+  <si>
+    <t>Abaixo estão listadas as seções do Edital referentes ao módulo relatórios, os itens dentro da faixa amarela foram apresentados pela equipe de BI, e precisam ser avaliados pela equipe de negócio sobre sua integridade e completude. Os itens na faixa vermelha ainda não foram apresentados e precisam ser tratados em uma entrega consolidada, ainda que a mesma não seja realizada pelo módulo analítico/BI</t>
+  </si>
+  <si>
+    <t>Atualização de dados da Cópia_STG 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,8 +981,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,12 +1062,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1167,24 +1390,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1194,6 +1414,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1221,8 +1444,14 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,11 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2310,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>4</v>
@@ -2100,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -2114,7 +2342,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
@@ -2129,15 +2357,15 @@
       <c r="J7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="48" t="s">
-        <v>171</v>
+      <c r="K7" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -2166,26 +2394,26 @@
       <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="48">
         <v>43315</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
@@ -2204,10 +2432,10 @@
         <v>26</v>
       </c>
       <c r="K9" s="26">
-        <v>43321</v>
+        <v>43328</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M9" s="11"/>
     </row>
@@ -2241,14 +2469,14 @@
         <v>32</v>
       </c>
       <c r="K10" s="26">
-        <v>43321</v>
+        <v>43328</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2262,7 +2490,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
@@ -2277,15 +2505,15 @@
       <c r="J11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="48" t="s">
-        <v>171</v>
+      <c r="K11" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="360" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -2315,14 +2543,14 @@
         <v>36</v>
       </c>
       <c r="K12" s="26">
-        <v>43321</v>
+        <v>43325</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -2351,15 +2579,15 @@
       <c r="J13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="48" t="s">
-        <v>171</v>
+      <c r="K13" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -2392,11 +2620,11 @@
         <v>37</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -2429,11 +2657,11 @@
         <v>37</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2447,7 +2675,7 @@
         <v>103</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>30</v>
@@ -2462,15 +2690,15 @@
       <c r="J16" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="48" t="s">
-        <v>171</v>
+      <c r="K16" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -2499,15 +2727,15 @@
       <c r="J17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="48" t="s">
-        <v>171</v>
+      <c r="K17" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -2520,8 +2748,8 @@
       <c r="D18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>191</v>
+      <c r="E18" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>30</v>
@@ -2534,37 +2762,37 @@
         <v>14</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" s="26">
-        <v>43321</v>
+        <v>112</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="54" t="s">
         <v>117</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="7" t="s">
@@ -2574,10 +2802,10 @@
         <v>105</v>
       </c>
       <c r="K19" s="26">
-        <v>43321</v>
+        <v>43328</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M19" s="11"/>
     </row>
@@ -2586,16 +2814,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>30</v>
@@ -2611,145 +2839,145 @@
         <v>109</v>
       </c>
       <c r="K20" s="26">
-        <v>43321</v>
+        <v>43325</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>171</v>
+        <v>122</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="L21" s="43" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>171</v>
+        <v>125</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="49">
+        <v>112</v>
+      </c>
+      <c r="K23" s="48">
         <v>43315</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>112</v>
+        <v>168</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="7" t="s">
@@ -2759,10 +2987,10 @@
         <v>26</v>
       </c>
       <c r="K24" s="26">
-        <v>43321</v>
+        <v>43328</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M24" s="11"/>
     </row>
@@ -2771,22 +2999,22 @@
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="7" t="s">
@@ -2795,32 +3023,52 @@
       <c r="J25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="26">
-        <v>43321</v>
+      <c r="K25" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>20</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="H26" s="16"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="11"/>
+      <c r="I26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="26">
+        <v>43322</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -2837,7 +3085,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -2854,7 +3102,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -2871,7 +3119,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -2888,7 +3136,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -2905,7 +3153,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -2922,7 +3170,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -2939,7 +3187,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -2956,7 +3204,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -2973,7 +3221,7 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -2990,7 +3238,7 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>31</v>
       </c>
@@ -3007,7 +3255,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>32</v>
       </c>
@@ -3025,13 +3273,7 @@
       <c r="M38" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:M38" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <filters>
-        <dateGroupItem year="2018" month="8" day="9" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A6:M38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="L2:L4"/>
@@ -3043,6 +3285,499 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E6B3A4-4660-4732-B0B7-3959BA325D5C}">
+  <dimension ref="A1:B87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="114.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="27" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="68"/>
+    </row>
+    <row r="2" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="64"/>
+      <c r="B27" s="67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="64"/>
+      <c r="B28" s="67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="64"/>
+      <c r="B29" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="64"/>
+      <c r="B30" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
+      <c r="B31" s="67" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="64"/>
+      <c r="B32" s="67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="67" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="64"/>
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="64"/>
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="64"/>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="64"/>
+      <c r="B39" s="67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="64"/>
+      <c r="B40" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="64"/>
+      <c r="B41" s="67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="64"/>
+      <c r="B42" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="64"/>
+      <c r="B43" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="64"/>
+      <c r="B44" s="67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="64"/>
+      <c r="B45" s="67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="64"/>
+      <c r="B46" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="64"/>
+      <c r="B47" s="67" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="64"/>
+      <c r="B48" s="67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="64"/>
+      <c r="B49" s="67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="64"/>
+      <c r="B50" s="67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="64"/>
+      <c r="B51" s="67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="64"/>
+      <c r="B52" s="67" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="65"/>
+      <c r="B54" s="66" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="65"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="65"/>
+      <c r="B56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="65"/>
+      <c r="B57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="65"/>
+      <c r="B58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="65"/>
+      <c r="B59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="65"/>
+      <c r="B60" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="65"/>
+      <c r="B61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="65"/>
+      <c r="B62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="65"/>
+      <c r="B63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="65"/>
+      <c r="B64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="65"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="65"/>
+      <c r="B66" s="66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="65"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="65"/>
+      <c r="B68" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="65"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="65"/>
+      <c r="B70" s="66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="65"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="65"/>
+      <c r="B72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="65"/>
+      <c r="B73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="65"/>
+      <c r="B74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="65"/>
+      <c r="B75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="65"/>
+      <c r="B76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="65"/>
+      <c r="B77" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="65"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="65"/>
+      <c r="B79" s="66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="65"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="65"/>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="65"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="65"/>
+      <c r="B83" s="66" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="65"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="65"/>
+      <c r="B85" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="65"/>
+      <c r="B86" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="65"/>
+      <c r="B87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3056,173 +3791,173 @@
     <col min="2" max="2" width="58" style="19" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="61"/>
-      <c r="E1" s="53"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>180</v>
+        <v>159</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>162</v>
+        <v>148</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>161</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>160</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>181</v>
+        <v>150</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>176</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>164</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>165</v>
+        <v>151</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>164</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>166</v>
+        <v>152</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>165</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>183</v>
+        <v>153</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>188</v>
+        <v>154</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>182</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -3236,13 +3971,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,7 +4084,7 @@
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="53">
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -3374,7 +4109,7 @@
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="53">
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
@@ -3397,7 +4132,7 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="53">
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -3447,7 +4182,7 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="53">
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
@@ -3470,7 +4205,7 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="53">
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -3545,7 +4280,7 @@
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="53">
         <v>11</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -3572,7 +4307,7 @@
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="53">
         <v>12</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -3597,7 +4332,7 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+      <c r="A15" s="53">
         <v>13</v>
       </c>
       <c r="B15" s="41" t="s">
@@ -3645,7 +4380,7 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="53">
         <v>15</v>
       </c>
       <c r="B17" s="34" t="s">
@@ -3981,7 +4716,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="5">
-      <filters>
+      <filters blank="1">
         <filter val="Homologação"/>
       </filters>
     </filterColumn>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D972BD4-D06A-4686-99C0-399330C9A744}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de ação" sheetId="1" r:id="rId1"/>
@@ -22,12 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cronograma BI QRD'!$A$2:$I$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$M$38</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="270">
   <si>
     <t>Item</t>
   </si>
@@ -458,12 +452,6 @@
 03/07/18 - Foi definido em reunião com equipes de TI que a base de dados origem para Interface pública será a Stage 1, e portanto foi solicitado novamente o Diagrama para avaliação da TI PSV</t>
   </si>
   <si>
-    <t>01/08/18 - Será discutido com Infra até 03/08
-27/07/18 - Sem retorno, em mail enviado para toda a liderança da QRD.
-23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento, fundamental para conclusão do módulo de SLA
-03/07/18 - Definição de uma cópia da Stage 1 com acesso direto à banco de dados via VPN</t>
-  </si>
-  <si>
     <t>01/08/18 - Ação apresentada para TI QRD, conforme conversado com André Machado
 24/07/18 - Ficou definido que a resposta automatica será mantida, mas será avaliado pela equipe PSV a diferença entre esta e a efetiva primeira resposta enviada pelo técnico na avaliação inicial do chamado após abertura. Se o tempo for muito elevado, a resposta automática deve ser reavaliada</t>
   </si>
@@ -685,9 +673,6 @@
     <t>Raniere/Bernardo</t>
   </si>
   <si>
-    <t>09/08/18 - Foram identificadas tabelas sem dados atualizados, e também fomos informados que a carga está sendo realizada sob demanda. Em reunião foi definido que a base deve estar espelhada com a STG 1 de produção em D-1, o método poderá ser definido pela equipe técnica da QRD, espelhamento ou cargas simultâneas</t>
-  </si>
-  <si>
     <t>11.4.7.8 Módulo Relatórios</t>
   </si>
   <si>
@@ -884,13 +869,27 @@
   </si>
   <si>
     <t>Atualização de dados da Cópia_STG 1</t>
+  </si>
+  <si>
+    <t>03/08/18 - Acesso liberado conforme previsto, atualmente em avaliação pela TI PSV
+01/08/18 - Será discutido com Infra até 03/08
+27/07/18 - Sem retorno, em mail enviado para toda a liderança da QRD.
+23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento, fundamental para conclusão do módulo de SLA
+03/07/18 - Definição de uma cópia da Stage 1 com acesso direto à banco de dados via VPN</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>10/08/18 - Reuniões estão sendo conduzidas pelas equipes de TI e BI QRD para ajuste do processo de carga
+09/08/18 - Foram identificadas tabelas sem dados atualizados, e também fomos informados que a carga está sendo realizada sob demanda. Em reunião foi definido que a base deve estar espelhada com a STG 1 de produção em D-1, o método poderá ser definido pela equipe técnica da QRD, espelhamento ou cargas simultâneas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,41 +1416,41 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,7 +1489,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1528,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1579,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1625,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1671,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1717,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1763,7 @@
         <xdr:cNvPr id="2058" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +1809,7 @@
         <xdr:cNvPr id="2060" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1855,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1889,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1928,9 +1927,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1962,27 +1961,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2014,27 +1995,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2207,14 +2170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
@@ -2229,9 +2192,9 @@
     <col min="13" max="13" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="59"/>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2244,13 +2207,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="58"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A3" s="60"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2263,13 +2226,13 @@
       <c r="I3" s="6"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="59"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="61"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2284,10 +2247,10 @@
       <c r="I4" s="3"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="60"/>
+      <c r="L4" s="64"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="31.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2328,7 +2291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="210">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -2358,14 +2321,14 @@
         <v>15</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>137</v>
       </c>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="210">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -2378,8 +2341,8 @@
       <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>19</v>
+      <c r="E8" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
@@ -2394,15 +2357,15 @@
       <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="48">
-        <v>43315</v>
+      <c r="K8" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="180">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -2435,11 +2398,11 @@
         <v>43328</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="105">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -2472,11 +2435,11 @@
         <v>43328</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="270">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -2506,14 +2469,14 @@
         <v>26</v>
       </c>
       <c r="K11" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="360">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -2546,11 +2509,11 @@
         <v>43325</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="75">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -2580,14 +2543,14 @@
         <v>26</v>
       </c>
       <c r="K13" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="150">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -2620,11 +2583,11 @@
         <v>37</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="150">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -2657,11 +2620,11 @@
         <v>37</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="150">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -2691,14 +2654,14 @@
         <v>105</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -2728,14 +2691,14 @@
         <v>109</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="165">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -2749,7 +2712,7 @@
         <v>111</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>30</v>
@@ -2765,14 +2728,14 @@
         <v>112</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="90">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -2805,11 +2768,11 @@
         <v>43328</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="147.75" customHeight="1">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -2842,11 +2805,11 @@
         <v>43325</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="135">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2876,14 +2839,14 @@
         <v>122</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L21" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="105" customHeight="1">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2913,14 +2876,14 @@
         <v>125</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="105">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -2953,31 +2916,31 @@
         <v>43315</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="90">
       <c r="A24" s="7">
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="7" t="s">
@@ -2990,22 +2953,22 @@
         <v>43328</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="60">
       <c r="A25" s="7">
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>113</v>
@@ -3014,7 +2977,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="7" t="s">
@@ -3024,51 +2987,51 @@
         <v>26</v>
       </c>
       <c r="K25" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="142.5" customHeight="1">
       <c r="A26" s="7">
         <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K26" s="26">
         <v>43322</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -3085,7 +3048,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -3102,7 +3065,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -3119,7 +3082,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -3136,7 +3099,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -3153,7 +3116,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -3170,7 +3133,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -3187,7 +3150,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -3204,7 +3167,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -3221,7 +3184,7 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -3238,7 +3201,7 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="7">
         <v>31</v>
       </c>
@@ -3255,7 +3218,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="7">
         <v>32</v>
       </c>
@@ -3273,7 +3236,7 @@
       <c r="M38" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:M38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A6:M38"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="L2:L4"/>
@@ -3285,487 +3248,487 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E6B3A4-4660-4732-B0B7-3959BA325D5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="27" customWidth="1"/>
     <col min="2" max="2" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="27" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="68"/>
-    </row>
-    <row r="2" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66" t="s">
+    <row r="1" spans="1:2" s="27" customFormat="1" ht="69" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="65"/>
+    </row>
+    <row r="2" spans="1:2" s="27" customFormat="1"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="27" customFormat="1">
+      <c r="A4" s="55"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="27" customFormat="1">
+      <c r="A6" s="55"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="57" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="66" t="s">
+    <row r="8" spans="1:2" s="27" customFormat="1">
+      <c r="A8" s="55"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="55"/>
+      <c r="B9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="66" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="55"/>
+      <c r="B10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="55"/>
+      <c r="B11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="55"/>
+      <c r="B12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="67" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="67" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="67" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="67" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="67" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="67" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="55"/>
+      <c r="B20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="67" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="55"/>
+      <c r="B21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" t="s">
+    <row r="22" spans="1:2" s="27" customFormat="1">
+      <c r="A22" s="55"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="55"/>
+      <c r="B23" s="57" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" t="s">
+    <row r="24" spans="1:2" s="27" customFormat="1">
+      <c r="A24" s="55"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="55"/>
+      <c r="B25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="66" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="55"/>
+      <c r="B26" s="58" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="55"/>
+      <c r="B27" s="58" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="67" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="58" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="67" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="58" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="67" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="58" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="67" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="55"/>
+      <c r="B31" s="58" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="67" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="55"/>
+      <c r="B32" s="58" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="67" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="55"/>
+      <c r="B33" s="58" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="67" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="55"/>
+      <c r="B34" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="67" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="55"/>
+      <c r="B35" s="58" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="67" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="55"/>
+      <c r="B36" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="67" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="55"/>
+      <c r="B37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="55"/>
+      <c r="B38" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="58" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="58" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="67" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="55"/>
+      <c r="B42" s="58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="55"/>
+      <c r="B43" s="58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="55"/>
+      <c r="B44" s="58" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="67" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="55"/>
+      <c r="B45" s="58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="55"/>
+      <c r="B46" s="58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="55"/>
+      <c r="B47" s="58" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="55"/>
+      <c r="B48" s="58" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="67" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="67" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="67" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="67" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="55"/>
+      <c r="B49" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="67" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="67" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="67" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="67" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="55"/>
+      <c r="B50" s="58" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="67" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="55"/>
+      <c r="B51" s="58" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="67" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="55"/>
+      <c r="B52" s="58" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="67" t="s">
+    <row r="53" spans="1:2" s="27" customFormat="1"/>
+    <row r="54" spans="1:2">
+      <c r="A54" s="56"/>
+      <c r="B54" s="57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="67" t="s">
+    <row r="55" spans="1:2" s="27" customFormat="1">
+      <c r="A55" s="56"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="56"/>
+      <c r="B56" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="66" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="56"/>
+      <c r="B57" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="56"/>
+      <c r="B58" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="56"/>
+      <c r="B59" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="56"/>
+      <c r="B60" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="56"/>
+      <c r="B61" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="56"/>
+      <c r="B62" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="56"/>
+      <c r="B63" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="56"/>
+      <c r="B64" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" t="s">
+    <row r="65" spans="1:2" s="27" customFormat="1">
+      <c r="A65" s="56"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="56"/>
+      <c r="B66" s="57" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="B64" t="s">
+    <row r="67" spans="1:2" s="27" customFormat="1">
+      <c r="A67" s="56"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="56"/>
+      <c r="B68" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="66" t="s">
+    <row r="69" spans="1:2" s="27" customFormat="1">
+      <c r="A69" s="56"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="56"/>
+      <c r="B70" s="57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="B68" t="s">
+    <row r="71" spans="1:2" s="27" customFormat="1">
+      <c r="A71" s="56"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="56"/>
+      <c r="B72" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
-      <c r="B70" s="66" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="56"/>
+      <c r="B73" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
-      <c r="B72" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="56"/>
+      <c r="B74" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="56"/>
+      <c r="B75" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
-      <c r="B74" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="56"/>
+      <c r="B76" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
-      <c r="B75" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="56"/>
+      <c r="B77" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" t="s">
+    <row r="78" spans="1:2" s="27" customFormat="1">
+      <c r="A78" s="56"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="56"/>
+      <c r="B79" s="57" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="B77" t="s">
+    <row r="80" spans="1:2" s="27" customFormat="1">
+      <c r="A80" s="56"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="56"/>
+      <c r="B81" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="B79" s="66" t="s">
+    <row r="82" spans="1:2" s="27" customFormat="1">
+      <c r="A82" s="56"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="56"/>
+      <c r="B83" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
-      <c r="B81" t="s">
+    <row r="84" spans="1:2" s="27" customFormat="1">
+      <c r="A84" s="56"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="56"/>
+      <c r="B85" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
-      <c r="B83" s="66" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="56"/>
+      <c r="B86" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
-      <c r="B85" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="56"/>
+      <c r="B87" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
-      <c r="B86" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
-      <c r="B87" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3778,14 +3741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="58" style="19" customWidth="1"/>
@@ -3794,170 +3757,170 @@
     <col min="5" max="5" width="58.140625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="52"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="154.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="D4" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="135.75" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="140.25" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="51" t="s">
+      <c r="D6" s="49" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="165">
+      <c r="A7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="C7" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="193.5" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="174" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="C11" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="112.5" customHeight="1">
       <c r="A12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>181</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>182</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -3972,7 +3935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I236"/>
   <sheetViews>
@@ -3980,7 +3943,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" customWidth="1"/>
@@ -3993,20 +3956,20 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:9" ht="18.75">
+      <c r="A1" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5">
       <c r="A2" s="32"/>
       <c r="B2" s="39" t="s">
         <v>55</v>
@@ -4033,7 +3996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -4058,7 +4021,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -4083,7 +4046,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="25.5">
       <c r="A5" s="53">
         <v>3</v>
       </c>
@@ -4108,7 +4071,7 @@
       </c>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="53">
         <v>4</v>
       </c>
@@ -4131,7 +4094,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="53">
         <v>5</v>
       </c>
@@ -4156,7 +4119,7 @@
       </c>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25.5" hidden="1">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -4181,7 +4144,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="53">
         <v>7</v>
       </c>
@@ -4204,7 +4167,7 @@
       </c>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="38.25">
       <c r="A10" s="53">
         <v>8</v>
       </c>
@@ -4229,7 +4192,7 @@
       </c>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.5" hidden="1">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -4254,7 +4217,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -4279,7 +4242,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="53">
         <v>11</v>
       </c>
@@ -4306,7 +4269,7 @@
       </c>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="53">
         <v>12</v>
       </c>
@@ -4331,7 +4294,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="153">
       <c r="A15" s="53">
         <v>13</v>
       </c>
@@ -4358,7 +4321,7 @@
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="28">
         <v>14</v>
       </c>
@@ -4379,7 +4342,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="38.25">
       <c r="A17" s="53">
         <v>15</v>
       </c>
@@ -4406,7 +4369,7 @@
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="28"/>
       <c r="B18" s="34"/>
       <c r="C18" s="28"/>
@@ -4419,7 +4382,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="28"/>
       <c r="B19" s="34"/>
       <c r="C19" s="28"/>
@@ -4430,7 +4393,7 @@
       <c r="H19" s="30"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="28"/>
       <c r="B20" s="34"/>
       <c r="C20" s="28"/>
@@ -4441,7 +4404,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="28"/>
       <c r="B21" s="34"/>
       <c r="C21" s="28"/>
@@ -4452,7 +4415,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="28"/>
       <c r="B22" s="34"/>
       <c r="C22" s="28"/>
@@ -4463,7 +4426,7 @@
       <c r="H22" s="30"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="28"/>
       <c r="B23" s="34"/>
       <c r="C23" s="28"/>
@@ -4474,7 +4437,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="28"/>
       <c r="B24" s="34"/>
       <c r="C24" s="28"/>
@@ -4485,7 +4448,7 @@
       <c r="H24" s="30"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="28"/>
       <c r="B25" s="34"/>
       <c r="C25" s="28"/>
@@ -4496,7 +4459,7 @@
       <c r="H25" s="30"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="28"/>
       <c r="B26" s="34"/>
       <c r="C26" s="28"/>
@@ -4507,7 +4470,7 @@
       <c r="H26" s="30"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -4518,7 +4481,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -4529,7 +4492,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -4540,7 +4503,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -4551,7 +4514,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -4562,7 +4525,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -4573,7 +4536,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="27"/>
       <c r="B225" s="27"/>
       <c r="C225" s="27"/>
@@ -4584,7 +4547,7 @@
       <c r="H225" s="27"/>
       <c r="I225" s="27"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="27"/>
       <c r="B226" s="27"/>
       <c r="C226" s="27"/>
@@ -4595,7 +4558,7 @@
       <c r="H226" s="27"/>
       <c r="I226" s="27"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="27"/>
       <c r="B227" s="27"/>
       <c r="C227" s="27"/>
@@ -4606,7 +4569,7 @@
       <c r="H227" s="27"/>
       <c r="I227" s="27"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="27"/>
       <c r="B228" s="27"/>
       <c r="C228" s="27"/>
@@ -4617,7 +4580,7 @@
       <c r="H228" s="27"/>
       <c r="I228" s="27"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="27"/>
       <c r="B229" s="27"/>
       <c r="C229" s="27"/>
@@ -4628,7 +4591,7 @@
       <c r="H229" s="27"/>
       <c r="I229" s="27"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="27"/>
       <c r="B230" s="27"/>
       <c r="C230" s="27"/>
@@ -4639,7 +4602,7 @@
       <c r="H230" s="27"/>
       <c r="I230" s="27"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="27"/>
       <c r="B231" s="27"/>
       <c r="C231" s="27"/>
@@ -4650,7 +4613,7 @@
       <c r="H231" s="27"/>
       <c r="I231" s="27"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="27"/>
       <c r="B232" s="27"/>
       <c r="C232" s="27"/>
@@ -4661,7 +4624,7 @@
       <c r="H232" s="27"/>
       <c r="I232" s="27"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="27"/>
       <c r="B233" s="27"/>
       <c r="C233" s="27"/>
@@ -4672,7 +4635,7 @@
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="27"/>
       <c r="B234" s="27"/>
       <c r="C234" s="27"/>
@@ -4683,7 +4646,7 @@
       <c r="H234" s="27"/>
       <c r="I234" s="27"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="27"/>
       <c r="B235" s="27"/>
       <c r="C235" s="27"/>
@@ -4694,7 +4657,7 @@
       <c r="H235" s="27"/>
       <c r="I235" s="27"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="27"/>
       <c r="B236" s="27"/>
       <c r="C236" s="27"/>
@@ -4706,7 +4669,7 @@
       <c r="I236" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I18" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A2:I18">
     <filterColumn colId="4">
       <filters blank="1">
         <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
@@ -4716,7 +4679,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="5">
-      <filters blank="1">
+      <filters>
         <filter val="Homologação"/>
       </filters>
     </filterColumn>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="280">
   <si>
     <t>Item</t>
   </si>
@@ -227,9 +227,6 @@
     <t xml:space="preserve"> Inserir valores de matmed de alto custo informado nas solicitações quando ocorrer</t>
   </si>
   <si>
-    <t>Verificar na origem se os campos estão nulos</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Inserir valores apresentados e informados pelos prestadores no contas</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Inserir PENDECIAS das GUIAS/ANEXOS/ITENS geradas pelo motor de regras do contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar o modelo dimensional </t>
   </si>
   <si>
     <t xml:space="preserve"> Informar somente as iniciais dos beneficiários em todos os painéis</t>
@@ -252,13 +246,7 @@
     <t xml:space="preserve"> Inserir quantidade de lotes inválidos</t>
   </si>
   <si>
-    <t>Definir regra de negocio com o Vinicios Nicomedes</t>
-  </si>
-  <si>
     <t>Inserir Grupos e Subgrupos dos itens. Usar a classificação que está no credencia</t>
-  </si>
-  <si>
-    <t>Definir com Paulo e Ana Reis um prazo para reavaliar o agrupamento dos itens do Redeplan</t>
   </si>
   <si>
     <t>Inserir data da carga/atualizações nos painéis</t>
@@ -277,15 +265,9 @@
     <t>Patrick</t>
   </si>
   <si>
-    <t>Homologação</t>
-  </si>
-  <si>
     <t>Meu Painel Atendimentos</t>
   </si>
   <si>
-    <t>Incluir data de finalização do atendimento</t>
-  </si>
-  <si>
     <t>Criar painel com custo e tempo médio de internação</t>
   </si>
   <si>
@@ -296,9 +278,6 @@
   </si>
   <si>
     <t>Planserv_Movimentacao Cadatral</t>
-  </si>
-  <si>
-    <t>Incluir dados de RN e Dependentes e Agregados</t>
   </si>
   <si>
     <t>Produtividade na Auditoria de Contas</t>
@@ -884,12 +863,76 @@
     <t>10/08/18 - Reuniões estão sendo conduzidas pelas equipes de TI e BI QRD para ajuste do processo de carga
 09/08/18 - Foram identificadas tabelas sem dados atualizados, e também fomos informados que a carga está sendo realizada sob demanda. Em reunião foi definido que a base deve estar espelhada com a STG 1 de produção em D-1, o método poderá ser definido pela equipe técnica da QRD, espelhamento ou cargas simultâneas</t>
   </si>
+  <si>
+    <t>Há alguns campos nulos porque não é obrigatório o preenchimento.</t>
+  </si>
+  <si>
+    <t>Inclusão de valores apresentados e processsados dos lotes, das guias e dos itens.</t>
+  </si>
+  <si>
+    <t>Mantivemos o nome do beneficiários e incluimos um campo com sua iniciais.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Definir qual a melhor maneira de entregar esse relatório. (Não é item de edital)</t>
+  </si>
+  <si>
+    <t>Entregue Parcialmente</t>
+  </si>
+  <si>
+    <t>Os grupos e subgrupos já podem ser consultados no BI, no entanto, o cadastro dos itens ainda precisa ser ajustado. Pretendemos alinhar esse processo na nossa ida à Salvador esta semana.</t>
+  </si>
+  <si>
+    <t>Todo painel apresenta a data da carga atual.</t>
+  </si>
+  <si>
+    <t>Campos inseridos.</t>
+  </si>
+  <si>
+    <t>Aguardando cliente</t>
+  </si>
+  <si>
+    <t>Paniel disponibilizado para o cliente avaliar se atende às exigências (itens) do edital.</t>
+  </si>
+  <si>
+    <t>Como esse painel não faz parte do edital, ele ficou em stand by.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Incluir itens 3.2, 3.6, 3.8, 3.9, 3.10, 3.11</t>
+  </si>
+  <si>
+    <t>Este painel não está contido no edital.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Este painel não está contido no edital, no entanto ele foi desenvolvido para atender uma necessidade de negócio. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O cliente já solicitou melhorias.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,8 +1039,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1079,6 +1137,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,7 +1349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1341,9 +1417,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,13 +1432,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1450,6 +1516,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1489,7 +1598,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1637,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1688,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1734,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1780,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1826,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1872,7 @@
         <xdr:cNvPr id="2058" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1918,7 @@
         <xdr:cNvPr id="2060" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1964,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2303,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2207,13 +2316,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="62"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2226,13 +2335,13 @@
       <c r="I3" s="6"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="63"/>
+      <c r="L3" s="60"/>
       <c r="M3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="61"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2247,7 +2356,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="64"/>
+      <c r="L4" s="61"/>
       <c r="M4" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="31.5">
@@ -2273,7 +2382,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>4</v>
@@ -2304,8 +2413,8 @@
       <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>113</v>
+      <c r="E7" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
@@ -2320,11 +2429,11 @@
       <c r="J7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="47" t="s">
-        <v>169</v>
+      <c r="K7" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M7" s="11"/>
     </row>
@@ -2342,7 +2451,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
@@ -2357,11 +2466,11 @@
       <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="47" t="s">
-        <v>169</v>
+      <c r="K8" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M8" s="11"/>
     </row>
@@ -2370,13 +2479,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
@@ -2398,7 +2507,7 @@
         <v>43328</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M9" s="11"/>
     </row>
@@ -2435,7 +2544,7 @@
         <v>43328</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M10" s="11"/>
     </row>
@@ -2452,8 +2561,8 @@
       <c r="D11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>113</v>
+      <c r="E11" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
@@ -2468,11 +2577,11 @@
       <c r="J11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="47" t="s">
-        <v>169</v>
+      <c r="K11" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M11" s="11"/>
     </row>
@@ -2509,7 +2618,7 @@
         <v>43325</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M12" s="11"/>
     </row>
@@ -2518,22 +2627,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="7" t="s">
@@ -2542,11 +2651,11 @@
       <c r="J13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="47" t="s">
-        <v>169</v>
+      <c r="K13" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M13" s="11"/>
     </row>
@@ -2579,11 +2688,11 @@
       <c r="J14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="37" t="s">
         <v>37</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M14" s="11"/>
     </row>
@@ -2616,11 +2725,11 @@
       <c r="J15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="37" t="s">
         <v>37</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M15" s="11"/>
     </row>
@@ -2629,35 +2738,35 @@
         <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>169</v>
+        <v>98</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M16" s="11"/>
     </row>
@@ -2666,35 +2775,35 @@
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" s="47" t="s">
-        <v>169</v>
+        <v>102</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M17" s="11"/>
     </row>
@@ -2703,35 +2812,35 @@
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="47" t="s">
-        <v>169</v>
+        <v>105</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M18" s="11"/>
     </row>
@@ -2740,35 +2849,35 @@
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K19" s="26">
         <v>43328</v>
       </c>
-      <c r="L19" s="43" t="s">
-        <v>187</v>
+      <c r="L19" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="M19" s="11"/>
     </row>
@@ -2777,16 +2886,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>30</v>
@@ -2799,13 +2908,13 @@
         <v>14</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K20" s="26">
         <v>43325</v>
       </c>
-      <c r="L20" s="43" t="s">
-        <v>194</v>
+      <c r="L20" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="M20" s="11"/>
     </row>
@@ -2814,35 +2923,35 @@
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" s="43" t="s">
-        <v>196</v>
+        <v>115</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="M21" s="11"/>
     </row>
@@ -2851,35 +2960,35 @@
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>197</v>
+        <v>118</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>190</v>
       </c>
       <c r="M22" s="11"/>
     </row>
@@ -2888,35 +2997,35 @@
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="48">
+        <v>105</v>
+      </c>
+      <c r="K23" s="45">
         <v>43315</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M23" s="11"/>
     </row>
@@ -2925,22 +3034,22 @@
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="7" t="s">
@@ -2953,7 +3062,7 @@
         <v>43328</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M24" s="11"/>
     </row>
@@ -2962,22 +3071,22 @@
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="7" t="s">
@@ -2986,11 +3095,11 @@
       <c r="J25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="47" t="s">
-        <v>169</v>
+      <c r="K25" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M25" s="11"/>
     </row>
@@ -2999,35 +3108,35 @@
         <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K26" s="26">
         <v>43322</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M26" s="11"/>
     </row>
@@ -3262,473 +3371,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="27" customFormat="1" ht="69" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:2" s="27" customFormat="1"/>
     <row r="3" spans="1:2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="27" customFormat="1">
+      <c r="A4" s="52"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="52"/>
+      <c r="B5" s="54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="27" customFormat="1">
+      <c r="A6" s="52"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="52"/>
+      <c r="B7" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="27" customFormat="1">
+      <c r="A8" s="52"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="52"/>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="52"/>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="52"/>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="52"/>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="55" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="27" customFormat="1">
-      <c r="A4" s="55"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="57" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="27" customFormat="1">
-      <c r="A6" s="55"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="57" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="52"/>
+      <c r="B15" s="55" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="27" customFormat="1">
-      <c r="A8" s="55"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="55"/>
-      <c r="B9" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="55" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="55"/>
-      <c r="B10" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="55" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="55"/>
-      <c r="B11" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="55" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="55"/>
-      <c r="B12" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="55" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="58" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="52"/>
+      <c r="B20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="52"/>
+      <c r="B21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="58" t="s">
+    <row r="22" spans="1:2" s="27" customFormat="1">
+      <c r="A22" s="52"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="54" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58" t="s">
+    <row r="24" spans="1:2" s="27" customFormat="1">
+      <c r="A24" s="52"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="52"/>
+      <c r="B25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="55" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="58" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="55" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="55" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="55"/>
-      <c r="B20" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="52"/>
+      <c r="B29" s="55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="55"/>
-      <c r="B21" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="55" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="27" customFormat="1">
-      <c r="A22" s="55"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="57" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="52"/>
+      <c r="B31" s="55" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="27" customFormat="1">
-      <c r="A24" s="55"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="55"/>
-      <c r="B25" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="55" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="58" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="55" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="58" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="55" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="58" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="52"/>
+      <c r="B35" s="55" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="58" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="52"/>
+      <c r="B36" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="58" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="52"/>
+      <c r="B37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="58" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="52"/>
+      <c r="B38" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="58" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="52"/>
+      <c r="B39" s="55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="58" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="52"/>
+      <c r="B40" s="55" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="58" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="52"/>
+      <c r="B42" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="52"/>
+      <c r="B43" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="52"/>
+      <c r="B44" s="55" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="58" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="52"/>
+      <c r="B45" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="52"/>
+      <c r="B46" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="52"/>
+      <c r="B47" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="52"/>
+      <c r="B48" s="55" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="55"/>
-      <c r="B36" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="52"/>
+      <c r="B49" s="55" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="55"/>
-      <c r="B37" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="52"/>
+      <c r="B50" s="55" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="55"/>
-      <c r="B38" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="52"/>
+      <c r="B51" s="55" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="55"/>
-      <c r="B39" s="58" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="52"/>
+      <c r="B52" s="55" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="58" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="58" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="58" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="58" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="55"/>
-      <c r="B45" s="58" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="55"/>
-      <c r="B46" s="58" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="55"/>
-      <c r="B48" s="58" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="58" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="55"/>
-      <c r="B50" s="58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="55"/>
-      <c r="B51" s="58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="55"/>
-      <c r="B52" s="58" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="27" customFormat="1"/>
     <row r="54" spans="1:2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57" t="s">
+      <c r="A54" s="53"/>
+      <c r="B54" s="54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="27" customFormat="1">
+      <c r="A55" s="53"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="53"/>
+      <c r="B56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="53"/>
+      <c r="B57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="53"/>
+      <c r="B58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="53"/>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="53"/>
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="53"/>
+      <c r="B61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="53"/>
+      <c r="B62" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="27" customFormat="1">
-      <c r="A55" s="56"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="56"/>
-      <c r="B56" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="53"/>
+      <c r="B63" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="56"/>
-      <c r="B57" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="53"/>
+      <c r="B64" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="56"/>
-      <c r="B58" t="s">
+    <row r="65" spans="1:2" s="27" customFormat="1">
+      <c r="A65" s="53"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="53"/>
+      <c r="B66" s="54" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="56"/>
-      <c r="B59" t="s">
+    <row r="67" spans="1:2" s="27" customFormat="1">
+      <c r="A67" s="53"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="53"/>
+      <c r="B68" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="56"/>
-      <c r="B60" t="s">
+    <row r="69" spans="1:2" s="27" customFormat="1">
+      <c r="A69" s="53"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="53"/>
+      <c r="B70" s="54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="56"/>
-      <c r="B61" t="s">
+    <row r="71" spans="1:2" s="27" customFormat="1">
+      <c r="A71" s="53"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="53"/>
+      <c r="B72" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="56"/>
-      <c r="B62" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="53"/>
+      <c r="B73" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="56"/>
-      <c r="B63" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="53"/>
+      <c r="B74" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="56"/>
-      <c r="B64" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="53"/>
+      <c r="B75" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="27" customFormat="1">
-      <c r="A65" s="56"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="56"/>
-      <c r="B66" s="57" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="53"/>
+      <c r="B76" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="27" customFormat="1">
-      <c r="A67" s="56"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="56"/>
-      <c r="B68" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="53"/>
+      <c r="B77" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="27" customFormat="1">
-      <c r="A69" s="56"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="56"/>
-      <c r="B70" s="57" t="s">
+    <row r="78" spans="1:2" s="27" customFormat="1">
+      <c r="A78" s="53"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="53"/>
+      <c r="B79" s="54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="27" customFormat="1">
-      <c r="A71" s="56"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="56"/>
-      <c r="B72" t="s">
+    <row r="80" spans="1:2" s="27" customFormat="1">
+      <c r="A80" s="53"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="53"/>
+      <c r="B81" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="56"/>
-      <c r="B73" t="s">
+    <row r="82" spans="1:2" s="27" customFormat="1">
+      <c r="A82" s="53"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="53"/>
+      <c r="B83" s="54" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="56"/>
-      <c r="B74" t="s">
+    <row r="84" spans="1:2" s="27" customFormat="1">
+      <c r="A84" s="53"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="53"/>
+      <c r="B85" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="56"/>
-      <c r="B75" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="53"/>
+      <c r="B86" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="56"/>
-      <c r="B76" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="53"/>
+      <c r="B87" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="56"/>
-      <c r="B77" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="27" customFormat="1">
-      <c r="A78" s="56"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="56"/>
-      <c r="B79" s="57" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="27" customFormat="1">
-      <c r="A80" s="56"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="56"/>
-      <c r="B81" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="27" customFormat="1">
-      <c r="A82" s="56"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="56"/>
-      <c r="B83" s="57" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="27" customFormat="1">
-      <c r="A84" s="56"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="56"/>
-      <c r="B85" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="56"/>
-      <c r="B86" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="56"/>
-      <c r="B87" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3754,173 +3863,173 @@
     <col min="2" max="2" width="58" style="19" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="52"/>
+      <c r="A1" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>174</v>
+      <c r="B3" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="154.5" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>160</v>
+      <c r="C4" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="135.75" customHeight="1">
       <c r="A5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>159</v>
+      <c r="D5" s="46" t="s">
+        <v>152</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="140.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>175</v>
+        <v>142</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>168</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="165">
       <c r="A7" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>155</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="193.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>163</v>
+      <c r="D8" s="47" t="s">
+        <v>156</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="60">
       <c r="A9" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>164</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
       <c r="A10" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>177</v>
+        <v>145</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="174" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>182</v>
+        <v>146</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>175</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="112.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>174</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -3936,11 +4045,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3950,66 +4058,66 @@
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="31.5">
-      <c r="A2" s="32"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
-      <c r="A3" s="28">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>43283</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>43284</v>
       </c>
       <c r="F3" s="28" t="s">
@@ -4019,22 +4127,22 @@
         <v>65</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" hidden="1">
-      <c r="A4" s="28">
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="78">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>43283</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>43284</v>
       </c>
       <c r="F4" s="28" t="s">
@@ -4044,431 +4152,451 @@
         <v>65</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="35"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="25.5">
-      <c r="A5" s="53">
+      <c r="A5" s="79">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>43285</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>43308</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="G5" s="29" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="38.25">
+      <c r="A6" s="79">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>68</v>
-      </c>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="53">
-        <v>4</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>43286</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>43315</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="G6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="79">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="53">
-        <v>5</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>71</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>43284</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>43308</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="G7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" ht="25.5" hidden="1">
-      <c r="A8" s="28">
+      <c r="H7" s="30"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A8" s="79">
         <v>6</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>73</v>
+      <c r="B8" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>43287</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>43287</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5">
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="68">
+        <v>43305</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" spans="1:9" ht="63.75">
+      <c r="A10" s="71">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.5">
-      <c r="A9" s="53">
-        <v>7</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="36">
-        <v>43305</v>
-      </c>
-      <c r="E9" s="36">
-        <v>43313</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" ht="38.25">
-      <c r="A10" s="53">
-        <v>8</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>77</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>43305</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>43313</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="29" t="s">
+        <v>269</v>
+      </c>
       <c r="G10" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" hidden="1">
-      <c r="A11" s="28">
+        <v>270</v>
+      </c>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A11" s="78">
         <v>9</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>79</v>
+      <c r="B11" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <v>43271</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>43271</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" hidden="1">
-      <c r="A12" s="28">
+        <v>76</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
+      <c r="A12" s="78">
         <v>10</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>81</v>
+      <c r="B12" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>43271</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>43271</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="53">
+        <v>69</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" ht="38.25">
+      <c r="A13" s="79">
         <v>11</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="35">
+        <v>43278</v>
+      </c>
+      <c r="E13" s="35">
+        <v>43315</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.5">
+      <c r="A14" s="50">
+        <v>12</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="68">
+        <v>43290</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="H14" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="I14" s="67"/>
+    </row>
+    <row r="15" spans="1:9" ht="153">
+      <c r="A15" s="50">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="36">
-        <v>43278</v>
-      </c>
-      <c r="E13" s="36">
-        <v>43315</v>
-      </c>
-      <c r="F13" s="28" t="s">
+      <c r="D15" s="73">
+        <v>43297</v>
+      </c>
+      <c r="E15" s="74">
+        <v>43328</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="53">
-        <v>12</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="36">
-        <v>43290</v>
-      </c>
-      <c r="E14" s="36">
-        <v>43294</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" ht="153">
-      <c r="A15" s="53">
-        <v>13</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="36">
-        <v>43297</v>
-      </c>
-      <c r="E15" s="38">
-        <v>43315</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:9" hidden="1">
+      <c r="H15" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="I15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="28">
         <v>14</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>92</v>
+      <c r="B16" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="36">
+        <v>86</v>
+      </c>
+      <c r="D16" s="35">
         <v>43318</v>
       </c>
-      <c r="E16" s="36">
-        <v>43322</v>
-      </c>
-      <c r="F16" s="28"/>
+      <c r="E16" s="35">
+        <v>43335</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>276</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="38.25">
-      <c r="A17" s="53">
+      <c r="H16" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" ht="51">
+      <c r="A17" s="50">
         <v>15</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>94</v>
+      <c r="B17" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="36">
+        <v>88</v>
+      </c>
+      <c r="D17" s="35">
         <v>43280</v>
       </c>
-      <c r="E17" s="36">
-        <v>43313</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>84</v>
+      <c r="E17" s="35">
+        <v>43335</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>276</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="35"/>
+        <v>279</v>
+      </c>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="F18" s="28"/>
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="28"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="35"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="28"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="29"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="35"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="28"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="35"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="28"/>
-      <c r="B23" s="34"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="35"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="28"/>
-      <c r="B24" s="34"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="35"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="28"/>
-      <c r="B25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
       <c r="H25" s="30"/>
-      <c r="I25" s="35"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="28"/>
-      <c r="B26" s="34"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
       <c r="H26" s="30"/>
-      <c r="I26" s="35"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="27"/>
@@ -4536,6 +4664,105 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
     </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+    </row>
     <row r="225" spans="1:9">
       <c r="A225" s="27"/>
       <c r="B225" s="27"/>
@@ -4670,19 +4897,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:I18">
-    <filterColumn colId="4">
-      <filters blank="1">
-        <dateGroupItem year="2018" month="6" dateTimeGrouping="month"/>
-        <dateGroupItem year="2018" month="7" dateTimeGrouping="month"/>
-        <dateGroupItem year="2018" month="8" day="1" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="8" day="3" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Homologação"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cronograma BI QRD'!$A$2:$I$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$M$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$N$6</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="278">
   <si>
     <t>Item</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Próxima reunião de SLA</t>
-  </si>
-  <si>
-    <t>Solução definitiva com módulo de SLA Planserv</t>
   </si>
   <si>
     <t>Indicadores inconsistentes nos paineis de SLA</t>
@@ -332,9 +329,6 @@
     <t>André Duarte/Denis</t>
   </si>
   <si>
-    <t>Casos identificados foram reencaminhados para TI QRD</t>
-  </si>
-  <si>
     <t>Recebimento automático de chamados</t>
   </si>
   <si>
@@ -538,13 +532,6 @@
     <t>Usabilidade comprometida</t>
   </si>
   <si>
-    <t>09/08/18 - 
-01/08/18 - Foi liberado 30/07/18 será avaliado pela equipe.
-27/01/18 - PRevisão de entrega somente em 17/08, será feito novo alinamento em 31/07 para entendimento das dificuldades técnicas.
-06/07/18 - Foi realizada tentativa de envio do arquivo como alternativa ao acesso web pelo módulo analítico, sem sucesso
-04/07/18 - Formalizado por André Machado em resumo sobre reuniões realizadas em 03 e 04/07. Foi sinalizado por Raniere necessidade de intervenção da TI QRD para que o painel fosse disponibilizado, com previsão de produção na semana de 09 a 13/07, porém entrega ainda não foi realizada até o momento.</t>
-  </si>
-  <si>
     <t>Evidência/Exemplo</t>
   </si>
   <si>
@@ -567,9 +554,6 @@
   </si>
   <si>
     <t>Citado em reuniões de fechamento, em reunião de BI e recentemente novo conjunto de evidências foi capturado por Luis, será tratado em próxima reunião de fechamento de SLA</t>
-  </si>
-  <si>
-    <t>Padrão demonstrado pelo BI enviado durante transição, deve ser aplicado em todos os paineis de construção. ID 19 no painel</t>
   </si>
   <si>
     <t>03/08/18 - Criado novo projeto no Jira (ACESSOS) consolidando chamados de acesso.
@@ -612,22 +596,9 @@
     <t>Comunicada</t>
   </si>
   <si>
-    <t>09/08/18 - Apenas uma parte dos relatórios foi apresentada, com dados referentes a beneficiários (cadastro e relacionamento) e prestadores (credenciamento e ocorrências). Uma nova aba será criada para detalhamento da ação e pendências, e alinhamento deverá ser realizado entre TI e BI QRD para finalização da demanda
-01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
-23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela equipe de BI QRD até o momento
-19/06/18 - Retorno do PSV com ajustes e aprovação para especificação enviada
-08/06/18 - Envio de especificação sobre levantamento pela QRD
-30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
-  </si>
-  <si>
     <t>09/08/18 - Regras conferidas diretamente no Jira, com ajuste de criticidade Alta para calendário 24/7. Também ficou definida regra para acompanhamento apenas (não será cobrado em SLA formal) de Melhorias Criticidade Média, com 12 horas úteis para primeira resposta e 60 horas úteis para resolução
 03/08/18 - Será tratado diretamente com André Duarte em reunião presencial
 01/08/18 - Será apresentado por Tipo e Criticidade.</t>
-  </si>
-  <si>
-    <t>09/08/18 - Reunião de alinhamento em 13/08/18, às 10:00 no Planserv
-07/08/18 - Tratado em reunião com Dulce e Ana Claudia, será relizado alinhamento para todas as demandas controladas em paralelo dentro do Jira e por expecialistas utilizando o BI ou outras extrações de sistema
-01/08/18 - Será discutido com equipe.</t>
   </si>
   <si>
     <t>Resolvida</t>
@@ -855,13 +826,6 @@
 27/07/18 - Sem retorno, em mail enviado para toda a liderança da QRD.
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento, fundamental para conclusão do módulo de SLA
 03/07/18 - Definição de uma cópia da Stage 1 com acesso direto à banco de dados via VPN</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
-    <t>10/08/18 - Reuniões estão sendo conduzidas pelas equipes de TI e BI QRD para ajuste do processo de carga
-09/08/18 - Foram identificadas tabelas sem dados atualizados, e também fomos informados que a carga está sendo realizada sob demanda. Em reunião foi definido que a base deve estar espelhada com a STG 1 de produção em D-1, o método poderá ser definido pela equipe técnica da QRD, espelhamento ou cargas simultâneas</t>
   </si>
   <si>
     <t>Há alguns campos nulos porque não é obrigatório o preenchimento.</t>
@@ -926,6 +890,38 @@
       </rPr>
       <t>O cliente já solicitou melhorias.</t>
     </r>
+  </si>
+  <si>
+    <t>13/08/18 - Retorno por mail sobre item, informando que está sob avaliação, sem detalhamento
+09/08/18 - Apenas uma parte dos relatórios foi apresentada, com dados referentes a beneficiários (cadastro e relacionamento) e prestadores (credenciamento e ocorrências). Uma nova aba será criada para detalhamento da ação e pendências, e alinhamento deverá ser realizado entre TI e BI QRD para finalização da demanda
+01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
+23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela equipe de BI QRD até o momento
+19/06/18 - Retorno do PSV com ajustes e aprovação para especificação enviada
+08/06/18 - Envio de especificação sobre levantamento pela QRD
+30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
+  </si>
+  <si>
+    <t>14/08/18 - Acesso liberado diretamente na Stage 1 original, em avaliação sobre disponibilidade dos dados necessários para demais ações
+10/08/18 - Reuniões estão sendo conduzidas pelas equipes de TI e BI QRD para ajuste do processo de carga
+09/08/18 - Foram identificadas tabelas sem dados atualizados, e também fomos informados que a carga está sendo realizada sob demanda. Em reunião foi definido que a base deve estar espelhada com a STG 1 de produção em D-1, o método poderá ser definido pela equipe técnica da QRD, espelhamento ou cargas simultâneas</t>
+  </si>
+  <si>
+    <t>13/08/18 - Retorno de Bernardo sobre realização de alinhamento com a equipe sobre o assunto
+09/08/18 - Reunião de alinhamento em 13/08/18, às 10:00 no Planserv
+07/08/18 - Tratado em reunião com Dulce e Ana Claudia, será relizado alinhamento para todas as demandas controladas em paralelo dentro do Jira e por expecialistas utilizando o BI ou outras extrações de sistema
+01/08/18 - Será discutido com equipe.</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>01/08/18 - Foi liberado 30/07/18 será avaliado pela equipe.
+27/01/18 - PRevisão de entrega somente em 17/08, será feito novo alinamento em 31/07 para entendimento das dificuldades técnicas.
+06/07/18 - Foi realizada tentativa de envio do arquivo como alternativa ao acesso web pelo módulo analítico, sem sucesso
+04/07/18 - Formalizado por André Machado em resumo sobre reuniões realizadas em 03 e 04/07. Foi sinalizado por Raniere necessidade de intervenção da TI QRD para que o painel fosse disponibilizado, com previsão de produção na semana de 09 a 13/07, porém entrega ainda não foi realizada até o momento.</t>
+  </si>
+  <si>
+    <t>Subiu para produção devido à visita do TCE</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1051,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1155,6 +1151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,7 +1356,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1395,14 +1396,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1445,9 +1440,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1459,9 +1451,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,36 +1477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1560,6 +1519,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,15 +1586,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1598,7 +1602,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,13 +1625,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>786493</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>53067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>2292473</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>224517</xdr:rowOff>
@@ -1637,7 +1641,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1692,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1738,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1784,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1830,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1876,7 @@
         <xdr:cNvPr id="2058" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1922,7 @@
         <xdr:cNvPr id="2060" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1968,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
@@ -2288,1067 +2292,1150 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="11" width="18.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.42578125" customWidth="1"/>
-    <col min="13" max="13" width="81.140625" customWidth="1"/>
+    <col min="1" max="1" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="12" width="18.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.42578125" customWidth="1"/>
+    <col min="14" max="14" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1">
+      <c r="A2" s="74"/>
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="12" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:14" ht="22.5" customHeight="1">
+      <c r="A3" s="75"/>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="13" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="58"/>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="76"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>43313</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="31.5">
-      <c r="A6" s="4" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="6" spans="1:14" ht="31.5">
+      <c r="A6" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="180">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="23">
+        <v>43328</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="405">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="23">
+        <v>43328</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="90">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="23">
+        <v>43328</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="180">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="F10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="23">
+        <v>43328</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="90">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="23">
+        <v>43328</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" ht="105">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="23">
+        <v>43328</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="75">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="23">
+        <v>43328</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="105">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="23">
+        <v>43328</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" ht="210">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="210">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="240">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" ht="150">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" ht="60">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" ht="147.75" customHeight="1">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" ht="135">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" ht="105" customHeight="1">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>16</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" ht="120">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="150">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="10" t="s">
+      <c r="B24" s="6">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" ht="150">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>9</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" ht="142.5" customHeight="1">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>12</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6">
+        <v>22</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6">
+        <v>23</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6">
+        <v>24</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6">
+        <v>25</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6">
+        <v>26</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6">
         <v>27</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="210">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" ht="210">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="180">
-      <c r="A9" s="7">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="26">
-        <v>43328</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" ht="105">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6">
         <v>28</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6">
         <v>29</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6">
+        <v>30</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6">
         <v>31</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6">
         <v>32</v>
       </c>
-      <c r="K10" s="26">
-        <v>43328</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" ht="270">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" ht="360">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="26">
-        <v>43325</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" ht="75">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" ht="150">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" ht="150">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" ht="150">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" ht="120">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" ht="165">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" ht="90">
-      <c r="A19" s="7">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="26">
-        <v>43328</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" ht="147.75" customHeight="1">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="26">
-        <v>43325</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" ht="135">
-      <c r="A21" s="7">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" ht="105" customHeight="1">
-      <c r="A22" s="7">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" ht="105">
-      <c r="A23" s="7">
-        <v>17</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" s="45">
-        <v>43315</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" ht="90">
-      <c r="A24" s="7">
-        <v>18</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="26">
-        <v>43328</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" ht="60">
-      <c r="A25" s="7">
-        <v>19</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" ht="142.5" customHeight="1">
-      <c r="A26" s="7">
-        <v>20</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" s="26">
-        <v>43322</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="7">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="7">
-        <v>22</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="7">
-        <v>23</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="7">
-        <v>24</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="7">
-        <v>25</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="7">
-        <v>26</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="7">
-        <v>27</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="7">
-        <v>28</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="7">
-        <v>29</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="7">
-        <v>30</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="7">
-        <v>31</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="7">
-        <v>32</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:M38"/>
+  <autoFilter ref="A6:N6">
+    <sortState ref="A7:N38">
+      <sortCondition ref="A6"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
+    <mergeCell ref="M2:M4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -3366,478 +3453,478 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="24" customWidth="1"/>
     <col min="2" max="2" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="27" customFormat="1" ht="69" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="62"/>
-    </row>
-    <row r="2" spans="1:2" s="27" customFormat="1"/>
+    <row r="1" spans="1:2" s="24" customFormat="1" ht="69" customHeight="1">
+      <c r="A1" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="68"/>
+    </row>
+    <row r="2" spans="1:2" s="24" customFormat="1"/>
     <row r="3" spans="1:2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="24" customFormat="1">
+      <c r="A4" s="47"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="47"/>
+      <c r="B5" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="24" customFormat="1">
+      <c r="A6" s="47"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="47"/>
+      <c r="B7" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="24" customFormat="1">
+      <c r="A8" s="47"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="47"/>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="47"/>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="47"/>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="47"/>
+      <c r="B12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="27" customFormat="1">
-      <c r="A4" s="52"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="54" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="50" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="27" customFormat="1">
-      <c r="A6" s="52"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="50" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="27" customFormat="1">
-      <c r="A8" s="52"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="52"/>
-      <c r="B9" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="52"/>
-      <c r="B10" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="52"/>
-      <c r="B11" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="50" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="52"/>
-      <c r="B12" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="47"/>
+      <c r="B20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="47"/>
+      <c r="B21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55" t="s">
+    <row r="22" spans="1:2" s="24" customFormat="1">
+      <c r="A22" s="47"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="49" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="55" t="s">
+    <row r="24" spans="1:2" s="24" customFormat="1">
+      <c r="A24" s="47"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="47"/>
+      <c r="B25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="50" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="55" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="52"/>
-      <c r="B20" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="50" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="52"/>
-      <c r="B21" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="27" customFormat="1">
-      <c r="A22" s="52"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="54" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="27" customFormat="1">
-      <c r="A24" s="52"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="52"/>
-      <c r="B25" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="50" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="55" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="55" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="50" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="52"/>
-      <c r="B28" s="55" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="47"/>
+      <c r="B34" s="50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="52"/>
-      <c r="B29" s="55" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="55" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="47"/>
+      <c r="B36" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="52"/>
-      <c r="B31" s="55" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="47"/>
+      <c r="B37" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="55" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="47"/>
+      <c r="B38" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="55" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="47"/>
+      <c r="B39" s="50" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="52"/>
-      <c r="B34" s="55" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="47"/>
+      <c r="B40" s="50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="52"/>
-      <c r="B35" s="55" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="47"/>
+      <c r="B42" s="50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="47"/>
+      <c r="B43" s="50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="47"/>
+      <c r="B44" s="50" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="52"/>
-      <c r="B36" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="47"/>
+      <c r="B45" s="50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="47"/>
+      <c r="B46" s="50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="47"/>
+      <c r="B47" s="50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="47"/>
+      <c r="B48" s="50" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="52"/>
-      <c r="B37" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="47"/>
+      <c r="B49" s="50" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="52"/>
-      <c r="B38" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="47"/>
+      <c r="B50" s="50" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="55" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="47"/>
+      <c r="B51" s="50" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="55" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="47"/>
+      <c r="B52" s="50" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="52"/>
-      <c r="B41" s="55" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="52"/>
-      <c r="B43" s="55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="55" t="s">
+    <row r="53" spans="1:2" s="24" customFormat="1"/>
+    <row r="54" spans="1:2">
+      <c r="A54" s="48"/>
+      <c r="B54" s="49" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="52"/>
-      <c r="B45" s="55" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="52"/>
-      <c r="B46" s="55" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="52"/>
-      <c r="B47" s="55" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="52"/>
-      <c r="B48" s="55" t="s">
+    <row r="55" spans="1:2" s="24" customFormat="1">
+      <c r="A55" s="48"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="48"/>
+      <c r="B56" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="52"/>
-      <c r="B49" s="55" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="48"/>
+      <c r="B57" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="52"/>
-      <c r="B50" s="55" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="48"/>
+      <c r="B58" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="52"/>
-      <c r="B51" s="55" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="48"/>
+      <c r="B59" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="52"/>
-      <c r="B52" s="55" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="48"/>
+      <c r="B60" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="27" customFormat="1"/>
-    <row r="54" spans="1:2">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="48"/>
+      <c r="B61" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="27" customFormat="1">
-      <c r="A55" s="53"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="53"/>
-      <c r="B56" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="48"/>
+      <c r="B62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="53"/>
-      <c r="B57" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="48"/>
+      <c r="B63" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="53"/>
-      <c r="B58" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="48"/>
+      <c r="B64" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="53"/>
-      <c r="B59" t="s">
+    <row r="65" spans="1:2" s="24" customFormat="1">
+      <c r="A65" s="48"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="48"/>
+      <c r="B66" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="53"/>
-      <c r="B60" t="s">
+    <row r="67" spans="1:2" s="24" customFormat="1">
+      <c r="A67" s="48"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="48"/>
+      <c r="B68" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="53"/>
-      <c r="B61" t="s">
+    <row r="69" spans="1:2" s="24" customFormat="1">
+      <c r="A69" s="48"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="48"/>
+      <c r="B70" s="49" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="53"/>
-      <c r="B62" t="s">
+    <row r="71" spans="1:2" s="24" customFormat="1">
+      <c r="A71" s="48"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="48"/>
+      <c r="B72" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="53"/>
-      <c r="B63" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="48"/>
+      <c r="B73" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="53"/>
-      <c r="B64" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="48"/>
+      <c r="B74" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="27" customFormat="1">
-      <c r="A65" s="53"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="53"/>
-      <c r="B66" s="54" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="48"/>
+      <c r="B75" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="27" customFormat="1">
-      <c r="A67" s="53"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="53"/>
-      <c r="B68" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="48"/>
+      <c r="B76" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="27" customFormat="1">
-      <c r="A69" s="53"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="53"/>
-      <c r="B70" s="54" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="48"/>
+      <c r="B77" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="27" customFormat="1">
-      <c r="A71" s="53"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="53"/>
-      <c r="B72" t="s">
+    <row r="78" spans="1:2" s="24" customFormat="1">
+      <c r="A78" s="48"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="48"/>
+      <c r="B79" s="49" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="53"/>
-      <c r="B73" t="s">
+    <row r="80" spans="1:2" s="24" customFormat="1">
+      <c r="A80" s="48"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="48"/>
+      <c r="B81" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="53"/>
-      <c r="B74" t="s">
+    <row r="82" spans="1:2" s="24" customFormat="1">
+      <c r="A82" s="48"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="48"/>
+      <c r="B83" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="53"/>
-      <c r="B75" t="s">
+    <row r="84" spans="1:2" s="24" customFormat="1">
+      <c r="A84" s="48"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="48"/>
+      <c r="B85" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="53"/>
-      <c r="B76" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="48"/>
+      <c r="B86" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="53"/>
-      <c r="B77" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="48"/>
+      <c r="B87" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="27" customFormat="1">
-      <c r="A78" s="53"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="53"/>
-      <c r="B79" s="54" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="27" customFormat="1">
-      <c r="A80" s="53"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="53"/>
-      <c r="B81" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="27" customFormat="1">
-      <c r="A82" s="53"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="53"/>
-      <c r="B83" s="54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="27" customFormat="1">
-      <c r="A84" s="53"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="53"/>
-      <c r="B85" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="53"/>
-      <c r="B86" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="53"/>
-      <c r="B87" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3854,184 +3941,184 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="58" style="19" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="58" style="18" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A1" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="154.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="135.75" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="140.25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="165">
+      <c r="A7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="193.5" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="174" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="112.5" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="154.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="135.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="140.25" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="165">
-      <c r="A7" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="193.5" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="60">
-      <c r="A9" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="174" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="112.5" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4065,835 +4152,835 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5">
+      <c r="A2" s="28"/>
+      <c r="B2" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5">
-      <c r="A2" s="31"/>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="H2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="63">
         <v>1</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="78">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="32">
+        <v>43283</v>
+      </c>
+      <c r="E3" s="32">
+        <v>43284</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="35">
+      <c r="G3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="63">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="32">
         <v>43283</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E4" s="32">
         <v>43284</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="78">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.5">
+      <c r="A5" s="64">
+        <v>3</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="32">
+        <v>43285</v>
+      </c>
+      <c r="E5" s="32">
+        <v>43308</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="35">
-        <v>43283</v>
-      </c>
-      <c r="E4" s="35">
+      <c r="G5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="38.25">
+      <c r="A6" s="64">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="32">
+        <v>43286</v>
+      </c>
+      <c r="E6" s="32">
+        <v>43315</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="64">
+        <v>5</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="32">
         <v>43284</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="E7" s="32">
+        <v>43308</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:9" ht="25.5">
-      <c r="A5" s="79">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A8" s="64">
+        <v>6</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="32">
+        <v>43287</v>
+      </c>
+      <c r="E8" s="32">
+        <v>43287</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="35">
-        <v>43285</v>
-      </c>
-      <c r="E5" s="35">
-        <v>43308</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="G8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="53">
+        <v>43305</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" ht="63.75">
+      <c r="A10" s="56">
+        <v>8</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="32">
+        <v>43305</v>
+      </c>
+      <c r="E10" s="32">
+        <v>43313</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A11" s="63">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="32">
+        <v>43271</v>
+      </c>
+      <c r="E11" s="32">
+        <v>43271</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" ht="38.25">
-      <c r="A6" s="79">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
+      <c r="A12" s="63">
+        <v>10</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="32">
+        <v>43271</v>
+      </c>
+      <c r="E12" s="32">
+        <v>43271</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="35">
-        <v>43286</v>
-      </c>
-      <c r="E6" s="35">
+      <c r="H12" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" ht="38.25">
+      <c r="A13" s="64">
+        <v>11</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="32">
+        <v>43278</v>
+      </c>
+      <c r="E13" s="32">
         <v>43315</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="79">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="35">
-        <v>43284</v>
-      </c>
-      <c r="E7" s="35">
-        <v>43308</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A8" s="79">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="35">
-        <v>43287</v>
-      </c>
-      <c r="E8" s="35">
-        <v>43287</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="F13" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.5">
-      <c r="A9" s="50">
-        <v>7</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="68">
-        <v>43305</v>
-      </c>
-      <c r="E9" s="68" t="s">
+      <c r="G13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.5">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="53">
+        <v>43290</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70" t="s">
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="1:9" ht="153">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="58">
+        <v>43297</v>
+      </c>
+      <c r="E15" s="59">
+        <v>43328</v>
+      </c>
+      <c r="F15" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" spans="1:9" ht="63.75">
-      <c r="A10" s="71">
-        <v>8</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="35">
-        <v>43305</v>
-      </c>
-      <c r="E10" s="35">
-        <v>43313</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="G15" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="I15" s="62"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
+      <c r="A16" s="25">
+        <v>14</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="32">
+        <v>43318</v>
+      </c>
+      <c r="E16" s="32">
+        <v>43335</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A11" s="78">
-        <v>9</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="35">
-        <v>43271</v>
-      </c>
-      <c r="E11" s="35">
-        <v>43271</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="51">
+      <c r="A17" s="45">
+        <v>15</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="32">
+        <v>43280</v>
+      </c>
+      <c r="E17" s="32">
+        <v>43335</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="78">
-        <v>10</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="35">
-        <v>43271</v>
-      </c>
-      <c r="E12" s="35">
-        <v>43271</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" ht="38.25">
-      <c r="A13" s="79">
-        <v>11</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="35">
-        <v>43278</v>
-      </c>
-      <c r="E13" s="35">
-        <v>43315</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" ht="25.5">
-      <c r="A14" s="50">
-        <v>12</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="68">
-        <v>43290</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="I14" s="67"/>
-    </row>
-    <row r="15" spans="1:9" ht="153">
-      <c r="A15" s="50">
-        <v>13</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="73">
-        <v>43297</v>
-      </c>
-      <c r="E15" s="74">
-        <v>43328</v>
-      </c>
-      <c r="F15" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="76" t="s">
-        <v>277</v>
-      </c>
-      <c r="I15" s="77"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1">
-      <c r="A16" s="28">
-        <v>14</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="35">
-        <v>43318</v>
-      </c>
-      <c r="E16" s="35">
-        <v>43335</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" ht="51">
-      <c r="A17" s="50">
-        <v>15</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="35">
-        <v>43280</v>
-      </c>
-      <c r="E17" s="35">
-        <v>43335</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="I17" s="34"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="28"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="34"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="28"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="34"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="28"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="34"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="28"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="34"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="28"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="34"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="28"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="34"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="28"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="34"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="28"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="34"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="28"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="34"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="27"/>
-      <c r="B225" s="27"/>
-      <c r="C225" s="27"/>
-      <c r="D225" s="27"/>
-      <c r="E225" s="27"/>
-      <c r="F225" s="27"/>
-      <c r="G225" s="27"/>
-      <c r="H225" s="27"/>
-      <c r="I225" s="27"/>
+      <c r="A225" s="24"/>
+      <c r="B225" s="24"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="24"/>
+      <c r="G225" s="24"/>
+      <c r="H225" s="24"/>
+      <c r="I225" s="24"/>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="27"/>
-      <c r="B226" s="27"/>
-      <c r="C226" s="27"/>
-      <c r="D226" s="27"/>
-      <c r="E226" s="27"/>
-      <c r="F226" s="27"/>
-      <c r="G226" s="27"/>
-      <c r="H226" s="27"/>
-      <c r="I226" s="27"/>
+      <c r="A226" s="24"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="24"/>
+      <c r="F226" s="24"/>
+      <c r="G226" s="24"/>
+      <c r="H226" s="24"/>
+      <c r="I226" s="24"/>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="27"/>
-      <c r="B227" s="27"/>
-      <c r="C227" s="27"/>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27"/>
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27"/>
+      <c r="A227" s="24"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="24"/>
+      <c r="F227" s="24"/>
+      <c r="G227" s="24"/>
+      <c r="H227" s="24"/>
+      <c r="I227" s="24"/>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="27"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="27"/>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27"/>
-      <c r="I228" s="27"/>
+      <c r="A228" s="24"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="24"/>
+      <c r="F228" s="24"/>
+      <c r="G228" s="24"/>
+      <c r="H228" s="24"/>
+      <c r="I228" s="24"/>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="27"/>
-      <c r="B229" s="27"/>
-      <c r="C229" s="27"/>
-      <c r="D229" s="27"/>
-      <c r="E229" s="27"/>
-      <c r="F229" s="27"/>
-      <c r="G229" s="27"/>
-      <c r="H229" s="27"/>
-      <c r="I229" s="27"/>
+      <c r="A229" s="24"/>
+      <c r="B229" s="24"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="24"/>
+      <c r="F229" s="24"/>
+      <c r="G229" s="24"/>
+      <c r="H229" s="24"/>
+      <c r="I229" s="24"/>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="27"/>
-      <c r="B230" s="27"/>
-      <c r="C230" s="27"/>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
-      <c r="H230" s="27"/>
-      <c r="I230" s="27"/>
+      <c r="A230" s="24"/>
+      <c r="B230" s="24"/>
+      <c r="C230" s="24"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="24"/>
+      <c r="F230" s="24"/>
+      <c r="G230" s="24"/>
+      <c r="H230" s="24"/>
+      <c r="I230" s="24"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="27"/>
-      <c r="B231" s="27"/>
-      <c r="C231" s="27"/>
-      <c r="D231" s="27"/>
-      <c r="E231" s="27"/>
-      <c r="F231" s="27"/>
-      <c r="G231" s="27"/>
-      <c r="H231" s="27"/>
-      <c r="I231" s="27"/>
+      <c r="A231" s="24"/>
+      <c r="B231" s="24"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="24"/>
+      <c r="F231" s="24"/>
+      <c r="G231" s="24"/>
+      <c r="H231" s="24"/>
+      <c r="I231" s="24"/>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="27"/>
-      <c r="B232" s="27"/>
-      <c r="C232" s="27"/>
-      <c r="D232" s="27"/>
-      <c r="E232" s="27"/>
-      <c r="F232" s="27"/>
-      <c r="G232" s="27"/>
-      <c r="H232" s="27"/>
-      <c r="I232" s="27"/>
+      <c r="A232" s="24"/>
+      <c r="B232" s="24"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="24"/>
+      <c r="F232" s="24"/>
+      <c r="G232" s="24"/>
+      <c r="H232" s="24"/>
+      <c r="I232" s="24"/>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="27"/>
-      <c r="B233" s="27"/>
-      <c r="C233" s="27"/>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
-      <c r="H233" s="27"/>
-      <c r="I233" s="27"/>
+      <c r="A233" s="24"/>
+      <c r="B233" s="24"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="24"/>
+      <c r="F233" s="24"/>
+      <c r="G233" s="24"/>
+      <c r="H233" s="24"/>
+      <c r="I233" s="24"/>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="27"/>
-      <c r="B234" s="27"/>
-      <c r="C234" s="27"/>
-      <c r="D234" s="27"/>
-      <c r="E234" s="27"/>
-      <c r="F234" s="27"/>
-      <c r="G234" s="27"/>
-      <c r="H234" s="27"/>
-      <c r="I234" s="27"/>
+      <c r="A234" s="24"/>
+      <c r="B234" s="24"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
+      <c r="F234" s="24"/>
+      <c r="G234" s="24"/>
+      <c r="H234" s="24"/>
+      <c r="I234" s="24"/>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="27"/>
-      <c r="B235" s="27"/>
-      <c r="C235" s="27"/>
-      <c r="D235" s="27"/>
-      <c r="E235" s="27"/>
-      <c r="F235" s="27"/>
-      <c r="G235" s="27"/>
-      <c r="H235" s="27"/>
-      <c r="I235" s="27"/>
+      <c r="A235" s="24"/>
+      <c r="B235" s="24"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="24"/>
+      <c r="F235" s="24"/>
+      <c r="G235" s="24"/>
+      <c r="H235" s="24"/>
+      <c r="I235" s="24"/>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="27"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="27"/>
-      <c r="D236" s="27"/>
-      <c r="E236" s="27"/>
-      <c r="F236" s="27"/>
-      <c r="G236" s="27"/>
-      <c r="H236" s="27"/>
-      <c r="I236" s="27"/>
+      <c r="A236" s="24"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="24"/>
+      <c r="I236" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I18">

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="283">
   <si>
     <t>Item</t>
   </si>
@@ -429,10 +429,6 @@
 24/07/18 - Ficou definido que a resposta automatica será mantida, mas será avaliado pela equipe PSV a diferença entre esta e a efetiva primeira resposta enviada pelo técnico na avaliação inicial do chamado após abertura. Se o tempo for muito elevado, a resposta automática deve ser reavaliada</t>
   </si>
   <si>
-    <t>01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
-23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
-  </si>
-  <si>
     <t>Totais referentes a contas</t>
   </si>
   <si>
@@ -554,10 +550,6 @@
   </si>
   <si>
     <t>Citado em reuniões de fechamento, em reunião de BI e recentemente novo conjunto de evidências foi capturado por Luis, será tratado em próxima reunião de fechamento de SLA</t>
-  </si>
-  <si>
-    <t>03/08/18 - Criado novo projeto no Jira (ACESSOS) consolidando chamados de acesso.
-01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
   </si>
   <si>
     <t>03/08/18 - Removida a automação que muda o status do chamado quando o atendente comenta. A alteração será manual.
@@ -572,25 +564,6 @@
     <t>07/08/18 - Tratado em detalhes na reunião de SLA referente à julho
 01/08/18 - Citado, será tratado com evidências já enviadas pelo André
 13/07/18 - Divergências apresentadas na reunião de fechamento de SLA de junho, com algumas mudanças justificadas. Todos os meses serão calculados retroativamente pelo módulo de SLA Planserv</t>
-  </si>
-  <si>
-    <t>09/08/18 - Foi solicitado detalhamento sobre os campos, para verificar o que é possível (quebra de valores de glosa, valor informado e outros)
-01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/08/18 - Reunião presencial deverá tratar o esquema proposto, prevista para 16/08/18
-01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
-23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
-03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
-  </si>
-  <si>
-    <t>09/08/18 - Prevista para quinta 16/08/18
-01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
-23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
-  </si>
-  <si>
-    <t>09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
-24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
   </si>
   <si>
     <t>Comunicada</t>
@@ -892,7 +865,44 @@
     </r>
   </si>
   <si>
-    <t>13/08/18 - Retorno por mail sobre item, informando que está sob avaliação, sem detalhamento
+    <t>14/08/18 - Acesso liberado diretamente na Stage 1 original, em avaliação sobre disponibilidade dos dados necessários para demais ações
+10/08/18 - Reuniões estão sendo conduzidas pelas equipes de TI e BI QRD para ajuste do processo de carga
+09/08/18 - Foram identificadas tabelas sem dados atualizados, e também fomos informados que a carga está sendo realizada sob demanda. Em reunião foi definido que a base deve estar espelhada com a STG 1 de produção em D-1, o método poderá ser definido pela equipe técnica da QRD, espelhamento ou cargas simultâneas</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>01/08/18 - Foi liberado 30/07/18 será avaliado pela equipe.
+27/01/18 - PRevisão de entrega somente em 17/08, será feito novo alinamento em 31/07 para entendimento das dificuldades técnicas.
+06/07/18 - Foi realizada tentativa de envio do arquivo como alternativa ao acesso web pelo módulo analítico, sem sucesso
+04/07/18 - Formalizado por André Machado em resumo sobre reuniões realizadas em 03 e 04/07. Foi sinalizado por Raniere necessidade de intervenção da TI QRD para que o painel fosse disponibilizado, com previsão de produção na semana de 09 a 13/07, porém entrega ainda não foi realizada até o momento.</t>
+  </si>
+  <si>
+    <t>Subiu para produção devido à visita do TCE</t>
+  </si>
+  <si>
+    <t>Entrega de regras para curva A de procedimentos</t>
+  </si>
+  <si>
+    <t>Entrega de descrições legíveis de regras funcionais para área de negócio, segundo lista definida pelo PSV</t>
+  </si>
+  <si>
+    <t>Item Novo</t>
+  </si>
+  <si>
+    <t>Visibilidade sobre aplicação de regras para controle de gastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/08/18 - 
+09/08/18 - Reunião presencial deverá tratar o esquema proposto, prevista para 16/08/18
+01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
+23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
+03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
+  </si>
+  <si>
+    <t>16/08/18 - 
+13/08/18 - Retorno por mail sobre item, informando que está sob avaliação, sem detalhamento
 09/08/18 - Apenas uma parte dos relatórios foi apresentada, com dados referentes a beneficiários (cadastro e relacionamento) e prestadores (credenciamento e ocorrências). Uma nova aba será criada para detalhamento da ação e pendências, e alinhamento deverá ser realizado entre TI e BI QRD para finalização da demanda
 01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela equipe de BI QRD até o momento
@@ -901,27 +911,41 @@
 30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
   </si>
   <si>
-    <t>14/08/18 - Acesso liberado diretamente na Stage 1 original, em avaliação sobre disponibilidade dos dados necessários para demais ações
-10/08/18 - Reuniões estão sendo conduzidas pelas equipes de TI e BI QRD para ajuste do processo de carga
-09/08/18 - Foram identificadas tabelas sem dados atualizados, e também fomos informados que a carga está sendo realizada sob demanda. Em reunião foi definido que a base deve estar espelhada com a STG 1 de produção em D-1, o método poderá ser definido pela equipe técnica da QRD, espelhamento ou cargas simultâneas</t>
-  </si>
-  <si>
-    <t>13/08/18 - Retorno de Bernardo sobre realização de alinhamento com a equipe sobre o assunto
+    <t>16/08/18 - 
+15/08/18 - Relação da Curva A será elaborada e enviada pelo PSV</t>
+  </si>
+  <si>
+    <t>16/08/18 - 
+09/08/18 - Foi solicitado detalhamento sobre os campos, para verificar o que é possível (quebra de valores de glosa, valor informado e outros)
+01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
+  </si>
+  <si>
+    <t>16/08/18 - 
+13/08/18 - Retorno de Bernardo sobre realização de alinhamento com a equipe sobre o assunto
 09/08/18 - Reunião de alinhamento em 13/08/18, às 10:00 no Planserv
 07/08/18 - Tratado em reunião com Dulce e Ana Claudia, será relizado alinhamento para todas as demandas controladas em paralelo dentro do Jira e por expecialistas utilizando o BI ou outras extrações de sistema
 01/08/18 - Será discutido com equipe.</t>
   </si>
   <si>
-    <t>Prioridade</t>
-  </si>
-  <si>
-    <t>01/08/18 - Foi liberado 30/07/18 será avaliado pela equipe.
-27/01/18 - PRevisão de entrega somente em 17/08, será feito novo alinamento em 31/07 para entendimento das dificuldades técnicas.
-06/07/18 - Foi realizada tentativa de envio do arquivo como alternativa ao acesso web pelo módulo analítico, sem sucesso
-04/07/18 - Formalizado por André Machado em resumo sobre reuniões realizadas em 03 e 04/07. Foi sinalizado por Raniere necessidade de intervenção da TI QRD para que o painel fosse disponibilizado, com previsão de produção na semana de 09 a 13/07, porém entrega ainda não foi realizada até o momento.</t>
-  </si>
-  <si>
-    <t>Subiu para produção devido à visita do TCE</t>
+    <t>16/08/18 - 
+09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
+24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
+  </si>
+  <si>
+    <t>16/08/18 - 
+03/08/18 - Criado novo projeto no Jira (ACESSOS) consolidando chamados de acesso.
+01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
+  </si>
+  <si>
+    <t>16/08/18 - 
+01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
+23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
+  </si>
+  <si>
+    <t>16/08/18 - 
+09/08/18 - Prevista para quinta 16/08/18
+01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
+23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1075,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,6 +1181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1520,6 +1550,21 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,6 +1574,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1541,28 +1595,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1602,7 +1635,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1674,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1725,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1771,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1817,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1863,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1909,7 @@
         <xdr:cNvPr id="2058" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1955,7 @@
         <xdr:cNvPr id="2060" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +2001,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2320,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2308,7 +2341,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A2" s="74"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2322,13 +2355,13 @@
       <c r="J2" s="1"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="65"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A3" s="75"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2342,13 +2375,13 @@
       <c r="J3" s="5"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="66"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="76"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2364,14 +2397,14 @@
       <c r="J4" s="3"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="67"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="13"/>
     </row>
     <row r="6" spans="1:14" ht="31.5">
-      <c r="A6" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -2383,25 +2416,25 @@
       <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="65" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="65" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="66" t="s">
         <v>33</v>
       </c>
       <c r="M6" s="9" t="s">
@@ -2411,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="180">
+    <row r="7" spans="1:14" ht="210">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -2447,11 +2480,11 @@
         <v>43328</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="405">
+    <row r="8" spans="1:14" ht="409.5">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -2487,207 +2520,207 @@
         <v>43328</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="90">
+    <row r="9" spans="1:14" ht="60">
       <c r="A9" s="6">
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>108</v>
+        <v>271</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>272</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="L9" s="23">
         <v>43328</v>
       </c>
-      <c r="M9" s="36" t="s">
-        <v>176</v>
+      <c r="M9" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="180">
+    <row r="10" spans="1:14" ht="120">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>123</v>
+        <v>107</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L10" s="23">
         <v>43328</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="90">
+    <row r="11" spans="1:14" ht="210">
       <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="L11" s="23">
         <v>43328</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>179</v>
+      <c r="M11" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="105">
+    <row r="12" spans="1:14" ht="120">
       <c r="A12" s="6">
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="L12" s="23">
         <v>43328</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="75">
+    <row r="13" spans="1:14" ht="135">
       <c r="A13" s="6">
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="L13" s="23">
         <v>43328</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -2696,78 +2729,78 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L14" s="23">
         <v>43328</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="210">
+    <row r="15" spans="1:14" ht="135">
       <c r="A15" s="6">
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="78" t="s">
-        <v>104</v>
+        <v>29</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>160</v>
+        <v>32</v>
+      </c>
+      <c r="L15" s="23">
+        <v>43328</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="N15" s="10"/>
     </row>
@@ -2776,18 +2809,18 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="68" t="s">
         <v>104</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2804,130 +2837,130 @@
         <v>15</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" ht="240">
+    <row r="17" spans="1:14" ht="210">
       <c r="A17" s="6">
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="69" t="s">
         <v>104</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="150">
+    <row r="18" spans="1:14" ht="240">
       <c r="A18" s="6">
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="68" t="s">
         <v>104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" ht="60">
+    <row r="19" spans="1:14" ht="150">
       <c r="A19" s="6">
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="69" t="s">
         <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N19" s="10"/>
     </row>
@@ -2936,78 +2969,78 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="69" t="s">
         <v>104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" ht="135">
+    <row r="21" spans="1:14" ht="195">
       <c r="A21" s="6">
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="77" t="s">
-        <v>111</v>
+        <v>179</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>104</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>183</v>
+        <v>159</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="N21" s="10"/>
     </row>
@@ -3016,10 +3049,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>23</v>
@@ -3027,107 +3060,107 @@
       <c r="E22" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="67" t="s">
         <v>111</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>127</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="120">
+    <row r="23" spans="1:14" ht="150">
       <c r="A23" s="6">
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="67" t="s">
         <v>111</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>129</v>
+        <v>159</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="150">
+    <row r="24" spans="1:14" ht="120">
       <c r="A24" s="6">
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="67" t="s">
         <v>111</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="6" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>37</v>
+        <v>100</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>159</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="N24" s="10"/>
     </row>
@@ -3136,18 +3169,18 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="67" t="s">
         <v>111</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -3167,7 +3200,7 @@
         <v>37</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -3176,57 +3209,79 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>182</v>
+        <v>39</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>111</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" ht="165">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>12</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L26" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6">
-        <v>21</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="10"/>
+      <c r="L27" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14">
@@ -3458,16 +3513,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="24" customFormat="1" ht="69" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="68"/>
+      <c r="A1" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" s="24" customFormat="1"/>
     <row r="3" spans="1:2">
       <c r="A3" s="47"/>
       <c r="B3" s="49" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="24" customFormat="1">
@@ -3476,7 +3531,7 @@
     <row r="5" spans="1:2">
       <c r="A5" s="47"/>
       <c r="B5" s="49" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="24" customFormat="1">
@@ -3485,7 +3540,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="47"/>
       <c r="B7" s="49" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="24" customFormat="1">
@@ -3494,79 +3549,79 @@
     <row r="9" spans="1:2">
       <c r="A9" s="47"/>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="47"/>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="47"/>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="47"/>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="47"/>
       <c r="B13" s="50" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="47"/>
       <c r="B14" s="50" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="47"/>
       <c r="B15" s="50" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="47"/>
       <c r="B16" s="50" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="47"/>
       <c r="B17" s="50" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="47"/>
       <c r="B18" s="50" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="47"/>
       <c r="B19" s="50" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="47"/>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="47"/>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="24" customFormat="1">
@@ -3575,7 +3630,7 @@
     <row r="23" spans="1:2">
       <c r="A23" s="47"/>
       <c r="B23" s="49" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="24" customFormat="1">
@@ -3584,176 +3639,176 @@
     <row r="25" spans="1:2">
       <c r="A25" s="47"/>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="47"/>
       <c r="B26" s="50" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="47"/>
       <c r="B27" s="50" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="47"/>
       <c r="B29" s="50" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="47"/>
       <c r="B30" s="50" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="47"/>
       <c r="B31" s="50" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="47"/>
       <c r="B32" s="50" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="47"/>
       <c r="B33" s="50" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="47"/>
       <c r="B34" s="50" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="47"/>
       <c r="B35" s="50" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="47"/>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="47"/>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="47"/>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="47"/>
       <c r="B39" s="50" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="47"/>
       <c r="B40" s="50" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="47"/>
       <c r="B41" s="50" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="47"/>
       <c r="B42" s="50" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="47"/>
       <c r="B43" s="50" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="47"/>
       <c r="B44" s="50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="47"/>
       <c r="B45" s="50" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="47"/>
       <c r="B46" s="50" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="47"/>
       <c r="B47" s="50" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="47"/>
       <c r="B48" s="50" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="47"/>
       <c r="B49" s="50" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="47"/>
       <c r="B50" s="50" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="47"/>
       <c r="B51" s="50" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="47"/>
       <c r="B52" s="50" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="24" customFormat="1"/>
     <row r="54" spans="1:2">
       <c r="A54" s="48"/>
       <c r="B54" s="49" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="24" customFormat="1">
@@ -3762,55 +3817,55 @@
     <row r="56" spans="1:2">
       <c r="A56" s="48"/>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="48"/>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="48"/>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="48"/>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="48"/>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="48"/>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="48"/>
       <c r="B62" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="48"/>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="48"/>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="24" customFormat="1">
@@ -3819,7 +3874,7 @@
     <row r="66" spans="1:2">
       <c r="A66" s="48"/>
       <c r="B66" s="49" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="24" customFormat="1">
@@ -3828,7 +3883,7 @@
     <row r="68" spans="1:2">
       <c r="A68" s="48"/>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="24" customFormat="1">
@@ -3837,7 +3892,7 @@
     <row r="70" spans="1:2">
       <c r="A70" s="48"/>
       <c r="B70" s="49" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="24" customFormat="1">
@@ -3846,37 +3901,37 @@
     <row r="72" spans="1:2">
       <c r="A72" s="48"/>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="48"/>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="48"/>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="48"/>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="48"/>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="48"/>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="24" customFormat="1">
@@ -3885,7 +3940,7 @@
     <row r="79" spans="1:2">
       <c r="A79" s="48"/>
       <c r="B79" s="49" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="24" customFormat="1">
@@ -3894,7 +3949,7 @@
     <row r="81" spans="1:2">
       <c r="A81" s="48"/>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="24" customFormat="1">
@@ -3903,7 +3958,7 @@
     <row r="83" spans="1:2">
       <c r="A83" s="48"/>
       <c r="B83" s="49" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="24" customFormat="1">
@@ -3912,19 +3967,19 @@
     <row r="85" spans="1:2">
       <c r="A85" s="48"/>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="48"/>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="48"/>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3954,12 +4009,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="24" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="A1" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="44"/>
     </row>
     <row r="3" spans="1:5">
@@ -3967,156 +4022,156 @@
         <v>0</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="154.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="135.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="140.25" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="165">
       <c r="A7" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>153</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="193.5" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="60">
       <c r="A9" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
       <c r="A10" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="174" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="112.5" customHeight="1">
       <c r="A12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>170</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>171</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -4152,17 +4207,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="31.5">
       <c r="A2" s="28"/>
@@ -4264,7 +4319,7 @@
         <v>64</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I5" s="31"/>
     </row>
@@ -4291,7 +4346,7 @@
         <v>68</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I6" s="31"/>
     </row>
@@ -4343,7 +4398,7 @@
         <v>71</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I8" s="31"/>
     </row>
@@ -4361,14 +4416,14 @@
         <v>43305</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="55" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I9" s="52"/>
     </row>
@@ -4389,13 +4444,13 @@
         <v>43313</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>71</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I10" s="31"/>
     </row>
@@ -4422,7 +4477,7 @@
         <v>75</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I11" s="31"/>
     </row>
@@ -4449,7 +4504,7 @@
         <v>68</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I12" s="31"/>
     </row>
@@ -4470,13 +4525,13 @@
         <v>43315</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>79</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I13" s="31"/>
     </row>
@@ -4494,16 +4549,16 @@
         <v>43290</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>81</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I14" s="52"/>
     </row>
@@ -4524,13 +4579,13 @@
         <v>43328</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G15" s="60" t="s">
         <v>83</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I15" s="62"/>
     </row>
@@ -4551,11 +4606,11 @@
         <v>43335</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="27" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I16" s="31"/>
     </row>
@@ -4576,13 +4631,13 @@
         <v>43335</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>88</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I17" s="31"/>
     </row>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698DE232-AEDF-4927-8097-C3D5D24B87ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="8025"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de ação" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cronograma BI QRD'!$A$2:$I$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$N$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$N$38</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -894,14 +900,14 @@
     <t>Visibilidade sobre aplicação de regras para controle de gastos</t>
   </si>
   <si>
-    <t xml:space="preserve">16/08/18 - 
+    <t xml:space="preserve">16/08/18 - Será apresentado fluxo em próxima reunião, mesmo que a linha de trabalho não esteja completa
 09/08/18 - Reunião presencial deverá tratar o esquema proposto, prevista para 16/08/18
 01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
 23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
 03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
   </si>
   <si>
-    <t>16/08/18 - 
+    <t>16/08/18 - Uma planilha detalhada com informações sobre cada relatório foi montada e será apresentada oficialmente na próxima reunião, está em validação interna pela equipe QRD
 13/08/18 - Retorno por mail sobre item, informando que está sob avaliação, sem detalhamento
 09/08/18 - Apenas uma parte dos relatórios foi apresentada, com dados referentes a beneficiários (cadastro e relacionamento) e prestadores (credenciamento e ocorrências). Uma nova aba será criada para detalhamento da ação e pendências, e alinhamento deverá ser realizado entre TI e BI QRD para finalização da demanda
 01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
@@ -911,39 +917,39 @@
 30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
   </si>
   <si>
-    <t>16/08/18 - 
+    <t>16/08/18 - Atualmente o flag de liminar foi extendido aos paineis de beneficiários, e uma solução utilizando a competência "-2"
+09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
+24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
+  </si>
+  <si>
+    <t>16/08/18 - Primeira prevista para 17/08/18
+01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
+23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
+  </si>
+  <si>
+    <t>16/08/18 - Foi sinalizado por Denis entrega de regras da curva A, será verificado com a área de negócio no PSV
 15/08/18 - Relação da Curva A será elaborada e enviada pelo PSV</t>
   </si>
   <si>
-    <t>16/08/18 - 
+    <t>16/08/18 - Valores estão sendo detalhados em ações de melhoria no sistema, em tratativa pela TI QRD e área de negócio
 09/08/18 - Foi solicitado detalhamento sobre os campos, para verificar o que é possível (quebra de valores de glosa, valor informado e outros)
 01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
   </si>
   <si>
-    <t>16/08/18 - 
+    <t>16/08/18 - Foi alinhado com Neiza entrega até final do mês, e está sendo tratado de modo definitivo pela equipe de BI QRD
 13/08/18 - Retorno de Bernardo sobre realização de alinhamento com a equipe sobre o assunto
 09/08/18 - Reunião de alinhamento em 13/08/18, às 10:00 no Planserv
 07/08/18 - Tratado em reunião com Dulce e Ana Claudia, será relizado alinhamento para todas as demandas controladas em paralelo dentro do Jira e por expecialistas utilizando o BI ou outras extrações de sistema
 01/08/18 - Será discutido com equipe.</t>
   </si>
   <si>
-    <t>16/08/18 - 
-09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
-24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
-  </si>
-  <si>
-    <t>16/08/18 - 
+    <t>16/08/18 - Recurso da QRD não estava solicitando  validação de dúvida, será retreinada e também será verificada com a equipe de TI PSV
 03/08/18 - Criado novo projeto no Jira (ACESSOS) consolidando chamados de acesso.
 01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
   </si>
   <si>
-    <t>16/08/18 - 
-01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
-23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
-  </si>
-  <si>
-    <t>16/08/18 - 
-09/08/18 - Prevista para quinta 16/08/18
+    <t>16/08/18 - Prevista para terça 21/08/18, presencial com Bernardo
+09/08/18 - Prevista para quinta 16/08/18, presencidal com Raniere e Giselli
 01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
 23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
   </si>
@@ -951,8 +957,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,6 +1571,9 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1594,9 +1603,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1635,7 +1641,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1680,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1731,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1777,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1823,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1869,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1915,7 @@
         <xdr:cNvPr id="2058" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1961,7 @@
         <xdr:cNvPr id="2060" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2007,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2041,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2073,9 +2079,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2107,9 +2113,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2141,9 +2165,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2316,14 +2358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
@@ -2339,9 +2381,9 @@
     <col min="14" max="14" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A2" s="73"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="74"/>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2355,13 +2397,13 @@
       <c r="J2" s="1"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A3" s="74"/>
+    <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="75"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2375,13 +2417,13 @@
       <c r="J3" s="5"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="75"/>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2397,10 +2439,10 @@
       <c r="J4" s="3"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="72"/>
+      <c r="M4" s="73"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="31.5">
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>267</v>
       </c>
@@ -2444,7 +2486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="210">
+    <row r="7" spans="1:14" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -2477,14 +2519,14 @@
         <v>26</v>
       </c>
       <c r="L7" s="23">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>274</v>
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="409.5">
+    <row r="8" spans="1:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -2517,14 +2559,14 @@
         <v>36</v>
       </c>
       <c r="L8" s="23">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>275</v>
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="60">
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2540,7 +2582,7 @@
       <c r="E9" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="70" t="s">
         <v>272</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2557,14 +2599,14 @@
         <v>113</v>
       </c>
       <c r="L9" s="23">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="120">
+    <row r="10" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2597,14 +2639,14 @@
         <v>97</v>
       </c>
       <c r="L10" s="23">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="210">
+    <row r="11" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2637,14 +2679,14 @@
         <v>100</v>
       </c>
       <c r="L11" s="23">
-        <v>43328</v>
+        <v>43342</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="120">
+    <row r="12" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2677,14 +2719,14 @@
         <v>26</v>
       </c>
       <c r="L12" s="23">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="135">
+    <row r="13" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -2717,14 +2759,14 @@
         <v>103</v>
       </c>
       <c r="L13" s="23">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="105">
+    <row r="14" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -2757,14 +2799,14 @@
         <v>26</v>
       </c>
       <c r="L14" s="23">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="135">
+    <row r="15" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -2797,14 +2839,14 @@
         <v>32</v>
       </c>
       <c r="L15" s="23">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>282</v>
       </c>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="210">
+    <row r="16" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -2844,7 +2886,7 @@
       </c>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" ht="210">
+    <row r="17" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -2884,7 +2926,7 @@
       </c>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="240">
+    <row r="18" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -2924,7 +2966,7 @@
       </c>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" ht="150">
+    <row r="19" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -2964,7 +3006,7 @@
       </c>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="147.75" customHeight="1">
+    <row r="20" spans="1:14" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -3004,7 +3046,7 @@
       </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" ht="195">
+    <row r="21" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -3044,7 +3086,7 @@
       </c>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" ht="105" customHeight="1">
+    <row r="22" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -3084,7 +3126,7 @@
       </c>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="150">
+    <row r="23" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -3124,7 +3166,7 @@
       </c>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="120">
+    <row r="24" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -3164,7 +3206,7 @@
       </c>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="150">
+    <row r="25" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -3204,7 +3246,7 @@
       </c>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="142.5" customHeight="1">
+    <row r="26" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -3244,7 +3286,7 @@
       </c>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="165">
+    <row r="27" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -3284,7 +3326,7 @@
       </c>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6">
         <v>22</v>
@@ -3302,7 +3344,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6">
         <v>23</v>
@@ -3320,7 +3362,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6">
         <v>24</v>
@@ -3338,7 +3380,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6">
         <v>25</v>
@@ -3356,7 +3398,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6">
         <v>26</v>
@@ -3374,7 +3416,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6">
         <v>27</v>
@@ -3392,7 +3434,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6">
         <v>28</v>
@@ -3410,7 +3452,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6">
         <v>29</v>
@@ -3428,7 +3470,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6">
         <v>30</v>
@@ -3446,7 +3488,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6">
         <v>31</v>
@@ -3464,7 +3506,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6">
         <v>32</v>
@@ -3483,7 +3525,7 @@
       <c r="N38" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N6">
+  <autoFilter ref="A6:N38" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A7:N38">
       <sortCondition ref="A6"/>
     </sortState>
@@ -3499,484 +3541,484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="24" customWidth="1"/>
     <col min="2" max="2" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="24" customFormat="1" ht="69" customHeight="1">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:2" s="24" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="76"/>
-    </row>
-    <row r="2" spans="1:2" s="24" customFormat="1"/>
-    <row r="3" spans="1:2">
+      <c r="B1" s="77"/>
+    </row>
+    <row r="2" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="24" customFormat="1">
+    <row r="4" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="49" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="24" customFormat="1">
+    <row r="6" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="49" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="24" customFormat="1">
+    <row r="8" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="50" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="50" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="50" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="50" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="50" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="50" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="50" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="24" customFormat="1">
+    <row r="22" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="49" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="24" customFormat="1">
+    <row r="24" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="50" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="50" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="50" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="50" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
       <c r="B38" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="50" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="50" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="50" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="50" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
       <c r="B46" s="50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="50" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="50" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="50" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
       <c r="B51" s="50" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
       <c r="B52" s="50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="24" customFormat="1"/>
-    <row r="54" spans="1:2">
+    <row r="53" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="49" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="24" customFormat="1">
+    <row r="55" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="24" customFormat="1">
+    <row r="65" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="49" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="24" customFormat="1">
+    <row r="67" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="24" customFormat="1">
+    <row r="69" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="48"/>
       <c r="B70" s="49" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="24" customFormat="1">
+    <row r="71" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="48"/>
       <c r="B72" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="48"/>
       <c r="B73" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="48"/>
       <c r="B74" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="48"/>
       <c r="B75" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="48"/>
       <c r="B76" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="48"/>
       <c r="B77" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="24" customFormat="1">
+    <row r="78" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
       <c r="B79" s="49" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="24" customFormat="1">
+    <row r="80" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="48"/>
       <c r="B81" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="24" customFormat="1">
+    <row r="82" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="48"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
       <c r="B83" s="49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="24" customFormat="1">
+    <row r="84" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="48"/>
       <c r="B85" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="48"/>
       <c r="B86" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="48"/>
       <c r="B87" t="s">
         <v>245</v>
@@ -3992,14 +4034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="58" style="18" customWidth="1"/>
@@ -4008,16 +4050,16 @@
     <col min="5" max="5" width="58.140625" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
@@ -4034,7 +4076,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="154.5" customHeight="1">
+    <row r="4" spans="1:5" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>130</v>
       </c>
@@ -4049,7 +4091,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="135.75" customHeight="1">
+    <row r="5" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
@@ -4064,7 +4106,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="140.25" customHeight="1">
+    <row r="6" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
@@ -4079,7 +4121,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="165">
+    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>155</v>
       </c>
@@ -4096,7 +4138,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="193.5" customHeight="1">
+    <row r="8" spans="1:5" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>134</v>
       </c>
@@ -4111,7 +4153,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="60">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>135</v>
       </c>
@@ -4128,7 +4170,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>136</v>
       </c>
@@ -4145,7 +4187,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="174" customHeight="1">
+    <row r="11" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>132</v>
       </c>
@@ -4160,7 +4202,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="112.5" customHeight="1">
+    <row r="12" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>168</v>
       </c>
@@ -4186,14 +4228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" customWidth="1"/>
@@ -4206,20 +4248,20 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="33" t="s">
         <v>54</v>
@@ -4246,7 +4288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63">
         <v>1</v>
       </c>
@@ -4271,7 +4313,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="63">
         <v>2</v>
       </c>
@@ -4296,7 +4338,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>3</v>
       </c>
@@ -4323,7 +4365,7 @@
       </c>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9" ht="38.25">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>4</v>
       </c>
@@ -4350,7 +4392,7 @@
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <v>5</v>
       </c>
@@ -4375,7 +4417,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>6</v>
       </c>
@@ -4402,7 +4444,7 @@
       </c>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -4427,7 +4469,7 @@
       </c>
       <c r="I9" s="52"/>
     </row>
-    <row r="10" spans="1:9" ht="63.75">
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
         <v>8</v>
       </c>
@@ -4454,7 +4496,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63">
         <v>9</v>
       </c>
@@ -4481,7 +4523,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63">
         <v>10</v>
       </c>
@@ -4508,7 +4550,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25">
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>11</v>
       </c>
@@ -4535,7 +4577,7 @@
       </c>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -4562,7 +4604,7 @@
       </c>
       <c r="I14" s="52"/>
     </row>
-    <row r="15" spans="1:9" ht="153">
+    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -4589,7 +4631,7 @@
       </c>
       <c r="I15" s="62"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>14</v>
       </c>
@@ -4614,7 +4656,7 @@
       </c>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="51">
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -4641,7 +4683,7 @@
       </c>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="30"/>
       <c r="C18" s="25"/>
@@ -4652,7 +4694,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="30"/>
       <c r="C19" s="25"/>
@@ -4663,7 +4705,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="30"/>
       <c r="C20" s="25"/>
@@ -4674,7 +4716,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="30"/>
       <c r="C21" s="25"/>
@@ -4685,7 +4727,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="30"/>
       <c r="C22" s="25"/>
@@ -4696,7 +4738,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="30"/>
       <c r="C23" s="25"/>
@@ -4707,7 +4749,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="30"/>
       <c r="C24" s="25"/>
@@ -4718,7 +4760,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="30"/>
       <c r="C25" s="25"/>
@@ -4729,7 +4771,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="30"/>
       <c r="C26" s="25"/>
@@ -4740,7 +4782,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -4751,7 +4793,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -4762,7 +4804,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -4773,7 +4815,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -4784,7 +4826,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -4795,7 +4837,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -4806,7 +4848,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -4817,7 +4859,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -4828,7 +4870,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -4839,7 +4881,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -4850,7 +4892,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -4861,7 +4903,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -4872,7 +4914,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -4883,7 +4925,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -4894,7 +4936,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -4905,7 +4947,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
@@ -4916,7 +4958,7 @@
       <c r="H225" s="24"/>
       <c r="I225" s="24"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="24"/>
       <c r="B226" s="24"/>
       <c r="C226" s="24"/>
@@ -4927,7 +4969,7 @@
       <c r="H226" s="24"/>
       <c r="I226" s="24"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="24"/>
       <c r="B227" s="24"/>
       <c r="C227" s="24"/>
@@ -4938,7 +4980,7 @@
       <c r="H227" s="24"/>
       <c r="I227" s="24"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="24"/>
       <c r="B228" s="24"/>
       <c r="C228" s="24"/>
@@ -4949,7 +4991,7 @@
       <c r="H228" s="24"/>
       <c r="I228" s="24"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="24"/>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
@@ -4960,7 +5002,7 @@
       <c r="H229" s="24"/>
       <c r="I229" s="24"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="24"/>
       <c r="B230" s="24"/>
       <c r="C230" s="24"/>
@@ -4971,7 +5013,7 @@
       <c r="H230" s="24"/>
       <c r="I230" s="24"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
@@ -4982,7 +5024,7 @@
       <c r="H231" s="24"/>
       <c r="I231" s="24"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="24"/>
       <c r="B232" s="24"/>
       <c r="C232" s="24"/>
@@ -4993,7 +5035,7 @@
       <c r="H232" s="24"/>
       <c r="I232" s="24"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="24"/>
       <c r="B233" s="24"/>
       <c r="C233" s="24"/>
@@ -5004,7 +5046,7 @@
       <c r="H233" s="24"/>
       <c r="I233" s="24"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="24"/>
       <c r="B234" s="24"/>
       <c r="C234" s="24"/>
@@ -5015,7 +5057,7 @@
       <c r="H234" s="24"/>
       <c r="I234" s="24"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
       <c r="C235" s="24"/>
@@ -5026,7 +5068,7 @@
       <c r="H235" s="24"/>
       <c r="I235" s="24"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="24"/>
       <c r="B236" s="24"/>
       <c r="C236" s="24"/>
@@ -5038,10 +5080,7 @@
       <c r="I236" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I18">
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-  </autoFilter>
+  <autoFilter ref="A2:I18" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698DE232-AEDF-4927-8097-C3D5D24B87ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de ação" sheetId="1" r:id="rId1"/>
     <sheet name="Relatórios do Edital" sheetId="4" r:id="rId2"/>
     <sheet name="Diagnóstico detalhado" sheetId="3" r:id="rId3"/>
     <sheet name="Cronograma BI QRD" sheetId="2" r:id="rId4"/>
+    <sheet name="Sprint 25 PSV" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cronograma BI QRD'!$A$2:$I$18</definedName>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="334">
   <si>
     <t>Item</t>
   </si>
@@ -87,9 +82,6 @@
   </si>
   <si>
     <t>Entrega com muito atraso e alto impacto</t>
-  </si>
-  <si>
-    <t>Acesso à cópia Stage 1 - VPN</t>
   </si>
   <si>
     <t>Proposta de acesso à base de dados de negócio para equipe TI PSV</t>
@@ -407,9 +399,6 @@
     <t>PLN 84</t>
   </si>
   <si>
-    <t>Extração das informações Contas Abril e Maio /2018</t>
-  </si>
-  <si>
     <t>Qualidade de atendimento do chamado</t>
   </si>
   <si>
@@ -423,12 +412,6 @@
   </si>
   <si>
     <t>Baixa</t>
-  </si>
-  <si>
-    <t>01/08/18 - Entendimento sobre Stage como banco de apoio e Interface Pública
-27/07/18 - Modelo de dados entregue pela equipe de BI e sob avaliação da equipe PSV.
-24/07/18 - O modelo foi solicitado novamente em reunião com equipe de BI e TI QRD, fundamental para conclusão do módulo de SLA
-03/07/18 - Foi definido em reunião com equipes de TI que a base de dados origem para Interface pública será a Stage 1, e portanto foi solicitado novamente o Diagrama para avaliação da TI PSV</t>
   </si>
   <si>
     <t>01/08/18 - Ação apresentada para TI QRD, conforme conversado com André Machado
@@ -561,10 +544,6 @@
     <t>03/08/18 - Removida a automação que muda o status do chamado quando o atendente comenta. A alteração será manual.
 01/08/18 - Será mudado no fluxo Jira, com mudança para "Aguardando solicitante" somente quando a função validar for executada pela equipe de suporte QRD
 24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/08/18 - Devido à demanda extraordinária do TCE, esta ação foi adiantada e concluída.
-</t>
   </si>
   <si>
     <t>07/08/18 - Tratado em detalhes na reunião de SLA referente à julho
@@ -894,20 +873,11 @@
     <t>Entrega de descrições legíveis de regras funcionais para área de negócio, segundo lista definida pelo PSV</t>
   </si>
   <si>
-    <t>Item Novo</t>
-  </si>
-  <si>
     <t>Visibilidade sobre aplicação de regras para controle de gastos</t>
   </si>
   <si>
-    <t xml:space="preserve">16/08/18 - Será apresentado fluxo em próxima reunião, mesmo que a linha de trabalho não esteja completa
-09/08/18 - Reunião presencial deverá tratar o esquema proposto, prevista para 16/08/18
-01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
-23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
-03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
-  </si>
-  <si>
-    <t>16/08/18 - Uma planilha detalhada com informações sobre cada relatório foi montada e será apresentada oficialmente na próxima reunião, está em validação interna pela equipe QRD
+    <t>21/08/18 - 
+16/08/18 - Uma planilha detalhada com informações sobre cada relatório foi montada e será apresentada oficialmente na próxima reunião, está em validação interna pela equipe QRD
 13/08/18 - Retorno por mail sobre item, informando que está sob avaliação, sem detalhamento
 09/08/18 - Apenas uma parte dos relatórios foi apresentada, com dados referentes a beneficiários (cadastro e relacionamento) e prestadores (credenciamento e ocorrências). Uma nova aba será criada para detalhamento da ação e pendências, e alinhamento deverá ser realizado entre TI e BI QRD para finalização da demanda
 01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
@@ -917,48 +887,436 @@
 30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
   </si>
   <si>
-    <t>16/08/18 - Atualmente o flag de liminar foi extendido aos paineis de beneficiários, e uma solução utilizando a competência "-2"
-09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
-24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
-  </si>
-  <si>
-    <t>16/08/18 - Primeira prevista para 17/08/18
+    <t>21/08/18 - 
+16/08/18 - Primeira prevista para 17/08/18
 01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
 23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
   </si>
   <si>
-    <t>16/08/18 - Foi sinalizado por Denis entrega de regras da curva A, será verificado com a área de negócio no PSV
+    <t>21/08/18 - 
+16/08/18 - Prevista para terça 21/08/18, presencial com Bernardo
+09/08/18 - Prevista para quinta 16/08/18, presencidal com Raniere e Giselli
+01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
+23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
+  </si>
+  <si>
+    <t>PLN 97 Cadastro Online</t>
+  </si>
+  <si>
+    <t>Ação sem retorno pelo chamado, equipe de TI e negócio do PSV aguardando entrega para validação</t>
+  </si>
+  <si>
+    <t>Entrega não atendeu necessidade da área</t>
+  </si>
+  <si>
+    <t>Item novo</t>
+  </si>
+  <si>
+    <t>André Machado/André Duarte</t>
+  </si>
+  <si>
+    <t>Compromisso firmado com Secretário de ADM  para produção ainda em agosto está em risco</t>
+  </si>
+  <si>
+    <t>Chave da item</t>
+  </si>
+  <si>
+    <t>Criado</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>GP-315</t>
+  </si>
+  <si>
+    <t>Beatriz Fauaze</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Proposta de piloto para rede preferencial</t>
+  </si>
+  <si>
+    <t>GP-324</t>
+  </si>
+  <si>
+    <t>Andressa Schettini</t>
+  </si>
+  <si>
+    <t>Itens Pendentes</t>
+  </si>
+  <si>
+    <t>Cadastro Online - Validação e testes</t>
+  </si>
+  <si>
+    <t>GP-328</t>
+  </si>
+  <si>
+    <t>Confiabilidade dos dados carregados no BI</t>
+  </si>
+  <si>
+    <t>Ddp: Entrega completa do fluxo de validação de dados carregados; para medidas; dimensões; informações preenchidas ou nulas; e validação da aplicação do fluxo pelo Planserv;</t>
+  </si>
+  <si>
+    <t>GP-329</t>
+  </si>
+  <si>
+    <t>Verificação da aplicação das regras e parâmetros de regulação</t>
+  </si>
+  <si>
+    <t>Ddp: Conjunto de dados para cada regra; validada a aplicação para os 10 primeiros itens da curva A de custos;</t>
+  </si>
+  <si>
+    <t>GP-330</t>
+  </si>
+  <si>
+    <t>Jurandy Freitas</t>
+  </si>
+  <si>
+    <t>Verificação da aplicação das regras e parâmetros de contas</t>
+  </si>
+  <si>
+    <t>GP-331</t>
+  </si>
+  <si>
+    <t>Batimento da base cadastral de benefíciários</t>
+  </si>
+  <si>
+    <t>Ddp: Validação do relatório de divergência de vidas e elaboração do plano de ação para tratamento das diferenças</t>
+  </si>
+  <si>
+    <t>GP-332</t>
+  </si>
+  <si>
+    <t>David Carvalho</t>
+  </si>
+  <si>
+    <t>CONSIG Executivo e Outros Poderes</t>
+  </si>
+  <si>
+    <t>Ddp: Validação da ferramenta</t>
+  </si>
+  <si>
+    <t>GP-333</t>
+  </si>
+  <si>
+    <t>Vanessa Esmeraldo</t>
+  </si>
+  <si>
+    <t>Revisão do fluxo e rotina de acompanhamento de liminares</t>
+  </si>
+  <si>
+    <t>Ddp: Elaboração da rotina de acompanhamento de liminares; de modo sistematizado; levando em consideração alinhamento interno e externo;</t>
+  </si>
+  <si>
+    <t>Nelson Simões</t>
+  </si>
+  <si>
+    <t>Validação de vidas - Cadastro de beneficiários</t>
+  </si>
+  <si>
+    <t>André Duarte/Bernardo</t>
+  </si>
+  <si>
+    <t>Base de beneficiários permanece com múltiplas quantidades a depender de onde o número é retirado</t>
+  </si>
+  <si>
+    <t>Comprometimento da assitentência ou receita de beneficiários, contagem de vidas para pagamento do contrato</t>
+  </si>
+  <si>
+    <t>CONSIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionalidades que permitam manutenção de todas as interações com orgãos do estado (outros poderes e executivo), com geração de arquivos para consignação </t>
+  </si>
+  <si>
+    <t>Comprometimento da receita de beneficiários e patronal</t>
+  </si>
+  <si>
+    <t>Acesso à Stage 1 - VPN</t>
+  </si>
+  <si>
+    <t>Extração das informações de Contas para Abril e Maio /2018</t>
+  </si>
+  <si>
+    <t>André Machado/Denis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equipe de TI PSV foi orientada a olhar chamados independente do status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16/08/18 - Recurso da QRD não estava solicitando  validação de dúvida, será retreinada e também será verificada com a equipe de TI PSV
+03/08/18 - Criado novo projeto no Jira (ACESSOS) consolidando chamados de acesso.
+01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - 
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Item entrou em Sprint 25 da Gestão PSV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16/08/18 - Será apresentado fluxo em próxima reunião, mesmo que a linha de trabalho não esteja completa
+09/08/18 - Reunião presencial deverá tratar o esquema proposto, prevista para 16/08/18
+01/08/18 - Alinhado para entrega de previsão de conclusão do fluxo e sua apresentação em próxima reunião
+23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela TI QRD até o momento
+03/07/18 - Devido ao grande número de inconsistências e dados nulos já identificados no BI, foi solicitado formalização do fluxo de conferência de dados </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - 
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descrição muito simplificada, regras imcompletas (falta reexecução, regras de idade e sexo), escopo da regra inderterminado. Se faz urgente a criação de um relatório ou extração que permita listar todas as regras associadas à um específico procedimento ou item de tabela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16/08/18 - Foi sinalizado por Denis entrega de regras da curva A, será verificado com a área de negócio no PSV
 15/08/18 - Relação da Curva A será elaborada e enviada pelo PSV</t>
-  </si>
-  <si>
-    <t>16/08/18 - Valores estão sendo detalhados em ações de melhoria no sistema, em tratativa pela TI QRD e área de negócio
-09/08/18 - Foi solicitado detalhamento sobre os campos, para verificar o que é possível (quebra de valores de glosa, valor informado e outros)
-01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
-  </si>
-  <si>
-    <t>16/08/18 - Foi alinhado com Neiza entrega até final do mês, e está sendo tratado de modo definitivo pela equipe de BI QRD
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>21/08/18 - 
+20/08/18 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se faz necessária apresentação de ferramenta que permita avaliação e reconsiliação continua da base de beneficiários com todos os sistemas do Estado, e que seja consolidado em um contador dinâmico em sistema, com filtros de tipo de beneficiário, status e data de referência</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - 
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Módulo revisado em homologação pela TI PSV, apenas algumas considerações sobre interface (que deve facilitar a utilização pelos Orgãos) . Aguardamos posicionamento da QRD para produção, receita com atraso de faturamento acumulado desde a virada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>21/08/18 - 
+20/08/18 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PSV sinaliza inconsistências sobre dados apresentados (custo assistêncial apresentado na casa de 20mi quanto 120mi esperado), aguardando reunião prevista para 22/08/18 15:00. O formato final esperado consiste em ferramenta automatizada, sem interações manuais ou compilação de planilhas (modelo antigo do PSV). Aspectos da reunião do dia 13/08/18 devem ser conversados com André Machado, o retorno não foi positivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16/08/18 - Foi alinhado com Neiza entrega até final do mês, e está sendo tratado de modo definitivo pela equipe de BI QRD
 13/08/18 - Retorno de Bernardo sobre realização de alinhamento com a equipe sobre o assunto
 09/08/18 - Reunião de alinhamento em 13/08/18, às 10:00 no Planserv
 07/08/18 - Tratado em reunião com Dulce e Ana Claudia, será relizado alinhamento para todas as demandas controladas em paralelo dentro do Jira e por expecialistas utilizando o BI ou outras extrações de sistema
 01/08/18 - Será discutido com equipe.</t>
-  </si>
-  <si>
-    <t>16/08/18 - Recurso da QRD não estava solicitando  validação de dúvida, será retreinada e também será verificada com a equipe de TI PSV
-03/08/18 - Criado novo projeto no Jira (ACESSOS) consolidando chamados de acesso.
-01/08/18 - Será criado um módulo específico no Jira, direcionado para a responsável pelo controle de acesso, sem contabilização para SLA, mas com acompanhamento do tempo de resposta</t>
-  </si>
-  <si>
-    <t>16/08/18 - Prevista para terça 21/08/18, presencial com Bernardo
-09/08/18 - Prevista para quinta 16/08/18, presencidal com Raniere e Giselli
-01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
-23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - 
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diagramas concedidos sem relacionamentos, o que torna analise em detalhes mais demorada, a equipe de AD QRD tem ajudado sempre que acionada. Problemas identificados no modelo de dados que podem estar comprometendo dados do BI. Uma reunião específica com equipes de TI PSV e QRD deve ser agendada para tratar de exemplos. Modelo não contempla o módulo de Credenciamento, fundamental para o projeto de Interface Pública do Edital</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+01/08/18 - Entendimento sobre Stage como banco de apoio e Interface Pública
+27/07/18 - Modelo de dados entregue pela equipe de BI e sob avaliação da equipe PSV.
+24/07/18 - O modelo foi solicitado novamente em reunião com equipe de BI e TI QRD, fundamental para conclusão do módulo de SLA
+03/07/18 - Foi definido em reunião com equipes de TI que a base de dados origem para Interface pública será a Stage 1, e portanto foi solicitado novamente o Diagrama para avaliação da TI PSV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - 
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Retorno de André Duarte em contato com Diego informa que item foi "planejado", diferindo da posição de "projeto pronto" e aguardando homologação, informado anteriormente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 -
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aguardando detalhamento sobre quebra da informação nos módulos operacionais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16/08/18 - Valores estão sendo detalhados em ações de melhoria no sistema, em tratativa pela TI QRD e área de negócio
+09/08/18 - Foi solicitado detalhamento sobre os campos, para verificar o que é possível (quebra de valores de glosa, valor informado e outros)
+01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
+    </r>
+  </si>
+  <si>
+    <t>21/08/18 - 
+16/08/18 - Atualmente o flag de liminar foi extendido aos paineis de beneficiários, e uma solução utilizando a competência "-2"
+09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
+24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - 
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mudanças foram realizadas somente em produção, devem também ser aplicadas em homologação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+08/08/18 - Devido à demanda extraordinária do TCE, esta ação foi adiantada e concluída.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>DdP 24: Aprovação da ferramenta e relatório de validação; DdP 25: Aprovação da ferramenta e relatório de validação;"</t>
+  </si>
+  <si>
+    <t>DdP 22: Avaliação dos requisitos técnicos; estudo de impacto financeiro; viabilidade jurídica; DdP 23: Definição dos requisitos técnicos; valor de contratação e consulta à PGE; DdP 24: Validação técnica da proposta; reunião com possíveis prestadores interessados; encaminhar consulta para PGE; DdP 25: Validação técnica da proposta; reunião com possíveis prestadores interessados; encaminhar consulta para PGE;"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1080,8 +1438,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,6 +1558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,7 +1758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1565,9 +1936,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1603,6 +1971,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,7 +2027,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +2066,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +2117,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,7 +2163,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +2209,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +2255,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +2301,7 @@
         <xdr:cNvPr id="2058" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +2347,7 @@
         <xdr:cNvPr id="2060" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2393,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2427,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2079,9 +2465,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2113,27 +2499,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2165,27 +2533,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2358,14 +2708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
@@ -2381,9 +2731,9 @@
     <col min="14" max="14" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1">
+      <c r="A2" s="73"/>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2397,13 +2747,13 @@
       <c r="J2" s="1"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="71"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
+    <row r="3" spans="1:14" ht="22.5" customHeight="1">
+      <c r="A3" s="74"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2417,13 +2767,13 @@
       <c r="J3" s="5"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="72"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="75"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2439,12 +2789,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="73"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="31.5">
       <c r="A6" s="65" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>8</v>
@@ -2453,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>11</v>
@@ -2465,10 +2815,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="65" t="s">
         <v>4</v>
@@ -2477,16 +2827,16 @@
         <v>18</v>
       </c>
       <c r="L6" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="163.5" customHeight="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -2494,39 +2844,39 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="23">
         <v>43333</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="163.5" customHeight="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -2534,13 +2884,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>50</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>19</v>
@@ -2549,24 +2899,24 @@
         <v>13</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="23">
         <v>43333</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="195">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2574,813 +2924,879 @@
         <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>272</v>
+        <v>267</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L9" s="23">
         <v>43333</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="102" customHeight="1">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>108</v>
+        <v>273</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>275</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="L10" s="23">
         <v>43333</v>
       </c>
-      <c r="M10" s="36" t="s">
-        <v>279</v>
+      <c r="M10" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="142.5" customHeight="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>121</v>
+        <v>315</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>123</v>
+        <v>316</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>275</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>51</v>
+        <v>317</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L11" s="23">
-        <v>43342</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>280</v>
+        <v>43333</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="123" customHeight="1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>174</v>
+        <v>313</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>275</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="L12" s="23">
         <v>43333</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="225">
       <c r="A13" s="6">
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L13" s="23">
         <v>43333</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>281</v>
+      <c r="M13" s="36" t="s">
+        <v>329</v>
       </c>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="219.75" customHeight="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>91</v>
+        <v>319</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="L14" s="23">
-        <v>43333</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>277</v>
+        <v>43342</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="180">
       <c r="A15" s="6">
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>31</v>
+        <v>154</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L15" s="23">
         <v>43333</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="135">
       <c r="A16" s="6">
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>159</v>
+        <v>25</v>
+      </c>
+      <c r="L16" s="23">
+        <v>43333</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="185.25" customHeight="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>104</v>
+        <v>12</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>103</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="40" t="s">
-        <v>159</v>
+        <v>112</v>
+      </c>
+      <c r="L17" s="23">
+        <v>43333</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="240" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="135">
       <c r="A18" s="6">
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>104</v>
+        <v>158</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>159</v>
+        <v>25</v>
+      </c>
+      <c r="L18" s="23">
+        <v>43333</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="210">
       <c r="A19" s="6">
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>104</v>
+        <v>123</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>103</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>159</v>
+        <v>102</v>
+      </c>
+      <c r="L19" s="23">
+        <v>43333</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="183.75" customHeight="1">
       <c r="A20" s="6">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>104</v>
+        <v>28</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>30</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>159</v>
+        <v>31</v>
+      </c>
+      <c r="L20" s="23">
+        <v>43333</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="135">
       <c r="A21" s="6">
+        <v>51</v>
+      </c>
+      <c r="B21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="6">
-        <v>20</v>
-      </c>
       <c r="C21" s="10" t="s">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="69" t="s">
-        <v>104</v>
+        <v>117</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>110</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>266</v>
+        <v>156</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="105" customHeight="1">
       <c r="A22" s="6">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="6">
-        <v>15</v>
-      </c>
       <c r="C22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>111</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="120">
       <c r="A23" s="6">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B23" s="6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>178</v>
+        <v>156</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="150">
       <c r="A24" s="6">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B24" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>159</v>
+        <v>35</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="150">
       <c r="A25" s="6">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B25" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="34" t="s">
-        <v>37</v>
-      </c>
       <c r="M25" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="142.5" customHeight="1">
       <c r="A26" s="6">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B26" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="67" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="6" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>37</v>
+        <v>102</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="195">
       <c r="A27" s="6">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B27" s="6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="F27" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" ht="223.5" customHeight="1">
+      <c r="A28" s="6">
         <v>103</v>
       </c>
-      <c r="L27" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
       <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="15"/>
+      <c r="E28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="I28" s="15"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="10"/>
+      <c r="J28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:14" ht="240">
+      <c r="A29" s="6">
+        <v>104</v>
+      </c>
       <c r="B29" s="6">
+        <v>5</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="15"/>
+      <c r="E29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="I29" s="15"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="10"/>
+      <c r="J29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:14" ht="150">
+      <c r="A30" s="6">
+        <v>105</v>
+      </c>
       <c r="B30" s="6">
-        <v>24</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="I30" s="15"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="10"/>
+      <c r="J30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="6"/>
       <c r="B31" s="6">
         <v>25</v>
@@ -3398,7 +3814,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="6"/>
       <c r="B32" s="6">
         <v>26</v>
@@ -3416,7 +3832,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="6"/>
       <c r="B33" s="6">
         <v>27</v>
@@ -3434,7 +3850,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="6"/>
       <c r="B34" s="6">
         <v>28</v>
@@ -3452,7 +3868,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="6"/>
       <c r="B35" s="6">
         <v>29</v>
@@ -3470,7 +3886,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="6"/>
       <c r="B36" s="6">
         <v>30</v>
@@ -3488,7 +3904,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="6"/>
       <c r="B37" s="6">
         <v>31</v>
@@ -3506,7 +3922,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="6"/>
       <c r="B38" s="6">
         <v>32</v>
@@ -3525,9 +3941,9 @@
       <c r="N38" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N38" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A6:N38">
     <sortState ref="A7:N38">
-      <sortCondition ref="A6"/>
+      <sortCondition ref="A6:A38"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
@@ -3541,487 +3957,487 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="24" customWidth="1"/>
     <col min="2" max="2" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="24" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="77"/>
-    </row>
-    <row r="2" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="24" customFormat="1" ht="69" customHeight="1">
+      <c r="A1" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="76"/>
+    </row>
+    <row r="2" spans="1:2" s="24" customFormat="1"/>
+    <row r="3" spans="1:2">
       <c r="A3" s="47"/>
       <c r="B3" s="49" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="24" customFormat="1">
       <c r="A4" s="47"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="47"/>
       <c r="B5" s="49" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="24" customFormat="1">
       <c r="A6" s="47"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="47"/>
       <c r="B7" s="49" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="24" customFormat="1">
       <c r="A8" s="47"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="47"/>
       <c r="B9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="47"/>
       <c r="B10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="47"/>
       <c r="B11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="47"/>
       <c r="B12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="47"/>
       <c r="B13" s="50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="47"/>
       <c r="B14" s="50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="47"/>
       <c r="B15" s="50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="47"/>
       <c r="B16" s="50" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="47"/>
       <c r="B17" s="50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="47"/>
       <c r="B18" s="50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="47"/>
       <c r="B19" s="50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="47"/>
       <c r="B20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="47"/>
       <c r="B21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="24" customFormat="1">
       <c r="A22" s="47"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="47"/>
       <c r="B23" s="49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="24" customFormat="1">
       <c r="A24" s="47"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="47"/>
       <c r="B25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="47"/>
       <c r="B26" s="50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="47"/>
       <c r="B27" s="50" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="47"/>
       <c r="B29" s="50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="47"/>
       <c r="B30" s="50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="47"/>
       <c r="B31" s="50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="47"/>
       <c r="B32" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="47"/>
       <c r="B33" s="50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="47"/>
       <c r="B34" s="50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="47"/>
       <c r="B35" s="50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="47"/>
       <c r="B36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="47"/>
       <c r="B37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="47"/>
       <c r="B38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="47"/>
       <c r="B39" s="50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="47"/>
       <c r="B40" s="50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="47"/>
       <c r="B41" s="50" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="47"/>
       <c r="B42" s="50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="47"/>
       <c r="B43" s="50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="47"/>
       <c r="B44" s="50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="47"/>
       <c r="B45" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="47"/>
       <c r="B46" s="50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="47"/>
       <c r="B47" s="50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="47"/>
       <c r="B48" s="50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="47"/>
       <c r="B49" s="50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="47"/>
       <c r="B50" s="50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="47"/>
       <c r="B51" s="50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="47"/>
       <c r="B52" s="50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="24" customFormat="1"/>
+    <row r="54" spans="1:2">
       <c r="A54" s="48"/>
       <c r="B54" s="49" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="24" customFormat="1">
       <c r="A55" s="48"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="48"/>
       <c r="B56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="48"/>
       <c r="B57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="48"/>
       <c r="B58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="48"/>
       <c r="B59" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="48"/>
       <c r="B60" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="48"/>
       <c r="B61" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="48"/>
       <c r="B62" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="48"/>
       <c r="B63" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="48"/>
       <c r="B64" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="24" customFormat="1">
       <c r="A65" s="48"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="48"/>
       <c r="B66" s="49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="24" customFormat="1">
       <c r="A67" s="48"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="48"/>
       <c r="B68" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="24" customFormat="1">
       <c r="A69" s="48"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="48"/>
       <c r="B70" s="49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="24" customFormat="1">
       <c r="A71" s="48"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="48"/>
       <c r="B72" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="48"/>
       <c r="B73" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="48"/>
       <c r="B74" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="48"/>
       <c r="B75" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="48"/>
       <c r="B76" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="48"/>
       <c r="B77" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="24" customFormat="1">
       <c r="A78" s="48"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="48"/>
       <c r="B79" s="49" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="24" customFormat="1">
       <c r="A80" s="48"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="48"/>
       <c r="B81" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="24" customFormat="1">
       <c r="A82" s="48"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="48"/>
       <c r="B83" s="49" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="24" customFormat="1">
       <c r="A84" s="48"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="48"/>
       <c r="B85" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="48"/>
       <c r="B86" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="48"/>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4034,14 +4450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="58" style="18" customWidth="1"/>
@@ -4050,170 +4466,170 @@
     <col min="5" max="5" width="58.140625" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A1" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="154.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="135.75" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="140.25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="D6" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="165">
+      <c r="A7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="C7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="193.5" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="174" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="112.5" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>145</v>
-      </c>
       <c r="D12" s="42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -4228,14 +4644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" customWidth="1"/>
@@ -4248,55 +4664,55 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75">
+      <c r="A1" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5">
       <c r="A2" s="28"/>
       <c r="B2" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>57</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="63">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="D3" s="32">
         <v>43283</v>
@@ -4305,23 +4721,23 @@
         <v>43284</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="63">
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="32">
         <v>43283</v>
@@ -4330,23 +4746,23 @@
         <v>43284</v>
       </c>
       <c r="F4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="25.5">
       <c r="A5" s="64">
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="32">
         <v>43285</v>
@@ -4355,25 +4771,25 @@
         <v>43308</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>64</v>
-      </c>
       <c r="H5" s="27" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="38.25">
       <c r="A6" s="64">
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="32">
         <v>43286</v>
@@ -4382,25 +4798,25 @@
         <v>43315</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="64">
         <v>5</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="32">
         <v>43284</v>
@@ -4409,23 +4825,23 @@
         <v>43308</v>
       </c>
       <c r="F7" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1">
       <c r="A8" s="64">
         <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="32">
         <v>43287</v>
@@ -4434,50 +4850,50 @@
         <v>43287</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="45">
         <v>7</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="53">
         <v>43305</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="55" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I9" s="52"/>
     </row>
-    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="63.75">
       <c r="A10" s="56">
         <v>8</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="32">
         <v>43305</v>
@@ -4486,25 +4902,25 @@
         <v>43313</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1">
       <c r="A11" s="63">
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="32">
         <v>43271</v>
@@ -4513,25 +4929,25 @@
         <v>43271</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="63">
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="32">
         <v>43271</v>
@@ -4540,25 +4956,25 @@
         <v>43271</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="38.25">
       <c r="A13" s="64">
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>78</v>
       </c>
       <c r="D13" s="32">
         <v>43278</v>
@@ -4567,52 +4983,52 @@
         <v>43315</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="45">
         <v>12</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="53">
         <v>43290</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I14" s="52"/>
     </row>
-    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="153">
       <c r="A15" s="45">
         <v>13</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="58">
         <v>43297</v>
@@ -4621,25 +5037,25 @@
         <v>43328</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I15" s="62"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="25">
         <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="D16" s="32">
         <v>43318</v>
@@ -4648,23 +5064,23 @@
         <v>43335</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="51">
       <c r="A17" s="45">
         <v>15</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="D17" s="32">
         <v>43280</v>
@@ -4673,17 +5089,17 @@
         <v>43335</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="25"/>
       <c r="B18" s="30"/>
       <c r="C18" s="25"/>
@@ -4694,7 +5110,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="25"/>
       <c r="B19" s="30"/>
       <c r="C19" s="25"/>
@@ -4705,7 +5121,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="25"/>
       <c r="B20" s="30"/>
       <c r="C20" s="25"/>
@@ -4716,7 +5132,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="25"/>
       <c r="B21" s="30"/>
       <c r="C21" s="25"/>
@@ -4727,7 +5143,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="25"/>
       <c r="B22" s="30"/>
       <c r="C22" s="25"/>
@@ -4738,7 +5154,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="25"/>
       <c r="B23" s="30"/>
       <c r="C23" s="25"/>
@@ -4749,7 +5165,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="25"/>
       <c r="B24" s="30"/>
       <c r="C24" s="25"/>
@@ -4760,7 +5176,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="25"/>
       <c r="B25" s="30"/>
       <c r="C25" s="25"/>
@@ -4771,7 +5187,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="25"/>
       <c r="B26" s="30"/>
       <c r="C26" s="25"/>
@@ -4782,7 +5198,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -4793,7 +5209,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -4804,7 +5220,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -4815,7 +5231,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -4826,7 +5242,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -4837,7 +5253,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -4848,7 +5264,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -4859,7 +5275,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -4870,7 +5286,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -4881,7 +5297,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -4892,7 +5308,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -4903,7 +5319,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -4914,7 +5330,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -4925,7 +5341,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -4936,7 +5352,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -4947,7 +5363,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
@@ -4958,7 +5374,7 @@
       <c r="H225" s="24"/>
       <c r="I225" s="24"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="24"/>
       <c r="B226" s="24"/>
       <c r="C226" s="24"/>
@@ -4969,7 +5385,7 @@
       <c r="H226" s="24"/>
       <c r="I226" s="24"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="24"/>
       <c r="B227" s="24"/>
       <c r="C227" s="24"/>
@@ -4980,7 +5396,7 @@
       <c r="H227" s="24"/>
       <c r="I227" s="24"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="24"/>
       <c r="B228" s="24"/>
       <c r="C228" s="24"/>
@@ -4991,7 +5407,7 @@
       <c r="H228" s="24"/>
       <c r="I228" s="24"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="24"/>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
@@ -5002,7 +5418,7 @@
       <c r="H229" s="24"/>
       <c r="I229" s="24"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="24"/>
       <c r="B230" s="24"/>
       <c r="C230" s="24"/>
@@ -5013,7 +5429,7 @@
       <c r="H230" s="24"/>
       <c r="I230" s="24"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
@@ -5024,7 +5440,7 @@
       <c r="H231" s="24"/>
       <c r="I231" s="24"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="24"/>
       <c r="B232" s="24"/>
       <c r="C232" s="24"/>
@@ -5035,7 +5451,7 @@
       <c r="H232" s="24"/>
       <c r="I232" s="24"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="24"/>
       <c r="B233" s="24"/>
       <c r="C233" s="24"/>
@@ -5046,7 +5462,7 @@
       <c r="H233" s="24"/>
       <c r="I233" s="24"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="24"/>
       <c r="B234" s="24"/>
       <c r="C234" s="24"/>
@@ -5057,7 +5473,7 @@
       <c r="H234" s="24"/>
       <c r="I234" s="24"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
       <c r="C235" s="24"/>
@@ -5068,7 +5484,7 @@
       <c r="H235" s="24"/>
       <c r="I235" s="24"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="24"/>
       <c r="B236" s="24"/>
       <c r="C236" s="24"/>
@@ -5080,10 +5496,268 @@
       <c r="I236" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I18" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A2:I18"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="58" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="105">
+      <c r="A2" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="82">
+        <v>43276.719444444447</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="84">
+        <v>43304.609027777777</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60">
+      <c r="A4" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="84">
+        <v>43329.63958333333</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="84">
+        <v>43329.652777777781</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="84">
+        <v>43329.65347222222</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="84">
+        <v>43329.654166666667</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="H7" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="85" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="84">
+        <v>43329.655555555553</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" s="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45">
+      <c r="A9" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="82">
+        <v>43329.675000000003</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165325D3-A642-4C29-8AEB-A62BF19D039F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de ação" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cronograma BI QRD'!$A$2:$I$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plano de ação'!$A$6:$N$38</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="343">
   <si>
     <t>Item</t>
   </si>
@@ -37,9 +43,6 @@
   </si>
   <si>
     <t>Responsável</t>
-  </si>
-  <si>
-    <t>Obs.</t>
   </si>
   <si>
     <t>Controle de Ações - Coordenação de Tecnologia da Informação</t>
@@ -394,9 +397,6 @@
   </si>
   <si>
     <t>Gera Chamado?</t>
-  </si>
-  <si>
-    <t>PLN 84</t>
   </si>
   <si>
     <t>Qualidade de atendimento do chamado</t>
@@ -876,30 +876,6 @@
     <t>Visibilidade sobre aplicação de regras para controle de gastos</t>
   </si>
   <si>
-    <t>21/08/18 - 
-16/08/18 - Uma planilha detalhada com informações sobre cada relatório foi montada e será apresentada oficialmente na próxima reunião, está em validação interna pela equipe QRD
-13/08/18 - Retorno por mail sobre item, informando que está sob avaliação, sem detalhamento
-09/08/18 - Apenas uma parte dos relatórios foi apresentada, com dados referentes a beneficiários (cadastro e relacionamento) e prestadores (credenciamento e ocorrências). Uma nova aba será criada para detalhamento da ação e pendências, e alinhamento deverá ser realizado entre TI e BI QRD para finalização da demanda
-01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
-23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela equipe de BI QRD até o momento
-19/06/18 - Retorno do PSV com ajustes e aprovação para especificação enviada
-08/06/18 - Envio de especificação sobre levantamento pela QRD
-30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
-  </si>
-  <si>
-    <t>21/08/18 - 
-16/08/18 - Primeira prevista para 17/08/18
-01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
-23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
-  </si>
-  <si>
-    <t>21/08/18 - 
-16/08/18 - Prevista para terça 21/08/18, presencial com Bernardo
-09/08/18 - Prevista para quinta 16/08/18, presencidal com Raniere e Giselli
-01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
-23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
-  </si>
-  <si>
     <t>PLN 97 Cadastro Online</t>
   </si>
   <si>
@@ -910,9 +886,6 @@
   </si>
   <si>
     <t>Item novo</t>
-  </si>
-  <si>
-    <t>André Machado/André Duarte</t>
   </si>
   <si>
     <t>Compromisso firmado com Secretário de ADM  para produção ainda em agosto está em risco</t>
@@ -1075,8 +1048,69 @@
     </r>
   </si>
   <si>
+    <t>DdP 24: Aprovação da ferramenta e relatório de validação; DdP 25: Aprovação da ferramenta e relatório de validação;"</t>
+  </si>
+  <si>
+    <t>DdP 22: Avaliação dos requisitos técnicos; estudo de impacto financeiro; viabilidade jurídica; DdP 23: Definição dos requisitos técnicos; valor de contratação e consulta à PGE; DdP 24: Validação técnica da proposta; reunião com possíveis prestadores interessados; encaminhar consulta para PGE; DdP 25: Validação técnica da proposta; reunião com possíveis prestadores interessados; encaminhar consulta para PGE;"</t>
+  </si>
+  <si>
+    <t>PLN 84 Relatório de Governo</t>
+  </si>
+  <si>
+    <t>BI/Chamado</t>
+  </si>
+  <si>
+    <t>Ddp: Conjunto de dados para cada regra, validada a aplicação para os 10 primeiros itens da curva A de custos;</t>
+  </si>
+  <si>
+    <t>Thiago Lessa/Bernardo</t>
+  </si>
+  <si>
+    <t>21/08/18 - Será enviada a planilha de rastreamento dos relatórios para apresentação para equipe do PSV
+16/08/18 - Uma planilha detalhada com informações sobre cada relatório foi montada e será apresentada oficialmente na próxima reunião, está em validação interna pela equipe QRD
+13/08/18 - Retorno por mail sobre item, informando que está sob avaliação, sem detalhamento
+09/08/18 - Apenas uma parte dos relatórios foi apresentada, com dados referentes a beneficiários (cadastro e relacionamento) e prestadores (credenciamento e ocorrências). Uma nova aba será criada para detalhamento da ação e pendências, e alinhamento deverá ser realizado entre TI e BI QRD para finalização da demanda
+01/08/18 - Apontamento dos itens que podem ser quitados pelos construtores para prototipação. Será avaliado pela equipe de BI QRD o que já existe em paineis prontos, e a próxima reunião tratará exclusivamente deste item.
+23/07/18 - Item foi cobrado em mail para André Machado, sem retorno pela equipe de BI QRD até o momento
+19/06/18 - Retorno do PSV com ajustes e aprovação para especificação enviada
+08/06/18 - Envio de especificação sobre levantamento pela QRD
+30/05/18 - Reunião geral para demonstração dos relatórios, alterada para levantamento detalhado com cada área de negócio, pois relatórios não se encontravam prontos</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">21/08/18 - 
+      <t xml:space="preserve">21/08/18 - Aguardando estimativa de entrada em produção, que deverá ser enviada em 22/08/18
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Módulo revisado em homologação pela TI PSV, apenas algumas considerações sobre interface (que deve facilitar a utilização pelos Orgãos) . Aguardamos posicionamento da QRD para produção, receita com atraso de faturamento acumulado desde a virada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - O cadastro online foi validado como protótipo e o orçamento de implantação ainda está sob avaliação da diretoria QRD, que deve ocorrer em 22/08/18. Com isso o desenvolvimento será iniciado
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Retorno de André Duarte em contato com Diego informa que item foi "planejado", diferindo da posição de "projeto pronto" e aguardando homologação, informado anteriormente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - Solicitado modelos dos documentos de suporte ao fluxo, com a criação de um ciclo de validação completo até 03/09/18 para entrega como produto da Sprint 25. Sugestão de validação piloto: Valor de despesa totalizado mês a mês
 20/08/18 - </t>
     </r>
     <r>
@@ -1107,7 +1141,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">21/08/18 - 
+      <t>21/08/18 - Bernardo deve tratar detalhes com equipe de cadastro e deverá enviar estimativa de conclusão de relatório e contador de vidas. O cadastro deve ser considerado como ponto de referencia e seus números deverão ser refletidos no AIS e BI, de modo independente do modelo de dados
+20/08/18 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se faz necessária apresentação de ferramenta que permita avaliação e reconciliação continua da base de beneficiários com todos os sistemas do Estado, e que seja consolidado em um contador dinâmico em sistema, com filtros de tipo de beneficiário, status e data de referência</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - Bernardo fará alinhamento da demanda com Thiago para entrega do chamado
 20/08/18 - </t>
     </r>
     <r>
@@ -1118,7 +1168,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Descrição muito simplificada, regras imcompletas (falta reexecução, regras de idade e sexo), escopo da regra inderterminado. Se faz urgente a criação de um relatório ou extração que permita listar todas as regras associadas à um específico procedimento ou item de tabela</t>
+      <t>Aguardando detalhamento sobre quebra da informação nos módulos operacionais</t>
     </r>
     <r>
       <rPr>
@@ -1129,45 +1179,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-16/08/18 - Foi sinalizado por Denis entrega de regras da curva A, será verificado com a área de negócio no PSV
-15/08/18 - Relação da Curva A será elaborada e enviada pelo PSV</t>
+16/08/18 - Valores estão sendo detalhados em ações de melhoria no sistema, em tratativa pela TI QRD e área de negócio
+09/08/18 - Foi solicitado detalhamento sobre os campos, para verificar o que é possível (quebra de valores de glosa, valor informado e outros)
+01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
     </r>
   </si>
   <si>
     <r>
-      <t>21/08/18 - 
-20/08/18 -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se faz necessária apresentação de ferramenta que permita avaliação e reconsiliação continua da base de beneficiários com todos os sistemas do Estado, e que seja consolidado em um contador dinâmico em sistema, com filtros de tipo de beneficiário, status e data de referência</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21/08/18 - 
-20/08/18 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Módulo revisado em homologação pela TI PSV, apenas algumas considerações sobre interface (que deve facilitar a utilização pelos Orgãos) . Aguardamos posicionamento da QRD para produção, receita com atraso de faturamento acumulado desde a virada</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>21/08/18 - 
+      <t>21/08/18 - Foi reforçada a necessidade de entendimento de conceitos para determinação dos números de modo aproximado ao histórico do PSV, aguardando reunião do dia 22/08/18 para avaliação do andamento
 20/08/18 -</t>
     </r>
     <r>
@@ -1197,8 +1216,101 @@
     </r>
   </si>
   <si>
+    <t>21/08/18 - Trabalho em andamento, será avaliado na próxima reunião
+16/08/18 - Atualmente o flag de liminar foi extendido aos paineis de beneficiários, e uma solução utilizando a competência "-2"
+09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
+24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
+  </si>
+  <si>
+    <t>21/08/18 - Aguardando envio de notas para comparação com mudanças apresentadas no analítico
+16/08/18 - Primeira prevista para 17/08/18
+01/08/18 - Previsto para próxima entrega (Relatórios do Edital)
+23/07/18 - Item foi cobrado em mail para André Machado, com previsão de aplicação a partir de agosto</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">21/08/18 - 
+      <t xml:space="preserve">21/08/18 - Solicitada aplicação das mudanças em homologação, para garantir ambiente consistente de validação por usuários
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mudanças foram realizadas somente em produção, devem também ser aplicadas em homologação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+08/08/18 - Devido à demanda extraordinária do TCE, esta ação foi adiantada e concluída.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>21/08/18 - Prevista para quinta 30/08/18, com apresentação de resumo dos itens em PPTS. Cada item deve ter seu próprio slide, com apresentação de status (sinalizado por cor), problemas e impedimentos associados, e soluções e ações em andamento. O modelo será definído por Giselli e Bernardo em conjunto, e será apresentado pelo menos uma vez a cada mês. Semanalmente a coluna ao lado direito será utilizada para retorno da QRD
+16/08/18 - Prevista para terça 21/08/18, presencial com Bernardo
+09/08/18 - Prevista para quinta 16/08/18, presencidal com Raniere e Giselli
+01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
+23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
+  </si>
+  <si>
+    <t>Histórico de Acompanhamento QRD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - Apresentado um modelo que transforma regras do motor em linguagem mais amigável ao usuário final. Deve ser retirado, todas as regras, para 10 itens mas relevantes da despesa mensal como entrega até 03/09. Foi ressaltada a importância de extração seguindo o fluxo Procedimento-grupos-regras
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descrição muito simplificada, regras imcompletas (falta reexecução, regras de idade e sexo), escopo da regra inderterminado. Se faz urgente a criação de um relatório ou extração que permita listar todas as regras associadas à um específico procedimento ou item de tabela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16/08/18 - Foi sinalizado por Denis entrega de regras da curva A, será verificado com a área de negócio no PSV
+15/08/18 - Relação da Curva A será elaborada e enviada pelo PSV</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">27/08/18 - </t>
+  </si>
+  <si>
+    <t>22/08/18 -</t>
+  </si>
+  <si>
+    <t>27/08/18 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/08/18 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/08/18 - </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/08/18 - Foi identificado por Bernardo que o escopo dessa demanda é atendido pela equipe de Raniere, responsável modificado, reunião deverá ser agendada para tratar do assunto
 20/08/18 - </t>
     </r>
     <r>
@@ -1227,96 +1339,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">21/08/18 - 
-20/08/18 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Retorno de André Duarte em contato com Diego informa que item foi "planejado", diferindo da posição de "projeto pronto" e aguardando homologação, informado anteriormente</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21/08/18 -
-20/08/18 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aguardando detalhamento sobre quebra da informação nos módulos operacionais</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-16/08/18 - Valores estão sendo detalhados em ações de melhoria no sistema, em tratativa pela TI QRD e área de negócio
-09/08/18 - Foi solicitado detalhamento sobre os campos, para verificar o que é possível (quebra de valores de glosa, valor informado e outros)
-01/08/18 - Relatórios serão controlados pelo painel da CTI, como pequenos projetos</t>
-    </r>
-  </si>
-  <si>
-    <t>21/08/18 - 
-16/08/18 - Atualmente o flag de liminar foi extendido aos paineis de beneficiários, e uma solução utilizando a competência "-2"
-09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
-24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21/08/18 - 
-20/08/18 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mudanças foram realizadas somente em produção, devem também ser aplicadas em homologação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-08/08/18 - Devido à demanda extraordinária do TCE, esta ação foi adiantada e concluída.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>DdP 24: Aprovação da ferramenta e relatório de validação; DdP 25: Aprovação da ferramenta e relatório de validação;"</t>
-  </si>
-  <si>
-    <t>DdP 22: Avaliação dos requisitos técnicos; estudo de impacto financeiro; viabilidade jurídica; DdP 23: Definição dos requisitos técnicos; valor de contratação e consulta à PGE; DdP 24: Validação técnica da proposta; reunião com possíveis prestadores interessados; encaminhar consulta para PGE; DdP 25: Validação técnica da proposta; reunião com possíveis prestadores interessados; encaminhar consulta para PGE;"</t>
+    <t xml:space="preserve">24/08/18 - </t>
+  </si>
+  <si>
+    <t>André Machado/Bernardo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1942,6 +1975,24 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1971,24 +2022,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2027,7 +2060,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2099,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2150,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2196,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2242,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2288,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2334,7 @@
         <xdr:cNvPr id="2058" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2380,7 @@
         <xdr:cNvPr id="2060" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2426,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2460,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2465,9 +2498,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2499,9 +2532,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2533,9 +2584,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2708,16 +2777,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
@@ -2726,16 +2796,17 @@
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="24" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="12" width="18.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="18" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="56.42578125" customWidth="1"/>
     <col min="14" max="14" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A2" s="73"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="79"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2747,15 +2818,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="70"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A3" s="74"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="80"/>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2767,15 +2838,15 @@
       <c r="J3" s="5"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="71"/>
+      <c r="M3" s="77"/>
       <c r="N3" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="75"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81"/>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7">
         <v>43313</v>
@@ -2789,24 +2860,24 @@
       <c r="J4" s="3"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="72"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="31.5">
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="65" t="s">
         <v>2</v>
@@ -2815,28 +2886,28 @@
         <v>3</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="65" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="163.5" customHeight="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -2844,39 +2915,41 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="23">
-        <v>43333</v>
+        <v>43339</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="163.5" customHeight="1">
+        <v>325</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -2884,39 +2957,41 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L8" s="23">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="195">
+        <v>322</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2924,39 +2999,41 @@
         <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="23">
-        <v>43333</v>
+        <v>43339</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="102" customHeight="1">
+        <v>334</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2964,39 +3041,41 @@
         <v>22</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="L10" s="23">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" ht="142.5" customHeight="1">
+        <v>324</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -3004,39 +3083,41 @@
         <v>22</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L11" s="23">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" ht="123" customHeight="1">
+        <v>323</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -3044,39 +3125,41 @@
         <v>22</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L12" s="23">
-        <v>43333</v>
+        <v>43339</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="225">
+        <v>326</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -3084,39 +3167,41 @@
         <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="L13" s="23">
-        <v>43333</v>
+        <v>43339</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" ht="219.75" customHeight="1">
+        <v>327</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -3124,39 +3209,41 @@
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L14" s="23">
-        <v>43342</v>
+        <v>43334</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" ht="180">
+        <v>328</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -3164,39 +3251,41 @@
         <v>18</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="23">
-        <v>43333</v>
+        <v>43342</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="135">
+        <v>329</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -3204,39 +3293,41 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" s="23">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" ht="185.25" customHeight="1">
+        <v>330</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -3244,39 +3335,41 @@
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="H17" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="L17" s="23">
-        <v>43333</v>
+        <v>43339</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" ht="135">
+        <v>340</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -3284,39 +3377,41 @@
         <v>19</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L18" s="23">
-        <v>43333</v>
+        <v>43336</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" ht="210">
+      <c r="N18" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="210" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -3324,39 +3419,39 @@
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="23">
-        <v>43333</v>
+        <v>101</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="183.75" customHeight="1">
+    <row r="20" spans="1:14" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>50</v>
       </c>
@@ -3364,39 +3459,39 @@
         <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="H20" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="23">
-        <v>43333</v>
+        <v>43342</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" ht="135">
+    <row r="21" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>51</v>
       </c>
@@ -3404,39 +3499,39 @@
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="67" t="s">
+      <c r="G21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" ht="105" customHeight="1">
+    <row r="22" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>52</v>
       </c>
@@ -3444,39 +3539,39 @@
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="120">
+    <row r="23" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>53</v>
       </c>
@@ -3484,39 +3579,39 @@
         <v>11</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="F23" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="150">
+    <row r="24" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>54</v>
       </c>
@@ -3524,39 +3619,39 @@
         <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="F24" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="34" t="s">
-        <v>36</v>
-      </c>
       <c r="M24" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="150">
+    <row r="25" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>55</v>
       </c>
@@ -3564,39 +3659,39 @@
         <v>9</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="F25" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="34" t="s">
-        <v>36</v>
-      </c>
       <c r="M25" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="142.5" customHeight="1">
+    <row r="26" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>101</v>
       </c>
@@ -3604,39 +3699,39 @@
         <v>12</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="F26" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="195">
+    <row r="27" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>102</v>
       </c>
@@ -3644,39 +3739,39 @@
         <v>20</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" ht="223.5" customHeight="1">
+    <row r="28" spans="1:14" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>103</v>
       </c>
@@ -3684,39 +3779,39 @@
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="15" t="s">
-        <v>15</v>
-      </c>
       <c r="L28" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" ht="240">
+    <row r="29" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>104</v>
       </c>
@@ -3724,39 +3819,39 @@
         <v>5</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="F29" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L29" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" ht="150">
+    <row r="30" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>105</v>
       </c>
@@ -3764,39 +3859,39 @@
         <v>10</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6">
         <v>25</v>
@@ -3814,7 +3909,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6">
         <v>26</v>
@@ -3832,7 +3927,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6">
         <v>27</v>
@@ -3850,7 +3945,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6">
         <v>28</v>
@@ -3868,7 +3963,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6">
         <v>29</v>
@@ -3886,7 +3981,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6">
         <v>30</v>
@@ -3904,7 +3999,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6">
         <v>31</v>
@@ -3922,7 +4017,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6">
         <v>32</v>
@@ -3941,7 +4036,7 @@
       <c r="N38" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N38">
+  <autoFilter ref="A6:N38" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A7:N38">
       <sortCondition ref="A6:A38"/>
     </sortState>
@@ -3957,487 +4052,487 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="24" customWidth="1"/>
     <col min="2" max="2" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="24" customFormat="1" ht="69" customHeight="1">
-      <c r="A1" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="76"/>
-    </row>
-    <row r="2" spans="1:2" s="24" customFormat="1"/>
-    <row r="3" spans="1:2">
+    <row r="1" spans="1:2" s="24" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="82"/>
+    </row>
+    <row r="2" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="24" customFormat="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="24" customFormat="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="24" customFormat="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="24" customFormat="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="24" customFormat="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="50" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="50" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="50" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
       <c r="B38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="50" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="50" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
       <c r="B46" s="50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
       <c r="B51" s="50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
       <c r="B52" s="50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="24" customFormat="1"/>
-    <row r="54" spans="1:2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="24" customFormat="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="24" customFormat="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="24" customFormat="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="24" customFormat="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="48"/>
       <c r="B70" s="49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="24" customFormat="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="48"/>
       <c r="B72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="48"/>
       <c r="B73" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="48"/>
       <c r="B74" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="48"/>
       <c r="B75" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="48"/>
       <c r="B76" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="48"/>
       <c r="B77" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="24" customFormat="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
       <c r="B79" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="24" customFormat="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="48"/>
       <c r="B81" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="24" customFormat="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="48"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
       <c r="B83" s="49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="24" customFormat="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="48"/>
       <c r="B85" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="48"/>
       <c r="B86" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="48"/>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4450,14 +4545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="58" style="18" customWidth="1"/>
@@ -4466,170 +4561,170 @@
     <col min="5" max="5" width="58.140625" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="154.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+    <row r="8" spans="1:5" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="135.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="140.25" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="165">
-      <c r="A7" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="193.5" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="60">
-      <c r="A9" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="42" t="s">
+      <c r="C11" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="174" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="112.5" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="D12" s="42" t="s">
         <v>165</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>167</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -4644,14 +4739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" customWidth="1"/>
@@ -4664,55 +4759,55 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="D3" s="32">
         <v>43283</v>
@@ -4721,23 +4816,23 @@
         <v>43284</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="63">
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="32">
         <v>43283</v>
@@ -4746,23 +4841,23 @@
         <v>43284</v>
       </c>
       <c r="F4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="32">
         <v>43285</v>
@@ -4771,25 +4866,25 @@
         <v>43308</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>63</v>
-      </c>
       <c r="H5" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9" ht="38.25">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="32">
         <v>43286</v>
@@ -4798,25 +4893,25 @@
         <v>43315</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <v>5</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="32">
         <v>43284</v>
@@ -4825,23 +4920,23 @@
         <v>43308</v>
       </c>
       <c r="F7" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="32">
         <v>43287</v>
@@ -4850,50 +4945,50 @@
         <v>43287</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="53">
         <v>43305</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I9" s="52"/>
     </row>
-    <row r="10" spans="1:9" ht="63.75">
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
         <v>8</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="32">
         <v>43305</v>
@@ -4902,25 +4997,25 @@
         <v>43313</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63">
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="32">
         <v>43271</v>
@@ -4929,25 +5024,25 @@
         <v>43271</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63">
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="32">
         <v>43271</v>
@@ -4956,25 +5051,25 @@
         <v>43271</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25">
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="D13" s="32">
         <v>43278</v>
@@ -4983,52 +5078,52 @@
         <v>43315</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="53">
         <v>43290</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F14" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>257</v>
-      </c>
       <c r="I14" s="52"/>
     </row>
-    <row r="15" spans="1:9" ht="153">
+    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="58">
         <v>43297</v>
@@ -5037,25 +5132,25 @@
         <v>43328</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I15" s="62"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>84</v>
       </c>
       <c r="D16" s="32">
         <v>43318</v>
@@ -5064,23 +5159,23 @@
         <v>43335</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="51">
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="D17" s="32">
         <v>43280</v>
@@ -5089,17 +5184,17 @@
         <v>43335</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="30"/>
       <c r="C18" s="25"/>
@@ -5110,7 +5205,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="30"/>
       <c r="C19" s="25"/>
@@ -5121,7 +5216,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="30"/>
       <c r="C20" s="25"/>
@@ -5132,7 +5227,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="30"/>
       <c r="C21" s="25"/>
@@ -5143,7 +5238,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="30"/>
       <c r="C22" s="25"/>
@@ -5154,7 +5249,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="30"/>
       <c r="C23" s="25"/>
@@ -5165,7 +5260,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="30"/>
       <c r="C24" s="25"/>
@@ -5176,7 +5271,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="30"/>
       <c r="C25" s="25"/>
@@ -5187,7 +5282,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="30"/>
       <c r="C26" s="25"/>
@@ -5198,7 +5293,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -5209,7 +5304,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -5220,7 +5315,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -5231,7 +5326,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -5242,7 +5337,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -5253,7 +5348,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -5264,7 +5359,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -5275,7 +5370,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -5286,7 +5381,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -5297,7 +5392,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -5308,7 +5403,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -5319,7 +5414,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -5330,7 +5425,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -5341,7 +5436,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -5352,7 +5447,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -5363,7 +5458,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="24"/>
       <c r="B225" s="24"/>
       <c r="C225" s="24"/>
@@ -5374,7 +5469,7 @@
       <c r="H225" s="24"/>
       <c r="I225" s="24"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="24"/>
       <c r="B226" s="24"/>
       <c r="C226" s="24"/>
@@ -5385,7 +5480,7 @@
       <c r="H226" s="24"/>
       <c r="I226" s="24"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="24"/>
       <c r="B227" s="24"/>
       <c r="C227" s="24"/>
@@ -5396,7 +5491,7 @@
       <c r="H227" s="24"/>
       <c r="I227" s="24"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="24"/>
       <c r="B228" s="24"/>
       <c r="C228" s="24"/>
@@ -5407,7 +5502,7 @@
       <c r="H228" s="24"/>
       <c r="I228" s="24"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="24"/>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
@@ -5418,7 +5513,7 @@
       <c r="H229" s="24"/>
       <c r="I229" s="24"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="24"/>
       <c r="B230" s="24"/>
       <c r="C230" s="24"/>
@@ -5429,7 +5524,7 @@
       <c r="H230" s="24"/>
       <c r="I230" s="24"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
@@ -5440,7 +5535,7 @@
       <c r="H231" s="24"/>
       <c r="I231" s="24"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="24"/>
       <c r="B232" s="24"/>
       <c r="C232" s="24"/>
@@ -5451,7 +5546,7 @@
       <c r="H232" s="24"/>
       <c r="I232" s="24"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="24"/>
       <c r="B233" s="24"/>
       <c r="C233" s="24"/>
@@ -5462,7 +5557,7 @@
       <c r="H233" s="24"/>
       <c r="I233" s="24"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="24"/>
       <c r="B234" s="24"/>
       <c r="C234" s="24"/>
@@ -5473,7 +5568,7 @@
       <c r="H234" s="24"/>
       <c r="I234" s="24"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
       <c r="C235" s="24"/>
@@ -5484,7 +5579,7 @@
       <c r="H235" s="24"/>
       <c r="I235" s="24"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="24"/>
       <c r="B236" s="24"/>
       <c r="C236" s="24"/>
@@ -5496,7 +5591,7 @@
       <c r="I236" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I18"/>
+  <autoFilter ref="A2:I18" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
@@ -5505,14 +5600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -5523,235 +5618,235 @@
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="81" t="s">
+      <c r="E2" s="72">
+        <v>43276.719444444447</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="105">
-      <c r="A2" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="82">
-        <v>43276.719444444447</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>285</v>
-      </c>
       <c r="G2" s="10" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="H2" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="74">
+        <v>43304.609027777777</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="74">
+        <v>43329.63958333333</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="H4" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="83" t="s">
+      <c r="B5" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="74">
+        <v>43329.652777777781</v>
+      </c>
+      <c r="F5" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="84">
-        <v>43304.609027777777</v>
-      </c>
-      <c r="F3" s="83" t="s">
+      <c r="G5" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="74">
+        <v>43329.65347222222</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="83" t="s">
-        <v>332</v>
-      </c>
-      <c r="H3" s="83">
+      <c r="H6" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="74">
+        <v>43329.654166666667</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="73">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60">
-      <c r="A4" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="84">
-        <v>43329.63958333333</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="H4" s="83">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="74">
+        <v>43329.655555555553</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="73">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="83" t="s">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="84">
-        <v>43329.652777777781</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="84">
-        <v>43329.65347222222</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>295</v>
-      </c>
-      <c r="H6" s="83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="85" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="84">
-        <v>43329.654166666667</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>301</v>
-      </c>
-      <c r="H7" s="83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="85" t="s">
+      <c r="E9" s="72">
+        <v>43329.675000000003</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="G9" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="84">
-        <v>43329.655555555553</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="82">
-        <v>43329.675000000003</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>309</v>
       </c>
       <c r="H9" s="10">
         <v>3</v>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165325D3-A642-4C29-8AEB-A62BF19D039F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36339FFF-6AFA-49A7-ACB3-6B47DEEEA8AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2787,7 +2787,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
@@ -2849,7 +2849,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="7">
-        <v>43313</v>
+        <v>43333</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -23,14 +23,14 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId10"/>
-    <pivotCache cacheId="37" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="7" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="904">
   <si>
     <t>Item</t>
   </si>
@@ -4103,6 +4103,30 @@
 16/08/18 - Atualmente o flag de liminar foi extendido aos paineis de beneficiários, e uma solução utilizando a competência "-2"
 09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
 24/07/18 - Citado em reunião, porém não foi atualizado no painel de pendências da equipe de BI</t>
+  </si>
+  <si>
+    <t>Ambiente deve estar consistente com produção para que testes de usuários possam ser realizados</t>
+  </si>
+  <si>
+    <t>Inconsistências em testes e impossibilidade de avaliar impactos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verificar a frequencia de clonagem e a possibilidade de do fluxo: congelamentos em produção &gt; clonagem &gt; testes. Testes de regras foram seriamente comprometidos e usuários estão solicitando "testes em produção", prática não adequada</t>
+    </r>
+  </si>
+  <si>
+    <t>Clone de produção para homologação</t>
   </si>
 </sst>
 </file>
@@ -4766,7 +4790,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -5123,6 +5147,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5456,7 +5483,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5495,7 +5522,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5546,7 +5573,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5592,7 +5619,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5638,7 +5665,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5684,7 +5711,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5730,7 +5757,7 @@
         <xdr:cNvPr id="2058" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5776,7 +5803,7 @@
         <xdr:cNvPr id="2060" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5822,7 +5849,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5937,16 +5964,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Padrao2" refreshedDate="43341.446880787036" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="26">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Padrao2" refreshedDate="43342.428399999997" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="26">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:P32" sheet="Plano de ação"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Prioridade" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="105"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="104"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="27"/>
     </cacheField>
     <cacheField name="Item" numFmtId="0">
       <sharedItems/>
@@ -5963,10 +5990,10 @@
         <s v="Geral"/>
         <s v="Regulação"/>
         <s v="Cadastro"/>
+        <s v="TI"/>
         <s v="Contas"/>
         <s v="Faturamento"/>
         <s v="Pagamento"/>
-        <s v="TI"/>
         <s v="Gestão"/>
         <s v="SLA"/>
       </sharedItems>
@@ -8246,10 +8273,28 @@
   </r>
   <r>
     <n v="5"/>
+    <n v="27"/>
+    <s v="Clone de produção para homologação"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Ambiente deve estar consistente com produção para que testes de usuários possam ser realizados"/>
+    <s v="Item novo"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Inconsistências em testes e impossibilidade de avaliar impactos"/>
+    <m/>
+    <s v="Nelson"/>
+    <s v="Bernardo"/>
+    <d v="2018-08-30T00:00:00"/>
+    <s v="30/08/18 - Verificar a frequencia de clonagem e a possibilidade de do fluxo: congelamentos em produção &gt; clonagem &gt; testes. Testes de regras foram seriamente comprometidos e usuários estão solicitando &quot;testes em produção&quot;, prática não adequada"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
     <n v="25"/>
     <s v="Integração TISS"/>
     <x v="1"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Acompanhamento das ações que regularizaram o XML de retorno de contas para prestadores"/>
     <s v="Item novo"/>
     <x v="3"/>
@@ -8263,7 +8308,7 @@
     <m/>
   </r>
   <r>
-    <n v="6"/>
+    <n v="7"/>
     <n v="14"/>
     <s v="Relatório de Governo"/>
     <x v="0"/>
@@ -8281,11 +8326,11 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <n v="8"/>
     <n v="23"/>
     <s v="CONSIG"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Funcionalidades que permitam manutenção de todas as interações com orgãos do estado (outros poderes e executivo), com geração de arquivos para consignação "/>
     <s v="Em acompanhamento"/>
     <x v="1"/>
@@ -8299,7 +8344,7 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <n v="9"/>
     <n v="24"/>
     <s v="Cadastro Online"/>
     <x v="1"/>
@@ -8317,11 +8362,11 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <n v="10"/>
     <n v="13"/>
     <s v="Dados de pagamento"/>
     <x v="1"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="Relatório Glosa de Edital Março a Junho de 2018"/>
     <s v="Relatório para CG, sem atendimento desde criação em 18/07/18"/>
     <x v="2"/>
@@ -8335,11 +8380,11 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <n v="11"/>
     <n v="18"/>
     <s v="Liminar no painel de contas"/>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Marcação de liminar ainda não foi associada da solicitação para respectiva conta"/>
     <s v="Comunicada"/>
     <x v="1"/>
@@ -8353,11 +8398,11 @@
     <m/>
   </r>
   <r>
-    <n v="11"/>
+    <n v="12"/>
     <n v="1"/>
     <s v="Modelo de dados - Stage 1"/>
     <x v="0"/>
-    <x v="6"/>
+    <x v="3"/>
     <s v="Diagrama da base de dados intermediária, com dados relacionados às áreas de negócio"/>
     <s v="Em avaliação"/>
     <x v="1"/>
@@ -8371,7 +8416,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <n v="13"/>
     <n v="19"/>
     <s v="Nomeclatura em paineis do BI"/>
     <x v="0"/>
@@ -8389,7 +8434,7 @@
     <m/>
   </r>
   <r>
-    <n v="13"/>
+    <n v="14"/>
     <n v="26"/>
     <s v="SMS para autorizações"/>
     <x v="1"/>
@@ -8407,11 +8452,11 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <n v="15"/>
     <n v="17"/>
     <s v="Pedidos de acesso"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="3"/>
     <s v="Controle realizados por e-mail não estão funcionando bem, o Jira deve ser utilizado com acordo referente a prazos"/>
     <s v="Em avaliação"/>
     <x v="4"/>
@@ -8425,11 +8470,11 @@
     <m/>
   </r>
   <r>
-    <n v="15"/>
+    <n v="16"/>
     <n v="7"/>
     <s v="Release Notes para mudanças do BI"/>
     <x v="0"/>
-    <x v="6"/>
+    <x v="3"/>
     <s v="Padrão de notas sobre alterações realizadas no modelo"/>
     <s v="Em avaliação"/>
     <x v="4"/>
@@ -8501,7 +8546,7 @@
     <n v="11"/>
     <s v="Recebimento automático de chamados"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="3"/>
     <s v="Resposta automatizada no Jira impede aferição correta da primeira resposta dada por um técnico ao avaliar chamados abertos"/>
     <s v="Realizar acompanhamento mensal"/>
     <x v="5"/>
@@ -8573,7 +8618,7 @@
     <n v="20"/>
     <s v="Atualização de dados da Cópia_STG 1"/>
     <x v="0"/>
-    <x v="6"/>
+    <x v="3"/>
     <s v="Assegurar que dados da base com acesso pelo Planserv estão atualizados a D-1"/>
     <s v="Resolvida"/>
     <x v="6"/>
@@ -8591,7 +8636,7 @@
     <n v="2"/>
     <s v="Acesso à Stage 1 - VPN"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="3"/>
     <s v="Proposta de acesso à base de dados de negócio para equipe TI PSV"/>
     <s v="Resolvida"/>
     <x v="6"/>
@@ -8609,7 +8654,7 @@
     <n v="5"/>
     <s v="Área de protótipo para criação de paineis"/>
     <x v="0"/>
-    <x v="6"/>
+    <x v="3"/>
     <s v="Espaço com dados limitados, em ambiente de homologação, permitindo salvamento das visões no Power BI"/>
     <s v="Resolvida"/>
     <x v="6"/>
@@ -8620,31 +8665,13 @@
     <s v="Raniere"/>
     <s v="AD"/>
     <s v="01/08/18 - Foi liberado 30/07/18 será avaliado pela equipe.&#10;&#10;27/01/18 - PRevisão de entrega somente em 17/08, será feito novo alinamento em 31/07 para entendimento das dificuldades técnicas.&#10;&#10;06/07/18 - Foi realizada tentativa de envio do arquivo como alternativa ao acesso web pelo módulo analítico, sem sucesso&#10;&#10;04/07/18 - Formalizado por André Machado em resumo sobre reuniões realizadas em 03 e 04/07. Foi sinalizado por Raniere necessidade de intervenção da TI QRD para que o painel fosse disponibilizado, com previsão de produção na semana de 09 a 13/07, porém entrega ainda não foi realizada até o momento."/>
-    <m/>
-  </r>
-  <r>
-    <n v="105"/>
-    <n v="10"/>
-    <s v="Mudanças de status indevidas no Jira"/>
-    <x v="1"/>
-    <x v="6"/>
-    <s v="Comentários informativos pela TI QRD estão ocasionando mudanças para status &quot;aguardando solicitante&quot; e gerando paradas de relógio indevidas para os chamados"/>
-    <s v="Resolvida"/>
-    <x v="6"/>
-    <x v="1"/>
-    <s v="Apuração correta do tempo de atendimento"/>
-    <m/>
-    <s v="Nelson"/>
-    <s v="André Duarte/Denis"/>
-    <s v="AD"/>
-    <s v="03/08/18 - Removida a automação que muda o status do chamado quando o atendente comenta. A alteração será manual.&#10;&#10;01/08/18 - Será mudado no fluxo Jira, com mudança para &quot;Aguardando solicitante&quot; somente quando a função validar for executada pela equipe de suporte QRD&#10;&#10;24/07/18 - Tratado em reunião com André Machado e Denis, será avaliado para novas ocorrências"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A5:I22" firstHeaderRow="0" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -8661,14 +8688,14 @@
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
       <items count="9">
         <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
         <item x="0"/>
         <item x="7"/>
-        <item x="5"/>
+        <item x="6"/>
         <item x="1"/>
         <item x="8"/>
-        <item x="6"/>
+        <item x="3"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
@@ -9009,7 +9036,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica5" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A7:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -9395,7 +9422,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9476,7 +9502,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7">
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -9661,7 +9687,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="119.25" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="105">
         <v>3</v>
       </c>
       <c r="B9" s="6">
@@ -9773,23 +9799,23 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="102.75" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="105">
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>314</v>
+        <v>903</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>424</v>
+        <v>18</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>315</v>
+        <v>900</v>
       </c>
       <c r="G11" s="90" t="s">
         <v>261</v>
@@ -9801,7 +9827,7 @@
         <v>417</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>316</v>
+        <v>901</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="6" t="s">
@@ -9814,7 +9840,7 @@
         <v>43342</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="P11" s="9"/>
       <c r="R11" s="13" t="s">
@@ -9829,46 +9855,44 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G12" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>407</v>
+        <v>261</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>410</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>399</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="K12" s="14"/>
       <c r="L12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="N12" s="22">
         <v>43342</v>
       </c>
-      <c r="O12" s="35" t="s">
-        <v>403</v>
+      <c r="O12" s="9" t="s">
+        <v>897</v>
       </c>
       <c r="P12" s="9"/>
       <c r="R12" s="15" t="s">
@@ -9879,48 +9903,50 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="98.25" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="105">
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G13" s="90" t="s">
-        <v>395</v>
+        <v>113</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>407</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="K13" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>399</v>
+      </c>
       <c r="L13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="N13" s="110">
         <v>43342</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>892</v>
+      <c r="O13" s="35" t="s">
+        <v>403</v>
       </c>
       <c r="P13" s="9"/>
       <c r="R13" s="64" t="s">
@@ -9935,46 +9961,44 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>394</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>408</v>
+        <v>395</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>417</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>398</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="K14" s="14"/>
       <c r="L14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="N14" s="110">
         <v>43342</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P14" s="9"/>
       <c r="U14" s="14" t="s">
@@ -9982,26 +10006,26 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="109.5" customHeight="1">
-      <c r="A15" s="6">
+      <c r="A15" s="105">
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="G15" s="90" t="s">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>408</v>
@@ -10010,22 +10034,22 @@
         <v>417</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N15" s="110">
         <v>43342</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>894</v>
+      <c r="O15" s="9" t="s">
+        <v>893</v>
       </c>
       <c r="P15" s="9"/>
       <c r="U15" s="14" t="s">
@@ -10037,44 +10061,46 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="G16" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>407</v>
+        <v>100</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>408</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="L16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="N16" s="22">
         <v>43342</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>899</v>
+      <c r="O16" s="35" t="s">
+        <v>894</v>
       </c>
       <c r="P16" s="9"/>
       <c r="U16" s="14" t="s">
@@ -10082,26 +10108,26 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="153" customHeight="1">
-      <c r="A17" s="6">
+      <c r="A17" s="105">
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>18</v>
+        <v>424</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="G17" s="90" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>407</v>
@@ -10110,7 +10136,7 @@
         <v>418</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="6" t="s">
@@ -10123,7 +10149,7 @@
         <v>43342</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>404</v>
+        <v>899</v>
       </c>
       <c r="P17" s="9"/>
       <c r="U17" s="14" t="s">
@@ -10135,31 +10161,31 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>421</v>
+        <v>18</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="118" t="s">
-        <v>889</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>331</v>
+        <v>9</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>418</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="6" t="s">
@@ -10172,126 +10198,126 @@
         <v>43342</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>895</v>
+        <v>404</v>
       </c>
       <c r="P18" s="9"/>
       <c r="U18" s="14" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="105">
-      <c r="A19" s="6">
+    <row r="19" spans="1:21" ht="330">
+      <c r="A19" s="105">
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>410</v>
+        <v>149</v>
+      </c>
+      <c r="G19" s="118" t="s">
+        <v>889</v>
+      </c>
+      <c r="H19" s="64" t="s">
+        <v>331</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>418</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>319</v>
+        <v>150</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="N19" s="22">
         <v>43342</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>312</v>
+        <v>895</v>
       </c>
       <c r="P19" s="9"/>
       <c r="U19" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="141.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:21" ht="141.75" customHeight="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>18</v>
+        <v>422</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="G20" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>331</v>
+        <v>261</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>410</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>418</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>147</v>
+        <v>105</v>
+      </c>
+      <c r="N20" s="22">
+        <v>43342</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="158.25" hidden="1" customHeight="1">
-      <c r="A21" s="6">
+    <row r="21" spans="1:21" ht="158.25" customHeight="1">
+      <c r="A21" s="105">
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="G21" s="90" t="s">
         <v>97</v>
@@ -10303,124 +10329,124 @@
         <v>418</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="N21" s="39" t="s">
         <v>147</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>396</v>
+        <v>306</v>
       </c>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:21" ht="135.75" customHeight="1">
       <c r="A22" s="6">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>427</v>
+        <v>18</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="G22" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="63" t="s">
-        <v>411</v>
+        <v>97</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>331</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>418</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="22">
-        <v>43342</v>
+        <v>21</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>896</v>
+        <v>396</v>
       </c>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="97.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:21" ht="97.5" customHeight="1">
       <c r="A23" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="G23" s="90" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="H23" s="63" t="s">
         <v>411</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>164</v>
+        <v>26</v>
+      </c>
+      <c r="N23" s="22">
+        <v>43342</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>896</v>
       </c>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:21" ht="123" hidden="1" customHeight="1">
+    <row r="24" spans="1:21" ht="123" customHeight="1">
       <c r="A24" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>18</v>
@@ -10441,41 +10467,41 @@
         <v>419</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N24" s="39" t="s">
         <v>147</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="140.25" hidden="1" customHeight="1">
+    <row r="25" spans="1:21" ht="140.25" customHeight="1">
       <c r="A25" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>18</v>
+        <v>422</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G25" s="90" t="s">
         <v>103</v>
@@ -10484,44 +10510,44 @@
         <v>411</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="N25" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="O25" s="9" t="s">
-        <v>117</v>
+      <c r="O25" s="35" t="s">
+        <v>165</v>
       </c>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="87" hidden="1" customHeight="1">
+    <row r="26" spans="1:21" ht="87" customHeight="1">
       <c r="A26" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>428</v>
+        <v>18</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="G26" s="90" t="s">
         <v>103</v>
@@ -10533,32 +10559,32 @@
         <v>418</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="33" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:21" ht="87.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:21" ht="87.75" customHeight="1">
       <c r="A27" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>19</v>
@@ -10567,7 +10593,7 @@
         <v>428</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G27" s="90" t="s">
         <v>103</v>
@@ -10596,70 +10622,70 @@
       </c>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:21" ht="100.5" hidden="1" customHeight="1">
+    <row r="28" spans="1:21" ht="100.5" customHeight="1">
       <c r="A28" s="6">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>428</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="G28" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>163</v>
+        <v>103</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>411</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>418</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>147</v>
+        <v>30</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:21" ht="97.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:21" ht="97.5" customHeight="1">
       <c r="A29" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>18</v>
+        <v>428</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="G29" s="90" t="s">
         <v>163</v>
@@ -10668,44 +10694,44 @@
         <v>163</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="N29" s="39" t="s">
         <v>147</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:21" ht="112.5" hidden="1" customHeight="1">
+    <row r="30" spans="1:21" ht="112.5" customHeight="1">
       <c r="A30" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="G30" s="90" t="s">
         <v>163</v>
@@ -10717,41 +10743,41 @@
         <v>417</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="N30" s="39" t="s">
         <v>147</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:21" ht="138" hidden="1" customHeight="1">
+    <row r="31" spans="1:21" ht="138" customHeight="1">
       <c r="A31" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G31" s="90" t="s">
         <v>163</v>
@@ -10763,41 +10789,41 @@
         <v>417</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N31" s="39" t="s">
         <v>147</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:21" ht="110.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:21" ht="110.25" customHeight="1">
       <c r="A32" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="G32" s="90" t="s">
         <v>163</v>
@@ -10806,47 +10832,73 @@
         <v>163</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N32" s="39" t="s">
         <v>147</v>
       </c>
       <c r="O32" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" ht="150">
+      <c r="A33" s="6">
+        <v>105</v>
+      </c>
+      <c r="B33" s="6">
+        <v>10</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N33" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="O33" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" hidden="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6">
-        <v>27</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" hidden="1">
+    <row r="34" spans="1:16">
       <c r="A34" s="6"/>
       <c r="B34" s="6">
         <v>28</v>
@@ -10866,7 +10918,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" hidden="1">
+    <row r="35" spans="1:16">
       <c r="A35" s="6"/>
       <c r="B35" s="6">
         <v>29</v>
@@ -10886,7 +10938,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" hidden="1">
+    <row r="36" spans="1:16">
       <c r="A36" s="6"/>
       <c r="B36" s="6">
         <v>30</v>
@@ -10906,7 +10958,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" hidden="1">
+    <row r="37" spans="1:16">
       <c r="A37" s="6"/>
       <c r="B37" s="6">
         <v>31</v>
@@ -10926,7 +10978,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" hidden="1">
+    <row r="38" spans="1:16">
       <c r="A38" s="6"/>
       <c r="B38" s="6">
         <v>32</v>
@@ -10946,7 +10998,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" hidden="1">
+    <row r="39" spans="1:16">
       <c r="A39" s="6"/>
       <c r="B39" s="6">
         <v>33</v>
@@ -10966,7 +11018,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" hidden="1">
+    <row r="40" spans="1:16">
       <c r="A40" s="6"/>
       <c r="B40" s="6">
         <v>34</v>
@@ -10986,7 +11038,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" hidden="1">
+    <row r="41" spans="1:16">
       <c r="A41" s="6"/>
       <c r="B41" s="6">
         <v>35</v>
@@ -11006,7 +11058,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" hidden="1">
+    <row r="42" spans="1:16">
       <c r="A42" s="6"/>
       <c r="B42" s="6">
         <v>36</v>
@@ -11026,7 +11078,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16" hidden="1">
+    <row r="43" spans="1:16">
       <c r="A43" s="6"/>
       <c r="B43" s="6">
         <v>37</v>
@@ -11046,7 +11098,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:16" hidden="1">
+    <row r="44" spans="1:16">
       <c r="A44" s="6"/>
       <c r="B44" s="6">
         <v>38</v>
@@ -11066,7 +11118,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16" hidden="1">
+    <row r="45" spans="1:16">
       <c r="A45" s="6"/>
       <c r="B45" s="6">
         <v>39</v>
@@ -11086,7 +11138,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16" hidden="1">
+    <row r="46" spans="1:16">
       <c r="A46" s="6"/>
       <c r="B46" s="6">
         <v>40</v>
@@ -11106,7 +11158,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16" hidden="1">
+    <row r="47" spans="1:16">
       <c r="A47" s="6"/>
       <c r="B47" s="6">
         <v>41</v>
@@ -11126,7 +11178,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16" hidden="1">
+    <row r="48" spans="1:16">
       <c r="A48" s="6"/>
       <c r="B48" s="6">
         <v>42</v>
@@ -11146,7 +11198,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" hidden="1">
+    <row r="49" spans="1:16">
       <c r="A49" s="6"/>
       <c r="B49" s="6">
         <v>43</v>
@@ -11166,7 +11218,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" hidden="1">
+    <row r="50" spans="1:16">
       <c r="A50" s="6"/>
       <c r="B50" s="6">
         <v>44</v>
@@ -11186,7 +11238,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:16" hidden="1">
+    <row r="51" spans="1:16">
       <c r="A51" s="6"/>
       <c r="B51" s="6">
         <v>45</v>
@@ -11206,7 +11258,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16" hidden="1">
+    <row r="52" spans="1:16">
       <c r="A52" s="6"/>
       <c r="B52" s="6">
         <v>46</v>
@@ -11226,7 +11278,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:16" hidden="1">
+    <row r="53" spans="1:16">
       <c r="A53" s="6"/>
       <c r="B53" s="6">
         <v>47</v>
@@ -11246,7 +11298,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" hidden="1">
+    <row r="54" spans="1:16">
       <c r="A54" s="6"/>
       <c r="B54" s="6">
         <v>48</v>
@@ -11266,7 +11318,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16" hidden="1">
+    <row r="55" spans="1:16">
       <c r="A55" s="6"/>
       <c r="B55" s="6">
         <v>49</v>
@@ -11286,7 +11338,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:16" hidden="1">
+    <row r="56" spans="1:16">
       <c r="A56" s="6"/>
       <c r="B56" s="6">
         <v>50</v>
@@ -11306,7 +11358,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16" hidden="1">
+    <row r="57" spans="1:16">
       <c r="A57" s="6"/>
       <c r="B57" s="6">
         <v>51</v>
@@ -11326,7 +11378,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:16" hidden="1">
+    <row r="58" spans="1:16">
       <c r="A58" s="6"/>
       <c r="B58" s="6">
         <v>52</v>
@@ -11346,7 +11398,7 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:16" hidden="1">
+    <row r="59" spans="1:16">
       <c r="A59" s="6"/>
       <c r="B59" s="6">
         <v>53</v>
@@ -11366,7 +11418,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
     </row>
-    <row r="60" spans="1:16" hidden="1">
+    <row r="60" spans="1:16">
       <c r="A60" s="6"/>
       <c r="B60" s="6">
         <v>54</v>
@@ -11386,7 +11438,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
     </row>
-    <row r="61" spans="1:16" hidden="1">
+    <row r="61" spans="1:16">
       <c r="A61" s="6"/>
       <c r="B61" s="6">
         <v>55</v>
@@ -11406,7 +11458,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:16" hidden="1">
+    <row r="62" spans="1:16">
       <c r="A62" s="6"/>
       <c r="B62" s="6">
         <v>56</v>
@@ -11426,7 +11478,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
     </row>
-    <row r="63" spans="1:16" hidden="1">
+    <row r="63" spans="1:16">
       <c r="A63" s="6"/>
       <c r="B63" s="6">
         <v>57</v>
@@ -11446,7 +11498,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
     </row>
-    <row r="64" spans="1:16" hidden="1">
+    <row r="64" spans="1:16">
       <c r="A64" s="6"/>
       <c r="B64" s="6">
         <v>58</v>
@@ -11466,7 +11518,7 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
-    <row r="65" spans="1:16" hidden="1">
+    <row r="65" spans="1:16">
       <c r="A65" s="6"/>
       <c r="B65" s="6">
         <v>59</v>
@@ -11486,7 +11538,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
     </row>
-    <row r="66" spans="1:16" hidden="1">
+    <row r="66" spans="1:16">
       <c r="A66" s="6"/>
       <c r="B66" s="6">
         <v>60</v>
@@ -11510,13 +11562,9 @@
   <autoFilter ref="A6:P66">
     <filterColumn colId="4"/>
     <filterColumn colId="7"/>
-    <filterColumn colId="13">
-      <filters>
-        <dateGroupItem year="2018" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="13"/>
     <sortState ref="A7:P66">
-      <sortCondition ref="A6:A38"/>
+      <sortCondition ref="A6:A66"/>
     </sortState>
   </autoFilter>
   <sortState ref="U7:U19">
@@ -14712,7 +14760,7 @@
   <dimension ref="A3:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14782,13 +14830,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="96">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D7" s="94">
         <v>7</v>
       </c>
       <c r="E7" s="96">
-        <v>0.33333333333333331</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="F7" s="94"/>
       <c r="G7" s="96">
@@ -14798,7 +14846,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="96">
-        <v>0.38095238095238093</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -14813,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="F8" s="92"/>
       <c r="G8" s="95">
@@ -14823,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -14834,13 +14882,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D9" s="92">
         <v>2</v>
       </c>
       <c r="E9" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F9" s="92"/>
       <c r="G9" s="95">
@@ -14850,7 +14898,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="95">
-        <v>0.14285714285714285</v>
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -14865,7 +14913,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F10" s="92"/>
       <c r="G10" s="95">
@@ -14875,7 +14923,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -14890,7 +14938,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F11" s="92"/>
       <c r="G11" s="95">
@@ -14900,7 +14948,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -14908,28 +14956,28 @@
         <v>18</v>
       </c>
       <c r="B12" s="94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="96">
-        <v>0.2857142857142857</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="D12" s="94">
         <v>3</v>
       </c>
       <c r="E12" s="96">
-        <v>0.14285714285714285</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="F12" s="94">
         <v>2</v>
       </c>
       <c r="G12" s="96">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H12" s="94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="96">
-        <v>0.52380952380952384</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -14940,7 +14988,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="D13" s="92"/>
       <c r="E13" s="95">
@@ -14954,7 +15002,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -14965,7 +15013,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D14" s="92"/>
       <c r="E14" s="95">
@@ -14979,7 +15027,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -14990,7 +15038,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D15" s="92"/>
       <c r="E15" s="95">
@@ -15004,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -15015,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D16" s="92"/>
       <c r="E16" s="95">
@@ -15029,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -15040,50 +15088,52 @@
         <v>1</v>
       </c>
       <c r="C17" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D17" s="92">
         <v>1</v>
       </c>
       <c r="E17" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="F17" s="92">
         <v>2</v>
       </c>
       <c r="G17" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H17" s="92">
         <v>4</v>
       </c>
       <c r="I17" s="95">
-        <v>0.19047619047619047</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="92"/>
+      <c r="B18" s="92">
+        <v>1</v>
+      </c>
       <c r="C18" s="95">
-        <v>0</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D18" s="92">
         <v>2</v>
       </c>
       <c r="E18" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F18" s="92"/>
       <c r="G18" s="95">
         <v>0</v>
       </c>
       <c r="H18" s="92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -15094,13 +15144,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="96">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D19" s="94">
         <v>1</v>
       </c>
       <c r="E19" s="96">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="F19" s="94"/>
       <c r="G19" s="96">
@@ -15110,7 +15160,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="96">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -15121,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D20" s="92"/>
       <c r="E20" s="95">
@@ -15135,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -15150,7 +15200,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="F21" s="92"/>
       <c r="G21" s="95">
@@ -15160,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="95">
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -15168,25 +15218,25 @@
         <v>412</v>
       </c>
       <c r="B22" s="92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="95">
-        <v>0.38095238095238093</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="D22" s="92">
         <v>11</v>
       </c>
       <c r="E22" s="95">
-        <v>0.52380952380952384</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="92">
         <v>2</v>
       </c>
       <c r="G22" s="95">
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="H22" s="92">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" s="95">
         <v>1</v>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39412A3E-C3EA-4C10-A2B3-4F121489F4D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de ação" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
   <calcPr calcId="124519"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="7" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -4132,8 +4138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5111,6 +5117,9 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5147,146 +5156,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <border>
         <left/>
@@ -5373,7 +5249,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -5483,7 +5359,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="Resultado de imagem para planserv">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5522,7 +5398,7 @@
         <xdr:cNvPr id="1027" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5573,7 +5449,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5619,7 +5495,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5665,7 +5541,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5711,7 +5587,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5757,7 +5633,7 @@
         <xdr:cNvPr id="2058" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,7 +5679,7 @@
         <xdr:cNvPr id="2060" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5849,7 +5725,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5881,7 +5757,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Padrao2" refreshedDate="43336.589504976851" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="119">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Padrao2" refreshedDate="43336.589504976851" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="119" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P120" sheet="Chamados"/>
   </cacheSource>
@@ -5960,11 +5836,16 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Padrao2" refreshedDate="43342.428399999997" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="26">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Padrao2" refreshedDate="43342.428399999997" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="26" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:P32" sheet="Plano de ação"/>
   </cacheSource>
@@ -6047,6 +5928,11 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -8671,7 +8557,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A5:I22" firstHeaderRow="0" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -8826,7 +8712,7 @@
     <dataField name="%" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="19">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -8843,7 +8729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -8859,7 +8745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -8874,7 +8760,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="6">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8883,7 +8769,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -8892,7 +8778,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -8908,7 +8794,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -8917,7 +8803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -8934,7 +8820,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -8943,7 +8829,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -9032,11 +8918,16 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleDark3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A7:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -9134,13 +9025,18 @@
     <dataField name="Chamados" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleDark6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9178,9 +9074,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9212,9 +9108,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9246,9 +9160,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9421,14 +9353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -9449,9 +9381,9 @@
     <col min="18" max="21" width="21.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A2" s="122"/>
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="123"/>
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
@@ -9467,14 +9399,14 @@
       <c r="L2" s="1"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="119"/>
+      <c r="O2" s="120"/>
       <c r="P2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="U2" s="23"/>
     </row>
-    <row r="3" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="124"/>
       <c r="B3" s="4" t="s">
         <v>888</v>
       </c>
@@ -9490,14 +9422,14 @@
       <c r="L3" s="5"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
-      <c r="O3" s="120"/>
+      <c r="O3" s="121"/>
       <c r="P3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="U3" s="23"/>
     </row>
-    <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="124"/>
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="125"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -9515,11 +9447,11 @@
       <c r="L4" s="3"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="121"/>
+      <c r="O4" s="122"/>
       <c r="P4" s="12"/>
       <c r="U4" s="23"/>
     </row>
-    <row r="6" spans="1:21" ht="31.5">
+    <row r="6" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
         <v>254</v>
       </c>
@@ -9570,7 +9502,7 @@
       </c>
       <c r="U6" s="23"/>
     </row>
-    <row r="7" spans="1:21" ht="114" customHeight="1">
+    <row r="7" spans="1:21" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="105">
         <v>1</v>
       </c>
@@ -9628,7 +9560,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="169.5" customHeight="1">
+    <row r="8" spans="1:21" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -9686,7 +9618,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="119.25" customHeight="1">
+    <row r="9" spans="1:21" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="105">
         <v>3</v>
       </c>
@@ -9746,49 +9678,49 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="129.75" customHeight="1">
+    <row r="10" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>408</v>
+        <v>395</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>417</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="N10" s="22">
         <v>43342</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>393</v>
+        <v>892</v>
       </c>
       <c r="P10" s="9"/>
       <c r="R10" s="13" t="s">
@@ -9798,49 +9730,49 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="102.75" customHeight="1">
+    <row r="11" spans="1:21" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="105">
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>903</v>
+        <v>43</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>18</v>
+        <v>421</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="G11" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>410</v>
+        <v>15</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>408</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>417</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>901</v>
+        <v>45</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="N11" s="22">
         <v>43342</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>902</v>
+        <v>393</v>
       </c>
       <c r="P11" s="9"/>
       <c r="R11" s="13" t="s">
@@ -9850,24 +9782,24 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="155.25" customHeight="1">
+    <row r="12" spans="1:21" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>314</v>
+        <v>903</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>424</v>
+        <v>18</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>315</v>
+        <v>900</v>
       </c>
       <c r="G12" s="90" t="s">
         <v>261</v>
@@ -9879,7 +9811,7 @@
         <v>417</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>316</v>
+        <v>901</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="6" t="s">
@@ -9892,7 +9824,7 @@
         <v>43342</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="P12" s="9"/>
       <c r="R12" s="15" t="s">
@@ -9902,51 +9834,49 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="98.25" customHeight="1">
+    <row r="13" spans="1:21" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105">
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G13" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>407</v>
+        <v>261</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>410</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>399</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="K13" s="14"/>
       <c r="L13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="N13" s="110">
         <v>43342</v>
       </c>
-      <c r="O13" s="35" t="s">
-        <v>403</v>
+      <c r="O13" s="9" t="s">
+        <v>897</v>
       </c>
       <c r="P13" s="9"/>
       <c r="R13" s="64" t="s">
@@ -9956,56 +9886,58 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="187.5" customHeight="1">
+    <row r="14" spans="1:21" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>395</v>
+        <v>113</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>407</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="K14" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>399</v>
+      </c>
       <c r="L14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="N14" s="110">
         <v>43342</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>892</v>
+      <c r="O14" s="35" t="s">
+        <v>403</v>
       </c>
       <c r="P14" s="9"/>
       <c r="U14" s="14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="109.5" customHeight="1">
+    <row r="15" spans="1:21" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105">
         <v>9</v>
       </c>
@@ -10056,7 +9988,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="99.75" customHeight="1">
+    <row r="16" spans="1:21" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -10107,7 +10039,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="153" customHeight="1">
+    <row r="17" spans="1:21" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="105">
         <v>11</v>
       </c>
@@ -10156,7 +10088,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="145.5" customHeight="1">
+    <row r="18" spans="1:21" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -10205,7 +10137,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="330">
+    <row r="19" spans="1:21" ht="330" x14ac:dyDescent="0.25">
       <c r="A19" s="105">
         <v>13</v>
       </c>
@@ -10254,7 +10186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="141.75" customHeight="1">
+    <row r="20" spans="1:21" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -10300,7 +10232,7 @@
       </c>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="158.25" customHeight="1">
+    <row r="21" spans="1:21" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="105">
         <v>15</v>
       </c>
@@ -10346,7 +10278,7 @@
       </c>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="135.75" customHeight="1">
+    <row r="22" spans="1:21" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -10392,7 +10324,7 @@
       </c>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="97.5" customHeight="1">
+    <row r="23" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>50</v>
       </c>
@@ -10438,7 +10370,7 @@
       </c>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:21" ht="123" customHeight="1">
+    <row r="24" spans="1:21" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>51</v>
       </c>
@@ -10484,7 +10416,7 @@
       </c>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="140.25" customHeight="1">
+    <row r="25" spans="1:21" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>52</v>
       </c>
@@ -10530,7 +10462,7 @@
       </c>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="87" customHeight="1">
+    <row r="26" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>53</v>
       </c>
@@ -10576,7 +10508,7 @@
       </c>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:21" ht="87.75" customHeight="1">
+    <row r="27" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>54</v>
       </c>
@@ -10622,7 +10554,7 @@
       </c>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:21" ht="100.5" customHeight="1">
+    <row r="28" spans="1:21" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>55</v>
       </c>
@@ -10668,7 +10600,7 @@
       </c>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:21" ht="97.5" customHeight="1">
+    <row r="29" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>101</v>
       </c>
@@ -10714,7 +10646,7 @@
       </c>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:21" ht="112.5" customHeight="1">
+    <row r="30" spans="1:21" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>102</v>
       </c>
@@ -10760,7 +10692,7 @@
       </c>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:21" ht="138" customHeight="1">
+    <row r="31" spans="1:21" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>103</v>
       </c>
@@ -10806,7 +10738,7 @@
       </c>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:21" ht="110.25" customHeight="1">
+    <row r="32" spans="1:21" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>104</v>
       </c>
@@ -10852,7 +10784,7 @@
       </c>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" ht="150">
+    <row r="33" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>105</v>
       </c>
@@ -10890,7 +10822,7 @@
       <c r="M33" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N33" s="131" t="s">
+      <c r="N33" s="119" t="s">
         <v>147</v>
       </c>
       <c r="O33" s="9" t="s">
@@ -10898,7 +10830,7 @@
       </c>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6">
         <v>28</v>
@@ -10918,7 +10850,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6">
         <v>29</v>
@@ -10938,7 +10870,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6">
         <v>30</v>
@@ -10958,7 +10890,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6">
         <v>31</v>
@@ -10978,7 +10910,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6">
         <v>32</v>
@@ -10998,7 +10930,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6">
         <v>33</v>
@@ -11018,7 +10950,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6">
         <v>34</v>
@@ -11038,7 +10970,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6">
         <v>35</v>
@@ -11058,7 +10990,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6">
         <v>36</v>
@@ -11078,7 +11010,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6">
         <v>37</v>
@@ -11098,7 +11030,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6">
         <v>38</v>
@@ -11118,7 +11050,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6">
         <v>39</v>
@@ -11138,7 +11070,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6">
         <v>40</v>
@@ -11158,7 +11090,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6">
         <v>41</v>
@@ -11178,7 +11110,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6">
         <v>42</v>
@@ -11198,7 +11130,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6">
         <v>43</v>
@@ -11218,7 +11150,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6">
         <v>44</v>
@@ -11238,7 +11170,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6">
         <v>45</v>
@@ -11258,7 +11190,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6">
         <v>46</v>
@@ -11278,7 +11210,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6">
         <v>47</v>
@@ -11298,7 +11230,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6">
         <v>48</v>
@@ -11318,7 +11250,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6">
         <v>49</v>
@@ -11338,7 +11270,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6">
         <v>50</v>
@@ -11358,7 +11290,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6">
         <v>51</v>
@@ -11378,7 +11310,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6">
         <v>52</v>
@@ -11398,7 +11330,7 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6">
         <v>53</v>
@@ -11418,7 +11350,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6">
         <v>54</v>
@@ -11438,7 +11370,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6">
         <v>55</v>
@@ -11458,7 +11390,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6">
         <v>56</v>
@@ -11478,7 +11410,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6">
         <v>57</v>
@@ -11498,7 +11430,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6">
         <v>58</v>
@@ -11518,7 +11450,7 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6">
         <v>59</v>
@@ -11538,7 +11470,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6">
         <v>60</v>
@@ -11559,10 +11491,7 @@
       <c r="P66" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:P66">
-    <filterColumn colId="4"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="13"/>
+  <autoFilter ref="A6:P66" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A7:P66">
       <sortCondition ref="A6:A66"/>
     </sortState>
@@ -11575,16 +11504,16 @@
     <mergeCell ref="A2:A4"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$R$7:$R$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$S$7:$S$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$T$7:$T$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$U$7:$U$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -11595,7 +11524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -11605,7 +11534,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="72" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="72" customWidth="1"/>
@@ -11623,24 +11552,24 @@
     <col min="15" max="16384" width="8.7109375" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="126"/>
-    </row>
-    <row r="2" spans="1:14" ht="25.5">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="127"/>
+    </row>
+    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>321</v>
       </c>
@@ -11681,7 +11610,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="3" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>171</v>
       </c>
@@ -11721,7 +11650,7 @@
       </c>
       <c r="N3" s="80"/>
     </row>
-    <row r="4" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="4" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>171</v>
       </c>
@@ -11761,7 +11690,7 @@
       </c>
       <c r="N4" s="80"/>
     </row>
-    <row r="5" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="5" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>171</v>
       </c>
@@ -11801,7 +11730,7 @@
       </c>
       <c r="N5" s="80"/>
     </row>
-    <row r="6" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="6" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>171</v>
       </c>
@@ -11841,7 +11770,7 @@
       </c>
       <c r="N6" s="80"/>
     </row>
-    <row r="7" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="7" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>171</v>
       </c>
@@ -11881,7 +11810,7 @@
       </c>
       <c r="N7" s="80"/>
     </row>
-    <row r="8" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="8" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>171</v>
       </c>
@@ -11921,7 +11850,7 @@
       </c>
       <c r="N8" s="80"/>
     </row>
-    <row r="9" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="9" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>171</v>
       </c>
@@ -11959,7 +11888,7 @@
       </c>
       <c r="N9" s="80"/>
     </row>
-    <row r="10" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="10" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>171</v>
       </c>
@@ -11995,7 +11924,7 @@
       </c>
       <c r="N10" s="80"/>
     </row>
-    <row r="11" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="11" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>171</v>
       </c>
@@ -12035,7 +11964,7 @@
       </c>
       <c r="N11" s="80"/>
     </row>
-    <row r="12" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="12" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>171</v>
       </c>
@@ -12075,7 +12004,7 @@
       </c>
       <c r="N12" s="80"/>
     </row>
-    <row r="13" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="13" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>171</v>
       </c>
@@ -12113,7 +12042,7 @@
       </c>
       <c r="N13" s="80"/>
     </row>
-    <row r="14" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="14" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>171</v>
       </c>
@@ -12151,7 +12080,7 @@
       </c>
       <c r="N14" s="80"/>
     </row>
-    <row r="15" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="15" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>185</v>
       </c>
@@ -12191,7 +12120,7 @@
       </c>
       <c r="N15" s="80"/>
     </row>
-    <row r="16" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1">
+    <row r="16" spans="1:14" s="81" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>185</v>
       </c>
@@ -12231,7 +12160,7 @@
       </c>
       <c r="N16" s="80"/>
     </row>
-    <row r="17" spans="1:13" s="81" customFormat="1" ht="56.25">
+    <row r="17" spans="1:13" s="81" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>185</v>
       </c>
@@ -12270,7 +12199,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="18" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>185</v>
       </c>
@@ -12309,7 +12238,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="19" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>185</v>
       </c>
@@ -12348,7 +12277,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="20" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>185</v>
       </c>
@@ -12387,7 +12316,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="21" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
         <v>185</v>
       </c>
@@ -12426,7 +12355,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="22" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
         <v>185</v>
       </c>
@@ -12465,7 +12394,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="23" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
         <v>185</v>
       </c>
@@ -12504,7 +12433,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="24" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
         <v>185</v>
       </c>
@@ -12543,7 +12472,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="81" customFormat="1" ht="45">
+    <row r="25" spans="1:13" s="81" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
         <v>185</v>
       </c>
@@ -12582,7 +12511,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="81" customFormat="1" ht="45">
+    <row r="26" spans="1:13" s="81" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="74" t="s">
         <v>185</v>
       </c>
@@ -12621,7 +12550,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="27" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
         <v>185</v>
       </c>
@@ -12660,7 +12589,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="28" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="74" t="s">
         <v>185</v>
       </c>
@@ -12699,7 +12628,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="29" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
         <v>185</v>
       </c>
@@ -12738,7 +12667,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="30" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
         <v>185</v>
       </c>
@@ -12777,7 +12706,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="31" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
         <v>185</v>
       </c>
@@ -12816,7 +12745,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="32" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
         <v>185</v>
       </c>
@@ -12855,7 +12784,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="33" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
         <v>185</v>
       </c>
@@ -12894,7 +12823,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="34" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="74" t="s">
         <v>185</v>
       </c>
@@ -12933,7 +12862,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="35" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
         <v>185</v>
       </c>
@@ -12972,7 +12901,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="36" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="74" t="s">
         <v>185</v>
       </c>
@@ -13011,7 +12940,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="37" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="74" t="s">
         <v>185</v>
       </c>
@@ -13050,7 +12979,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="38" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
         <v>185</v>
       </c>
@@ -13089,7 +13018,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="39" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="74" t="s">
         <v>185</v>
       </c>
@@ -13128,7 +13057,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="40" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A40" s="74" t="s">
         <v>185</v>
       </c>
@@ -13167,7 +13096,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="41" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="74" t="s">
         <v>208</v>
       </c>
@@ -13206,7 +13135,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="42" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="74" t="s">
         <v>208</v>
       </c>
@@ -13245,7 +13174,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="43" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="74" t="s">
         <v>208</v>
       </c>
@@ -13282,7 +13211,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="44" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="74" t="s">
         <v>208</v>
       </c>
@@ -13319,7 +13248,7 @@
       </c>
       <c r="M44" s="88"/>
     </row>
-    <row r="45" spans="1:13" s="81" customFormat="1" ht="36.75">
+    <row r="45" spans="1:13" s="81" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A45" s="74" t="s">
         <v>208</v>
       </c>
@@ -13346,7 +13275,7 @@
       <c r="L45" s="79"/>
       <c r="M45" s="74"/>
     </row>
-    <row r="46" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="46" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
         <v>208</v>
       </c>
@@ -13383,7 +13312,7 @@
       </c>
       <c r="M46" s="88"/>
     </row>
-    <row r="47" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="47" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
         <v>208</v>
       </c>
@@ -13422,7 +13351,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="81" customFormat="1" ht="56.25">
+    <row r="48" spans="1:13" s="81" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
         <v>208</v>
       </c>
@@ -13461,7 +13390,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="81" customFormat="1" ht="56.25">
+    <row r="49" spans="1:13" s="81" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A49" s="74" t="s">
         <v>208</v>
       </c>
@@ -13498,7 +13427,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="50" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
         <v>218</v>
       </c>
@@ -13537,7 +13466,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="51" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
         <v>220</v>
       </c>
@@ -13576,7 +13505,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="52" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
         <v>220</v>
       </c>
@@ -13615,7 +13544,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="81" customFormat="1" ht="56.25">
+    <row r="53" spans="1:13" s="81" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
         <v>220</v>
       </c>
@@ -13654,7 +13583,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="54" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
         <v>220</v>
       </c>
@@ -13693,7 +13622,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="55" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A55" s="74" t="s">
         <v>220</v>
       </c>
@@ -13716,7 +13645,7 @@
       <c r="L55" s="74"/>
       <c r="M55" s="74"/>
     </row>
-    <row r="56" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="56" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A56" s="74" t="s">
         <v>220</v>
       </c>
@@ -13755,7 +13684,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="81" customFormat="1" ht="33.75">
+    <row r="57" spans="1:13" s="81" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A57" s="74" t="s">
         <v>227</v>
       </c>
@@ -13794,7 +13723,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="81" customFormat="1" ht="45">
+    <row r="58" spans="1:13" s="81" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="74" t="s">
         <v>229</v>
       </c>
@@ -13819,7 +13748,7 @@
       <c r="L58" s="88"/>
       <c r="M58" s="88"/>
     </row>
-    <row r="59" spans="1:13" s="81" customFormat="1" ht="22.5">
+    <row r="59" spans="1:13" s="81" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="74" t="s">
         <v>229</v>
       </c>
@@ -13844,7 +13773,7 @@
       <c r="L59" s="74"/>
       <c r="M59" s="74"/>
     </row>
-    <row r="60" spans="1:13" s="81" customFormat="1" ht="56.25">
+    <row r="60" spans="1:13" s="81" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A60" s="74" t="s">
         <v>229</v>
       </c>
@@ -13872,18 +13801,18 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1 H3:H1048576">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"ANDAMENTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"VERIFICAR / PENDÊNCIA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"EM VALIDAÇÃO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"VERIFICAR"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13892,7 +13821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -13902,7 +13831,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" customWidth="1"/>
@@ -13915,20 +13844,20 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="32" t="s">
         <v>48</v>
@@ -13955,7 +13884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61">
         <v>1</v>
       </c>
@@ -13980,7 +13909,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61">
         <v>2</v>
       </c>
@@ -14005,7 +13934,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>3</v>
       </c>
@@ -14032,7 +13961,7 @@
       </c>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9" ht="38.25">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="62">
         <v>4</v>
       </c>
@@ -14059,7 +13988,7 @@
       </c>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="62">
         <v>5</v>
       </c>
@@ -14084,7 +14013,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" customHeight="1">
+    <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
         <v>6</v>
       </c>
@@ -14111,7 +14040,7 @@
       </c>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>7</v>
       </c>
@@ -14136,7 +14065,7 @@
       </c>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="1:9" ht="63.75">
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>8</v>
       </c>
@@ -14163,7 +14092,7 @@
       </c>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1">
+    <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>9</v>
       </c>
@@ -14190,7 +14119,7 @@
       </c>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>10</v>
       </c>
@@ -14217,7 +14146,7 @@
       </c>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25">
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <v>11</v>
       </c>
@@ -14244,7 +14173,7 @@
       </c>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>12</v>
       </c>
@@ -14271,7 +14200,7 @@
       </c>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="1:9" ht="153">
+    <row r="15" spans="1:9" ht="153" x14ac:dyDescent="0.25">
       <c r="A15" s="44">
         <v>13</v>
       </c>
@@ -14298,7 +14227,7 @@
       </c>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>14</v>
       </c>
@@ -14323,7 +14252,7 @@
       </c>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:9" ht="51">
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="44">
         <v>15</v>
       </c>
@@ -14350,7 +14279,7 @@
       </c>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="29"/>
       <c r="C18" s="24"/>
@@ -14361,7 +14290,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="29"/>
       <c r="C19" s="24"/>
@@ -14372,7 +14301,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="30"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="29"/>
       <c r="C20" s="24"/>
@@ -14383,7 +14312,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="29"/>
       <c r="C21" s="24"/>
@@ -14394,7 +14323,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="29"/>
       <c r="C22" s="24"/>
@@ -14405,7 +14334,7 @@
       <c r="H22" s="26"/>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="29"/>
       <c r="C23" s="24"/>
@@ -14416,7 +14345,7 @@
       <c r="H23" s="26"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="29"/>
       <c r="C24" s="24"/>
@@ -14427,7 +14356,7 @@
       <c r="H24" s="26"/>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="29"/>
       <c r="C25" s="24"/>
@@ -14438,7 +14367,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="30"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="29"/>
       <c r="C26" s="24"/>
@@ -14449,7 +14378,7 @@
       <c r="H26" s="26"/>
       <c r="I26" s="30"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -14460,7 +14389,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -14471,7 +14400,7 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -14482,7 +14411,7 @@
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -14493,7 +14422,7 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -14504,7 +14433,7 @@
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -14515,7 +14444,7 @@
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -14526,7 +14455,7 @@
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -14537,7 +14466,7 @@
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -14548,7 +14477,7 @@
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -14559,7 +14488,7 @@
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -14570,7 +14499,7 @@
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -14581,7 +14510,7 @@
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -14592,7 +14521,7 @@
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -14603,7 +14532,7 @@
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -14614,7 +14543,7 @@
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="23"/>
       <c r="C225" s="23"/>
@@ -14625,7 +14554,7 @@
       <c r="H225" s="23"/>
       <c r="I225" s="23"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="23"/>
       <c r="C226" s="23"/>
@@ -14636,7 +14565,7 @@
       <c r="H226" s="23"/>
       <c r="I226" s="23"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="23"/>
       <c r="C227" s="23"/>
@@ -14647,7 +14576,7 @@
       <c r="H227" s="23"/>
       <c r="I227" s="23"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="23"/>
       <c r="C228" s="23"/>
@@ -14658,7 +14587,7 @@
       <c r="H228" s="23"/>
       <c r="I228" s="23"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="23"/>
       <c r="C229" s="23"/>
@@ -14669,7 +14598,7 @@
       <c r="H229" s="23"/>
       <c r="I229" s="23"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="23"/>
       <c r="C230" s="23"/>
@@ -14680,7 +14609,7 @@
       <c r="H230" s="23"/>
       <c r="I230" s="23"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="23"/>
       <c r="C231" s="23"/>
@@ -14691,7 +14620,7 @@
       <c r="H231" s="23"/>
       <c r="I231" s="23"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="23"/>
       <c r="C232" s="23"/>
@@ -14702,7 +14631,7 @@
       <c r="H232" s="23"/>
       <c r="I232" s="23"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="23"/>
       <c r="C233" s="23"/>
@@ -14713,7 +14642,7 @@
       <c r="H233" s="23"/>
       <c r="I233" s="23"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="23"/>
       <c r="C234" s="23"/>
@@ -14724,7 +14653,7 @@
       <c r="H234" s="23"/>
       <c r="I234" s="23"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="23"/>
       <c r="C235" s="23"/>
@@ -14735,7 +14664,7 @@
       <c r="H235" s="23"/>
       <c r="I235" s="23"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="23"/>
       <c r="C236" s="23"/>
@@ -14747,7 +14676,7 @@
       <c r="I236" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I18"/>
+  <autoFilter ref="A2:I18" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
@@ -14756,14 +14685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -14777,7 +14706,7 @@
     <col min="13" max="26" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>405</v>
       </c>
@@ -14785,7 +14714,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>417</v>
       </c>
@@ -14802,7 +14731,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>413</v>
       </c>
@@ -14822,7 +14751,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="91" t="s">
         <v>19</v>
       </c>
@@ -14849,7 +14778,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
         <v>424</v>
       </c>
@@ -14874,7 +14803,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
         <v>421</v>
       </c>
@@ -14901,7 +14830,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="93" t="s">
         <v>428</v>
       </c>
@@ -14926,7 +14855,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="s">
         <v>18</v>
       </c>
@@ -14951,7 +14880,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
         <v>18</v>
       </c>
@@ -14980,7 +14909,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="s">
         <v>423</v>
       </c>
@@ -15005,7 +14934,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="s">
         <v>424</v>
       </c>
@@ -15030,7 +14959,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="s">
         <v>425</v>
       </c>
@@ -15055,7 +14984,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="s">
         <v>426</v>
       </c>
@@ -15080,7 +15009,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="s">
         <v>422</v>
       </c>
@@ -15109,7 +15038,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="s">
         <v>18</v>
       </c>
@@ -15136,7 +15065,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="91" t="s">
         <v>44</v>
       </c>
@@ -15163,7 +15092,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="s">
         <v>421</v>
       </c>
@@ -15188,7 +15117,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="s">
         <v>427</v>
       </c>
@@ -15213,7 +15142,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="91" t="s">
         <v>412</v>
       </c>
@@ -15248,21 +15177,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>435</v>
       </c>
@@ -15270,7 +15199,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="97" t="s">
         <v>254</v>
       </c>
@@ -15278,7 +15207,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
         <v>136</v>
       </c>
@@ -15286,7 +15215,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
         <v>887</v>
       </c>
@@ -15294,7 +15223,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
         <v>488</v>
       </c>
@@ -15302,7 +15231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
         <v>476</v>
       </c>
@@ -15310,7 +15239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
         <v>684</v>
       </c>
@@ -15318,7 +15247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
         <v>460</v>
       </c>
@@ -15326,7 +15255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
         <v>466</v>
       </c>
@@ -15334,7 +15263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>451</v>
       </c>
@@ -15342,7 +15271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
         <v>412</v>
       </c>
@@ -15356,14 +15285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="17" customWidth="1"/>
     <col min="2" max="2" width="58" style="17" customWidth="1"/>
@@ -15372,16 +15301,16 @@
     <col min="5" max="5" width="58.140625" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="43"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
@@ -15398,7 +15327,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="154.5" customHeight="1">
+    <row r="4" spans="1:5" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>118</v>
       </c>
@@ -15413,7 +15342,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="135.75" customHeight="1">
+    <row r="5" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>119</v>
       </c>
@@ -15428,7 +15357,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="140.25" customHeight="1">
+    <row r="6" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>121</v>
       </c>
@@ -15443,7 +15372,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="165">
+    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>143</v>
       </c>
@@ -15460,7 +15389,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="193.5" customHeight="1">
+    <row r="8" spans="1:5" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>122</v>
       </c>
@@ -15475,7 +15404,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="60">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>123</v>
       </c>
@@ -15492,7 +15421,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>124</v>
       </c>
@@ -15509,7 +15438,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="174" customHeight="1">
+    <row r="11" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -15524,7 +15453,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="112.5" customHeight="1">
+    <row r="12" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>156</v>
       </c>
@@ -15550,14 +15479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -15568,7 +15497,7 @@
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>263</v>
       </c>
@@ -15594,7 +15523,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>266</v>
       </c>
@@ -15620,7 +15549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
         <v>271</v>
       </c>
@@ -15646,7 +15575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>275</v>
       </c>
@@ -15672,7 +15601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>278</v>
       </c>
@@ -15698,7 +15627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>281</v>
       </c>
@@ -15724,7 +15653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>284</v>
       </c>
@@ -15750,7 +15679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>287</v>
       </c>
@@ -15776,7 +15705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>291</v>
       </c>
@@ -15808,7 +15737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -15818,477 +15747,477 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="23" customFormat="1" ht="69" customHeight="1">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:2" s="23" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="130"/>
-    </row>
-    <row r="2" spans="1:2" s="23" customFormat="1"/>
-    <row r="3" spans="1:2">
+      <c r="B1" s="131"/>
+    </row>
+    <row r="2" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="23" customFormat="1">
+    <row r="4" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="47" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="23" customFormat="1">
+    <row r="6" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="47" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="23" customFormat="1">
+    <row r="8" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="48" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="48" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="48" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="48" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="23" customFormat="1">
+    <row r="22" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="47" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="23" customFormat="1">
+    <row r="24" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="48" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="48" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="48" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="48" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="48" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="48" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="48" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="48" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="48" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="48" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="48" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="48" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="48" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="48" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="48" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
       <c r="B51" s="48" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="45"/>
       <c r="B52" s="48" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="23" customFormat="1"/>
-    <row r="54" spans="1:2">
+    <row r="53" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="46"/>
       <c r="B54" s="47" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="23" customFormat="1">
+    <row r="55" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="46"/>
       <c r="B56" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="46"/>
       <c r="B57" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="46"/>
       <c r="B58" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="46"/>
       <c r="B59" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="46"/>
       <c r="B60" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="46"/>
       <c r="B61" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="46"/>
       <c r="B62" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="46"/>
       <c r="B63" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="46"/>
       <c r="B64" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="23" customFormat="1">
+    <row r="65" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
       <c r="B66" s="47" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="23" customFormat="1">
+    <row r="67" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="46"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="46"/>
       <c r="B68" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="23" customFormat="1">
+    <row r="69" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="46"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="46"/>
       <c r="B70" s="47" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="23" customFormat="1">
+    <row r="71" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="46"/>
       <c r="B72" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="46"/>
       <c r="B73" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="46"/>
       <c r="B74" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
       <c r="B75" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="46"/>
       <c r="B76" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="46"/>
       <c r="B77" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="23" customFormat="1">
+    <row r="78" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="46"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="46"/>
       <c r="B79" s="47" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="23" customFormat="1">
+    <row r="80" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="46"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="46"/>
       <c r="B81" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="23" customFormat="1">
+    <row r="82" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="46"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="46"/>
       <c r="B83" s="47" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="23" customFormat="1">
+    <row r="84" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="46"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="46"/>
       <c r="B85" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="46"/>
       <c r="B86" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="46"/>
       <c r="B87" t="s">
         <v>232</v>
@@ -16304,19 +16233,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:P120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
         <v>435</v>
       </c>
@@ -16366,7 +16295,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>445</v>
       </c>
@@ -16410,7 +16339,7 @@
       </c>
       <c r="P2" s="101"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
         <v>455</v>
       </c>
@@ -16454,7 +16383,7 @@
       </c>
       <c r="P3" s="101"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
         <v>445</v>
       </c>
@@ -16498,7 +16427,7 @@
       </c>
       <c r="P4" s="101"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
         <v>445</v>
       </c>
@@ -16542,7 +16471,7 @@
       </c>
       <c r="P5" s="101"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
         <v>472</v>
       </c>
@@ -16586,7 +16515,7 @@
       </c>
       <c r="P6" s="101"/>
     </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
         <v>445</v>
       </c>
@@ -16630,7 +16559,7 @@
       </c>
       <c r="P7" s="101"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
         <v>472</v>
       </c>
@@ -16674,7 +16603,7 @@
       </c>
       <c r="P8" s="101"/>
     </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
         <v>445</v>
       </c>
@@ -16718,7 +16647,7 @@
       </c>
       <c r="P9" s="101"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" customHeight="1">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
         <v>445</v>
       </c>
@@ -16762,7 +16691,7 @@
       </c>
       <c r="P10" s="101"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
         <v>472</v>
       </c>
@@ -16806,7 +16735,7 @@
       </c>
       <c r="P11" s="101"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
         <v>445</v>
       </c>
@@ -16850,7 +16779,7 @@
       </c>
       <c r="P12" s="101"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
         <v>445</v>
       </c>
@@ -16894,7 +16823,7 @@
       </c>
       <c r="P13" s="101"/>
     </row>
-    <row r="14" spans="1:16" ht="16.5" customHeight="1">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
         <v>445</v>
       </c>
@@ -16938,7 +16867,7 @@
       </c>
       <c r="P14" s="101"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
         <v>472</v>
       </c>
@@ -16982,7 +16911,7 @@
       </c>
       <c r="P15" s="101"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" customHeight="1">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
         <v>445</v>
       </c>
@@ -17026,7 +16955,7 @@
       </c>
       <c r="P16" s="101"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" customHeight="1">
+    <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
         <v>445</v>
       </c>
@@ -17070,7 +16999,7 @@
       </c>
       <c r="P17" s="101"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1">
+    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
         <v>445</v>
       </c>
@@ -17114,7 +17043,7 @@
       </c>
       <c r="P18" s="101"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" customHeight="1">
+    <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
         <v>445</v>
       </c>
@@ -17158,7 +17087,7 @@
       </c>
       <c r="P19" s="101"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" customHeight="1">
+    <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="99" t="s">
         <v>445</v>
       </c>
@@ -17202,7 +17131,7 @@
       </c>
       <c r="P20" s="101"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" customHeight="1">
+    <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
         <v>455</v>
       </c>
@@ -17248,7 +17177,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" customHeight="1">
+    <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
         <v>445</v>
       </c>
@@ -17292,7 +17221,7 @@
       </c>
       <c r="P22" s="101"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" customHeight="1">
+    <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
         <v>455</v>
       </c>
@@ -17338,7 +17267,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" customHeight="1">
+    <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
         <v>445</v>
       </c>
@@ -17382,7 +17311,7 @@
       </c>
       <c r="P24" s="101"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" customHeight="1">
+    <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="99" t="s">
         <v>445</v>
       </c>
@@ -17426,7 +17355,7 @@
       </c>
       <c r="P25" s="101"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" customHeight="1">
+    <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="99" t="s">
         <v>472</v>
       </c>
@@ -17470,7 +17399,7 @@
       </c>
       <c r="P26" s="101"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" customHeight="1">
+    <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
         <v>445</v>
       </c>
@@ -17514,7 +17443,7 @@
       </c>
       <c r="P27" s="101"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1">
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
         <v>472</v>
       </c>
@@ -17558,7 +17487,7 @@
       </c>
       <c r="P28" s="101"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1">
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
         <v>472</v>
       </c>
@@ -17602,7 +17531,7 @@
       </c>
       <c r="P29" s="101"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1">
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
         <v>472</v>
       </c>
@@ -17646,7 +17575,7 @@
       </c>
       <c r="P30" s="101"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5" customHeight="1">
+    <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
         <v>472</v>
       </c>
@@ -17690,7 +17619,7 @@
       </c>
       <c r="P31" s="101"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" customHeight="1">
+    <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="99" t="s">
         <v>445</v>
       </c>
@@ -17734,7 +17663,7 @@
       </c>
       <c r="P32" s="101"/>
     </row>
-    <row r="33" spans="1:16" ht="16.5" customHeight="1">
+    <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="99" t="s">
         <v>445</v>
       </c>
@@ -17778,7 +17707,7 @@
       </c>
       <c r="P33" s="101"/>
     </row>
-    <row r="34" spans="1:16" ht="16.5" customHeight="1">
+    <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="99" t="s">
         <v>472</v>
       </c>
@@ -17822,7 +17751,7 @@
       </c>
       <c r="P34" s="101"/>
     </row>
-    <row r="35" spans="1:16" ht="16.5" customHeight="1">
+    <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="99" t="s">
         <v>472</v>
       </c>
@@ -17866,7 +17795,7 @@
       </c>
       <c r="P35" s="101"/>
     </row>
-    <row r="36" spans="1:16" ht="16.5" customHeight="1">
+    <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="99" t="s">
         <v>472</v>
       </c>
@@ -17910,7 +17839,7 @@
       </c>
       <c r="P36" s="101"/>
     </row>
-    <row r="37" spans="1:16" ht="16.5" customHeight="1">
+    <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
         <v>445</v>
       </c>
@@ -17954,7 +17883,7 @@
       </c>
       <c r="P37" s="101"/>
     </row>
-    <row r="38" spans="1:16" ht="16.5" customHeight="1">
+    <row r="38" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="99" t="s">
         <v>445</v>
       </c>
@@ -17998,7 +17927,7 @@
       </c>
       <c r="P38" s="101"/>
     </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1">
+    <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="99" t="s">
         <v>445</v>
       </c>
@@ -18042,7 +17971,7 @@
       </c>
       <c r="P39" s="101"/>
     </row>
-    <row r="40" spans="1:16" ht="16.5" customHeight="1">
+    <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="99" t="s">
         <v>472</v>
       </c>
@@ -18086,7 +18015,7 @@
       </c>
       <c r="P40" s="101"/>
     </row>
-    <row r="41" spans="1:16" ht="16.5" customHeight="1">
+    <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="99" t="s">
         <v>472</v>
       </c>
@@ -18130,7 +18059,7 @@
       </c>
       <c r="P41" s="101"/>
     </row>
-    <row r="42" spans="1:16" ht="16.5" customHeight="1">
+    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="s">
         <v>472</v>
       </c>
@@ -18174,7 +18103,7 @@
       </c>
       <c r="P42" s="101"/>
     </row>
-    <row r="43" spans="1:16" ht="16.5" customHeight="1">
+    <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="99" t="s">
         <v>472</v>
       </c>
@@ -18218,7 +18147,7 @@
       </c>
       <c r="P43" s="101"/>
     </row>
-    <row r="44" spans="1:16" ht="16.5" customHeight="1">
+    <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="99" t="s">
         <v>472</v>
       </c>
@@ -18262,7 +18191,7 @@
       </c>
       <c r="P44" s="101"/>
     </row>
-    <row r="45" spans="1:16" ht="16.5" customHeight="1">
+    <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="99" t="s">
         <v>472</v>
       </c>
@@ -18306,7 +18235,7 @@
       </c>
       <c r="P45" s="101"/>
     </row>
-    <row r="46" spans="1:16" ht="16.5" customHeight="1">
+    <row r="46" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="99" t="s">
         <v>472</v>
       </c>
@@ -18350,7 +18279,7 @@
       </c>
       <c r="P46" s="101"/>
     </row>
-    <row r="47" spans="1:16" ht="16.5" customHeight="1">
+    <row r="47" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="99" t="s">
         <v>445</v>
       </c>
@@ -18394,7 +18323,7 @@
       </c>
       <c r="P47" s="101"/>
     </row>
-    <row r="48" spans="1:16" ht="16.5" customHeight="1">
+    <row r="48" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="99" t="s">
         <v>472</v>
       </c>
@@ -18438,7 +18367,7 @@
       </c>
       <c r="P48" s="101"/>
     </row>
-    <row r="49" spans="1:16" ht="16.5" customHeight="1">
+    <row r="49" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="99" t="s">
         <v>445</v>
       </c>
@@ -18482,7 +18411,7 @@
       </c>
       <c r="P49" s="101"/>
     </row>
-    <row r="50" spans="1:16" ht="16.5" customHeight="1">
+    <row r="50" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="99" t="s">
         <v>472</v>
       </c>
@@ -18526,7 +18455,7 @@
       </c>
       <c r="P50" s="101"/>
     </row>
-    <row r="51" spans="1:16" ht="16.5" customHeight="1">
+    <row r="51" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="99" t="s">
         <v>472</v>
       </c>
@@ -18570,7 +18499,7 @@
       </c>
       <c r="P51" s="101"/>
     </row>
-    <row r="52" spans="1:16" ht="16.5" customHeight="1">
+    <row r="52" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="99" t="s">
         <v>472</v>
       </c>
@@ -18614,7 +18543,7 @@
       </c>
       <c r="P52" s="101"/>
     </row>
-    <row r="53" spans="1:16" ht="16.5" customHeight="1">
+    <row r="53" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="99" t="s">
         <v>472</v>
       </c>
@@ -18658,7 +18587,7 @@
       </c>
       <c r="P53" s="101"/>
     </row>
-    <row r="54" spans="1:16" ht="16.5" customHeight="1">
+    <row r="54" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="99" t="s">
         <v>472</v>
       </c>
@@ -18702,7 +18631,7 @@
       </c>
       <c r="P54" s="101"/>
     </row>
-    <row r="55" spans="1:16" ht="16.5" customHeight="1">
+    <row r="55" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="99" t="s">
         <v>472</v>
       </c>
@@ -18746,7 +18675,7 @@
       </c>
       <c r="P55" s="101"/>
     </row>
-    <row r="56" spans="1:16" ht="16.5" customHeight="1">
+    <row r="56" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="99" t="s">
         <v>472</v>
       </c>
@@ -18790,7 +18719,7 @@
       </c>
       <c r="P56" s="101"/>
     </row>
-    <row r="57" spans="1:16" ht="16.5" customHeight="1">
+    <row r="57" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="99" t="s">
         <v>472</v>
       </c>
@@ -18834,7 +18763,7 @@
       </c>
       <c r="P57" s="101"/>
     </row>
-    <row r="58" spans="1:16" ht="16.5" customHeight="1">
+    <row r="58" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="99" t="s">
         <v>472</v>
       </c>
@@ -18878,7 +18807,7 @@
       </c>
       <c r="P58" s="101"/>
     </row>
-    <row r="59" spans="1:16" ht="16.5" customHeight="1">
+    <row r="59" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="99" t="s">
         <v>472</v>
       </c>
@@ -18922,7 +18851,7 @@
       </c>
       <c r="P59" s="101"/>
     </row>
-    <row r="60" spans="1:16" ht="16.5" customHeight="1">
+    <row r="60" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
         <v>455</v>
       </c>
@@ -18968,7 +18897,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="16.5" customHeight="1">
+    <row r="61" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="99" t="s">
         <v>455</v>
       </c>
@@ -19014,7 +18943,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="16.5" customHeight="1">
+    <row r="62" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="99" t="s">
         <v>445</v>
       </c>
@@ -19060,7 +18989,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="16.5" customHeight="1">
+    <row r="63" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="99" t="s">
         <v>472</v>
       </c>
@@ -19104,7 +19033,7 @@
       </c>
       <c r="P63" s="101"/>
     </row>
-    <row r="64" spans="1:16" ht="16.5" customHeight="1">
+    <row r="64" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="99" t="s">
         <v>445</v>
       </c>
@@ -19150,7 +19079,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="16.5" customHeight="1">
+    <row r="65" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>472</v>
       </c>
@@ -19194,7 +19123,7 @@
       </c>
       <c r="P65" s="101"/>
     </row>
-    <row r="66" spans="1:16" ht="16.5" customHeight="1">
+    <row r="66" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="99" t="s">
         <v>455</v>
       </c>
@@ -19238,7 +19167,7 @@
       </c>
       <c r="P66" s="101"/>
     </row>
-    <row r="67" spans="1:16" ht="16.5" customHeight="1">
+    <row r="67" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="99" t="s">
         <v>445</v>
       </c>
@@ -19284,7 +19213,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="16.5" customHeight="1">
+    <row r="68" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="99" t="s">
         <v>472</v>
       </c>
@@ -19328,7 +19257,7 @@
       </c>
       <c r="P68" s="101"/>
     </row>
-    <row r="69" spans="1:16" ht="16.5" customHeight="1">
+    <row r="69" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="99" t="s">
         <v>472</v>
       </c>
@@ -19372,7 +19301,7 @@
       </c>
       <c r="P69" s="101"/>
     </row>
-    <row r="70" spans="1:16" ht="16.5" customHeight="1">
+    <row r="70" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="99" t="s">
         <v>472</v>
       </c>
@@ -19416,7 +19345,7 @@
       </c>
       <c r="P70" s="101"/>
     </row>
-    <row r="71" spans="1:16" ht="16.5" customHeight="1">
+    <row r="71" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="99" t="s">
         <v>455</v>
       </c>
@@ -19460,7 +19389,7 @@
       </c>
       <c r="P71" s="101"/>
     </row>
-    <row r="72" spans="1:16" ht="16.5" customHeight="1">
+    <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="99" t="s">
         <v>472</v>
       </c>
@@ -19504,7 +19433,7 @@
       </c>
       <c r="P72" s="101"/>
     </row>
-    <row r="73" spans="1:16" ht="16.5" customHeight="1">
+    <row r="73" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="99" t="s">
         <v>472</v>
       </c>
@@ -19548,7 +19477,7 @@
       </c>
       <c r="P73" s="101"/>
     </row>
-    <row r="74" spans="1:16" ht="16.5" customHeight="1">
+    <row r="74" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="99" t="s">
         <v>445</v>
       </c>
@@ -19594,7 +19523,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="16.5" customHeight="1">
+    <row r="75" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
         <v>445</v>
       </c>
@@ -19640,7 +19569,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="16.5" customHeight="1">
+    <row r="76" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="99" t="s">
         <v>455</v>
       </c>
@@ -19686,7 +19615,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="16.5" customHeight="1">
+    <row r="77" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="99" t="s">
         <v>472</v>
       </c>
@@ -19730,7 +19659,7 @@
       </c>
       <c r="P77" s="101"/>
     </row>
-    <row r="78" spans="1:16" ht="16.5" customHeight="1">
+    <row r="78" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="99" t="s">
         <v>472</v>
       </c>
@@ -19774,7 +19703,7 @@
       </c>
       <c r="P78" s="101"/>
     </row>
-    <row r="79" spans="1:16" ht="16.5" customHeight="1">
+    <row r="79" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="99" t="s">
         <v>472</v>
       </c>
@@ -19818,7 +19747,7 @@
       </c>
       <c r="P79" s="101"/>
     </row>
-    <row r="80" spans="1:16" ht="16.5" customHeight="1">
+    <row r="80" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="99" t="s">
         <v>472</v>
       </c>
@@ -19862,7 +19791,7 @@
       </c>
       <c r="P80" s="101"/>
     </row>
-    <row r="81" spans="1:16" ht="16.5" customHeight="1">
+    <row r="81" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="99" t="s">
         <v>472</v>
       </c>
@@ -19906,7 +19835,7 @@
       </c>
       <c r="P81" s="101"/>
     </row>
-    <row r="82" spans="1:16" ht="16.5" customHeight="1">
+    <row r="82" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="99" t="s">
         <v>472</v>
       </c>
@@ -19950,7 +19879,7 @@
       </c>
       <c r="P82" s="101"/>
     </row>
-    <row r="83" spans="1:16" ht="16.5" customHeight="1">
+    <row r="83" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="99" t="s">
         <v>445</v>
       </c>
@@ -19996,7 +19925,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="16.5" customHeight="1">
+    <row r="84" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="99" t="s">
         <v>472</v>
       </c>
@@ -20040,7 +19969,7 @@
       </c>
       <c r="P84" s="101"/>
     </row>
-    <row r="85" spans="1:16" ht="16.5" customHeight="1">
+    <row r="85" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="99" t="s">
         <v>472</v>
       </c>
@@ -20084,7 +20013,7 @@
       </c>
       <c r="P85" s="101"/>
     </row>
-    <row r="86" spans="1:16" ht="16.5" customHeight="1">
+    <row r="86" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="99" t="s">
         <v>472</v>
       </c>
@@ -20128,7 +20057,7 @@
       </c>
       <c r="P86" s="101"/>
     </row>
-    <row r="87" spans="1:16" ht="16.5" customHeight="1">
+    <row r="87" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="99" t="s">
         <v>455</v>
       </c>
@@ -20170,7 +20099,7 @@
       <c r="O87" s="101"/>
       <c r="P87" s="101"/>
     </row>
-    <row r="88" spans="1:16" ht="16.5" customHeight="1">
+    <row r="88" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="99" t="s">
         <v>472</v>
       </c>
@@ -20214,7 +20143,7 @@
       </c>
       <c r="P88" s="101"/>
     </row>
-    <row r="89" spans="1:16" ht="16.5" customHeight="1">
+    <row r="89" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="99" t="s">
         <v>472</v>
       </c>
@@ -20258,7 +20187,7 @@
       </c>
       <c r="P89" s="101"/>
     </row>
-    <row r="90" spans="1:16" ht="16.5" customHeight="1">
+    <row r="90" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="99" t="s">
         <v>472</v>
       </c>
@@ -20302,7 +20231,7 @@
       </c>
       <c r="P90" s="101"/>
     </row>
-    <row r="91" spans="1:16" ht="16.5" customHeight="1">
+    <row r="91" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="99" t="s">
         <v>472</v>
       </c>
@@ -20346,7 +20275,7 @@
       </c>
       <c r="P91" s="101"/>
     </row>
-    <row r="92" spans="1:16" ht="16.5" customHeight="1">
+    <row r="92" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="99" t="s">
         <v>472</v>
       </c>
@@ -20390,7 +20319,7 @@
       </c>
       <c r="P92" s="101"/>
     </row>
-    <row r="93" spans="1:16" ht="16.5" customHeight="1">
+    <row r="93" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="99" t="s">
         <v>472</v>
       </c>
@@ -20434,7 +20363,7 @@
       </c>
       <c r="P93" s="101"/>
     </row>
-    <row r="94" spans="1:16" ht="16.5" customHeight="1">
+    <row r="94" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="99" t="s">
         <v>472</v>
       </c>
@@ -20478,7 +20407,7 @@
       </c>
       <c r="P94" s="101"/>
     </row>
-    <row r="95" spans="1:16" ht="16.5" customHeight="1">
+    <row r="95" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="99" t="s">
         <v>472</v>
       </c>
@@ -20522,7 +20451,7 @@
       </c>
       <c r="P95" s="101"/>
     </row>
-    <row r="96" spans="1:16" ht="16.5" customHeight="1">
+    <row r="96" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="99" t="s">
         <v>472</v>
       </c>
@@ -20566,7 +20495,7 @@
       </c>
       <c r="P96" s="101"/>
     </row>
-    <row r="97" spans="1:16" ht="16.5" customHeight="1">
+    <row r="97" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="99" t="s">
         <v>472</v>
       </c>
@@ -20610,7 +20539,7 @@
       </c>
       <c r="P97" s="101"/>
     </row>
-    <row r="98" spans="1:16" ht="16.5" customHeight="1">
+    <row r="98" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="99" t="s">
         <v>472</v>
       </c>
@@ -20654,7 +20583,7 @@
       </c>
       <c r="P98" s="101"/>
     </row>
-    <row r="99" spans="1:16" ht="16.5" customHeight="1">
+    <row r="99" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="99" t="s">
         <v>472</v>
       </c>
@@ -20698,7 +20627,7 @@
       </c>
       <c r="P99" s="101"/>
     </row>
-    <row r="100" spans="1:16" ht="16.5" customHeight="1">
+    <row r="100" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="99" t="s">
         <v>472</v>
       </c>
@@ -20742,7 +20671,7 @@
       </c>
       <c r="P100" s="101"/>
     </row>
-    <row r="101" spans="1:16" ht="16.5" customHeight="1">
+    <row r="101" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="99" t="s">
         <v>472</v>
       </c>
@@ -20786,7 +20715,7 @@
       </c>
       <c r="P101" s="101"/>
     </row>
-    <row r="102" spans="1:16" ht="16.5" customHeight="1">
+    <row r="102" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="99" t="s">
         <v>472</v>
       </c>
@@ -20830,7 +20759,7 @@
       </c>
       <c r="P102" s="101"/>
     </row>
-    <row r="103" spans="1:16" ht="16.5" customHeight="1">
+    <row r="103" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="99" t="s">
         <v>472</v>
       </c>
@@ -20874,7 +20803,7 @@
       </c>
       <c r="P103" s="101"/>
     </row>
-    <row r="104" spans="1:16" ht="16.5" customHeight="1">
+    <row r="104" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="99" t="s">
         <v>472</v>
       </c>
@@ -20918,7 +20847,7 @@
       </c>
       <c r="P104" s="101"/>
     </row>
-    <row r="105" spans="1:16" ht="16.5" customHeight="1">
+    <row r="105" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="99" t="s">
         <v>472</v>
       </c>
@@ -20962,7 +20891,7 @@
       </c>
       <c r="P105" s="101"/>
     </row>
-    <row r="106" spans="1:16" ht="16.5" customHeight="1">
+    <row r="106" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="99" t="s">
         <v>445</v>
       </c>
@@ -21008,7 +20937,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="16.5" customHeight="1">
+    <row r="107" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="99" t="s">
         <v>445</v>
       </c>
@@ -21054,7 +20983,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="16.5" customHeight="1">
+    <row r="108" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="99" t="s">
         <v>472</v>
       </c>
@@ -21098,7 +21027,7 @@
       </c>
       <c r="P108" s="101"/>
     </row>
-    <row r="109" spans="1:16" ht="16.5" customHeight="1">
+    <row r="109" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="99" t="s">
         <v>472</v>
       </c>
@@ -21142,7 +21071,7 @@
       </c>
       <c r="P109" s="101"/>
     </row>
-    <row r="110" spans="1:16" ht="16.5" customHeight="1">
+    <row r="110" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="99" t="s">
         <v>472</v>
       </c>
@@ -21186,7 +21115,7 @@
       </c>
       <c r="P110" s="101"/>
     </row>
-    <row r="111" spans="1:16" ht="16.5" customHeight="1">
+    <row r="111" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="99" t="s">
         <v>853</v>
       </c>
@@ -21228,7 +21157,7 @@
       <c r="O111" s="101"/>
       <c r="P111" s="101"/>
     </row>
-    <row r="112" spans="1:16" ht="16.5" customHeight="1">
+    <row r="112" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="99" t="s">
         <v>853</v>
       </c>
@@ -21270,7 +21199,7 @@
       <c r="O112" s="101"/>
       <c r="P112" s="101"/>
     </row>
-    <row r="113" spans="1:16" ht="16.5" customHeight="1">
+    <row r="113" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="99" t="s">
         <v>853</v>
       </c>
@@ -21312,7 +21241,7 @@
       <c r="O113" s="101"/>
       <c r="P113" s="101"/>
     </row>
-    <row r="114" spans="1:16" ht="16.5" customHeight="1">
+    <row r="114" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="99" t="s">
         <v>853</v>
       </c>
@@ -21354,7 +21283,7 @@
       <c r="O114" s="101"/>
       <c r="P114" s="101"/>
     </row>
-    <row r="115" spans="1:16" ht="16.5" customHeight="1">
+    <row r="115" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="99" t="s">
         <v>866</v>
       </c>
@@ -21396,7 +21325,7 @@
       <c r="O115" s="101"/>
       <c r="P115" s="101"/>
     </row>
-    <row r="116" spans="1:16" ht="16.5" customHeight="1">
+    <row r="116" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="99" t="s">
         <v>866</v>
       </c>
@@ -21438,7 +21367,7 @@
       <c r="O116" s="101"/>
       <c r="P116" s="101"/>
     </row>
-    <row r="117" spans="1:16" ht="16.5" customHeight="1">
+    <row r="117" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="99" t="s">
         <v>866</v>
       </c>
@@ -21480,7 +21409,7 @@
       <c r="O117" s="101"/>
       <c r="P117" s="101"/>
     </row>
-    <row r="118" spans="1:16" ht="16.5" customHeight="1">
+    <row r="118" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="99" t="s">
         <v>853</v>
       </c>
@@ -21522,7 +21451,7 @@
       <c r="O118" s="101"/>
       <c r="P118" s="101"/>
     </row>
-    <row r="119" spans="1:16" ht="16.5" customHeight="1">
+    <row r="119" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="99" t="s">
         <v>866</v>
       </c>
@@ -21564,7 +21493,7 @@
       <c r="O119" s="101"/>
       <c r="P119" s="101"/>
     </row>
-    <row r="120" spans="1:16" ht="16.5" customHeight="1">
+    <row r="120" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="99" t="s">
         <v>853</v>
       </c>
@@ -21608,125 +21537,125 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://jira.qualirede.com/browse/PLN-121"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://jira.qualirede.com/browse/PLN-120"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://jira.qualirede.com/browse/PLN-119"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://jira.qualirede.com/browse/PLN-118"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://jira.qualirede.com/browse/PLN-117"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://jira.qualirede.com/browse/PLN-116"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://jira.qualirede.com/browse/PLN-115"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://jira.qualirede.com/browse/PLN-114"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://jira.qualirede.com/browse/PLN-113"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://jira.qualirede.com/browse/PLN-112"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://jira.qualirede.com/browse/PLN-111"/>
-    <hyperlink ref="B13" r:id="rId12" display="http://jira.qualirede.com/browse/PLN-110"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://jira.qualirede.com/browse/PLN-109"/>
-    <hyperlink ref="B15" r:id="rId14" display="http://jira.qualirede.com/browse/PLN-108"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://jira.qualirede.com/browse/PLN-107"/>
-    <hyperlink ref="B17" r:id="rId16" display="http://jira.qualirede.com/browse/PLN-106"/>
-    <hyperlink ref="B18" r:id="rId17" display="http://jira.qualirede.com/browse/PLN-105"/>
-    <hyperlink ref="B19" r:id="rId18" display="http://jira.qualirede.com/browse/PLN-104"/>
-    <hyperlink ref="B20" r:id="rId19" display="http://jira.qualirede.com/browse/PLN-103"/>
-    <hyperlink ref="B21" r:id="rId20" display="http://jira.qualirede.com/browse/PLN-102"/>
-    <hyperlink ref="B22" r:id="rId21" display="http://jira.qualirede.com/browse/PLN-101"/>
-    <hyperlink ref="B23" r:id="rId22" display="http://jira.qualirede.com/browse/PLN-100"/>
-    <hyperlink ref="B24" r:id="rId23" display="http://jira.qualirede.com/browse/PLN-99"/>
-    <hyperlink ref="B25" r:id="rId24" display="http://jira.qualirede.com/browse/PLN-98"/>
-    <hyperlink ref="B26" r:id="rId25" display="http://jira.qualirede.com/browse/PLN-97"/>
-    <hyperlink ref="B27" r:id="rId26" display="http://jira.qualirede.com/browse/PLN-96"/>
-    <hyperlink ref="B28" r:id="rId27" display="http://jira.qualirede.com/browse/PLN-95"/>
-    <hyperlink ref="B29" r:id="rId28" display="http://jira.qualirede.com/browse/PLN-94"/>
-    <hyperlink ref="B30" r:id="rId29" display="http://jira.qualirede.com/browse/PLN-93"/>
-    <hyperlink ref="B31" r:id="rId30" display="http://jira.qualirede.com/browse/PLN-92"/>
-    <hyperlink ref="B32" r:id="rId31" display="http://jira.qualirede.com/browse/PLN-91"/>
-    <hyperlink ref="B33" r:id="rId32" display="http://jira.qualirede.com/browse/PLN-90"/>
-    <hyperlink ref="B34" r:id="rId33" display="http://jira.qualirede.com/browse/PLN-89"/>
-    <hyperlink ref="B35" r:id="rId34" display="http://jira.qualirede.com/browse/PLN-88"/>
-    <hyperlink ref="B36" r:id="rId35" display="http://jira.qualirede.com/browse/PLN-87"/>
-    <hyperlink ref="B37" r:id="rId36" display="http://jira.qualirede.com/browse/PLN-86"/>
-    <hyperlink ref="B38" r:id="rId37" display="http://jira.qualirede.com/browse/PLN-85"/>
-    <hyperlink ref="B39" r:id="rId38" display="http://jira.qualirede.com/browse/PLN-84"/>
-    <hyperlink ref="B40" r:id="rId39" display="http://jira.qualirede.com/browse/PLN-83"/>
-    <hyperlink ref="B41" r:id="rId40" display="http://jira.qualirede.com/browse/PLN-82"/>
-    <hyperlink ref="B42" r:id="rId41" display="http://jira.qualirede.com/browse/PLN-81"/>
-    <hyperlink ref="B43" r:id="rId42" display="http://jira.qualirede.com/browse/PLN-80"/>
-    <hyperlink ref="B44" r:id="rId43" display="http://jira.qualirede.com/browse/PLN-79"/>
-    <hyperlink ref="B45" r:id="rId44" display="http://jira.qualirede.com/browse/PLN-78"/>
-    <hyperlink ref="B46" r:id="rId45" display="http://jira.qualirede.com/browse/PLN-77"/>
-    <hyperlink ref="B47" r:id="rId46" display="http://jira.qualirede.com/browse/PLN-76"/>
-    <hyperlink ref="B48" r:id="rId47" display="http://jira.qualirede.com/browse/PLN-75"/>
-    <hyperlink ref="B49" r:id="rId48" display="http://jira.qualirede.com/browse/PLN-74"/>
-    <hyperlink ref="B50" r:id="rId49" display="http://jira.qualirede.com/browse/PLN-73"/>
-    <hyperlink ref="B51" r:id="rId50" display="http://jira.qualirede.com/browse/PLN-72"/>
-    <hyperlink ref="B52" r:id="rId51" display="http://jira.qualirede.com/browse/PLN-71"/>
-    <hyperlink ref="B53" r:id="rId52" display="http://jira.qualirede.com/browse/PLN-70"/>
-    <hyperlink ref="B54" r:id="rId53" display="http://jira.qualirede.com/browse/PLN-69"/>
-    <hyperlink ref="B55" r:id="rId54" display="http://jira.qualirede.com/browse/PLN-68"/>
-    <hyperlink ref="B56" r:id="rId55" display="http://jira.qualirede.com/browse/PLN-67"/>
-    <hyperlink ref="B57" r:id="rId56" display="http://jira.qualirede.com/browse/PLN-66"/>
-    <hyperlink ref="B58" r:id="rId57" display="http://jira.qualirede.com/browse/PLN-65"/>
-    <hyperlink ref="B59" r:id="rId58" display="http://jira.qualirede.com/browse/PLN-64"/>
-    <hyperlink ref="B60" r:id="rId59" display="http://jira.qualirede.com/browse/PLN-63"/>
-    <hyperlink ref="B61" r:id="rId60" display="http://jira.qualirede.com/browse/PLN-62"/>
-    <hyperlink ref="B62" r:id="rId61" display="http://jira.qualirede.com/browse/PLN-61"/>
-    <hyperlink ref="B63" r:id="rId62" display="http://jira.qualirede.com/browse/PLN-60"/>
-    <hyperlink ref="B64" r:id="rId63" display="http://jira.qualirede.com/browse/PLN-59"/>
-    <hyperlink ref="B65" r:id="rId64" display="http://jira.qualirede.com/browse/PLN-58"/>
-    <hyperlink ref="B66" r:id="rId65" display="http://jira.qualirede.com/browse/PLN-57"/>
-    <hyperlink ref="B67" r:id="rId66" display="http://jira.qualirede.com/browse/PLN-56"/>
-    <hyperlink ref="B68" r:id="rId67" display="http://jira.qualirede.com/browse/PLN-55"/>
-    <hyperlink ref="B69" r:id="rId68" display="http://jira.qualirede.com/browse/PLN-54"/>
-    <hyperlink ref="B70" r:id="rId69" display="http://jira.qualirede.com/browse/PLN-53"/>
-    <hyperlink ref="B71" r:id="rId70" display="http://jira.qualirede.com/browse/PLN-52"/>
-    <hyperlink ref="B72" r:id="rId71" display="http://jira.qualirede.com/browse/PLN-51"/>
-    <hyperlink ref="B73" r:id="rId72" display="http://jira.qualirede.com/browse/PLN-49"/>
-    <hyperlink ref="B74" r:id="rId73" display="http://jira.qualirede.com/browse/PLN-48"/>
-    <hyperlink ref="B75" r:id="rId74" display="http://jira.qualirede.com/browse/PLN-47"/>
-    <hyperlink ref="B76" r:id="rId75" display="http://jira.qualirede.com/browse/PLN-46"/>
-    <hyperlink ref="B77" r:id="rId76" display="http://jira.qualirede.com/browse/PLN-45"/>
-    <hyperlink ref="B78" r:id="rId77" display="http://jira.qualirede.com/browse/PLN-44"/>
-    <hyperlink ref="B79" r:id="rId78" display="http://jira.qualirede.com/browse/PLN-43"/>
-    <hyperlink ref="B80" r:id="rId79" display="http://jira.qualirede.com/browse/PLN-42"/>
-    <hyperlink ref="B81" r:id="rId80" display="http://jira.qualirede.com/browse/PLN-41"/>
-    <hyperlink ref="B82" r:id="rId81" display="http://jira.qualirede.com/browse/PLN-40"/>
-    <hyperlink ref="B83" r:id="rId82" display="http://jira.qualirede.com/browse/PLN-39"/>
-    <hyperlink ref="B84" r:id="rId83" display="http://jira.qualirede.com/browse/PLN-38"/>
-    <hyperlink ref="B85" r:id="rId84" display="http://jira.qualirede.com/browse/PLN-37"/>
-    <hyperlink ref="B86" r:id="rId85" display="http://jira.qualirede.com/browse/PLN-36"/>
-    <hyperlink ref="B87" r:id="rId86" display="http://jira.qualirede.com/browse/PLN-35"/>
-    <hyperlink ref="B88" r:id="rId87" display="http://jira.qualirede.com/browse/PLN-34"/>
-    <hyperlink ref="B89" r:id="rId88" display="http://jira.qualirede.com/browse/PLN-33"/>
-    <hyperlink ref="B90" r:id="rId89" display="http://jira.qualirede.com/browse/PLN-32"/>
-    <hyperlink ref="B91" r:id="rId90" display="http://jira.qualirede.com/browse/PLN-31"/>
-    <hyperlink ref="B92" r:id="rId91" display="http://jira.qualirede.com/browse/PLN-30"/>
-    <hyperlink ref="B93" r:id="rId92" display="http://jira.qualirede.com/browse/PLN-29"/>
-    <hyperlink ref="B94" r:id="rId93" display="http://jira.qualirede.com/browse/PLN-28"/>
-    <hyperlink ref="B95" r:id="rId94" display="http://jira.qualirede.com/browse/PLN-27"/>
-    <hyperlink ref="B96" r:id="rId95" display="http://jira.qualirede.com/browse/PLN-26"/>
-    <hyperlink ref="B97" r:id="rId96" display="http://jira.qualirede.com/browse/PLN-25"/>
-    <hyperlink ref="B98" r:id="rId97" display="http://jira.qualirede.com/browse/PLN-24"/>
-    <hyperlink ref="B99" r:id="rId98" display="http://jira.qualirede.com/browse/PLN-23"/>
-    <hyperlink ref="B100" r:id="rId99" display="http://jira.qualirede.com/browse/PLN-22"/>
-    <hyperlink ref="B101" r:id="rId100" display="http://jira.qualirede.com/browse/PLN-21"/>
-    <hyperlink ref="B102" r:id="rId101" display="http://jira.qualirede.com/browse/PLN-20"/>
-    <hyperlink ref="B103" r:id="rId102" display="http://jira.qualirede.com/browse/PLN-19"/>
-    <hyperlink ref="B104" r:id="rId103" display="http://jira.qualirede.com/browse/PLN-18"/>
-    <hyperlink ref="B105" r:id="rId104" display="http://jira.qualirede.com/browse/PLN-17"/>
-    <hyperlink ref="B106" r:id="rId105" display="http://jira.qualirede.com/browse/PLN-16"/>
-    <hyperlink ref="B107" r:id="rId106" display="http://jira.qualirede.com/browse/PLN-15"/>
-    <hyperlink ref="B108" r:id="rId107" display="http://jira.qualirede.com/browse/PLN-14"/>
-    <hyperlink ref="B109" r:id="rId108" display="http://jira.qualirede.com/browse/PLN-12"/>
-    <hyperlink ref="B110" r:id="rId109" display="http://jira.qualirede.com/browse/PLN-11"/>
-    <hyperlink ref="B111" r:id="rId110" display="http://jira.qualirede.com/browse/ACS-11"/>
-    <hyperlink ref="B112" r:id="rId111" display="http://jira.qualirede.com/browse/ACS-10"/>
-    <hyperlink ref="B113" r:id="rId112" display="http://jira.qualirede.com/browse/ACS-9"/>
-    <hyperlink ref="B114" r:id="rId113" display="http://jira.qualirede.com/browse/ACS-8"/>
-    <hyperlink ref="B115" r:id="rId114" display="http://jira.qualirede.com/browse/ACS-7"/>
-    <hyperlink ref="B116" r:id="rId115" display="http://jira.qualirede.com/browse/ACS-6"/>
-    <hyperlink ref="B117" r:id="rId116" display="http://jira.qualirede.com/browse/ACS-5"/>
-    <hyperlink ref="B118" r:id="rId117" display="http://jira.qualirede.com/browse/ACS-3"/>
-    <hyperlink ref="B119" r:id="rId118" display="http://jira.qualirede.com/browse/ACS-2"/>
-    <hyperlink ref="B120" r:id="rId119" display="http://jira.qualirede.com/browse/ACS-1"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://jira.qualirede.com/browse/PLN-121" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://jira.qualirede.com/browse/PLN-120" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://jira.qualirede.com/browse/PLN-119" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://jira.qualirede.com/browse/PLN-118" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://jira.qualirede.com/browse/PLN-117" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://jira.qualirede.com/browse/PLN-116" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://jira.qualirede.com/browse/PLN-115" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://jira.qualirede.com/browse/PLN-114" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://jira.qualirede.com/browse/PLN-113" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://jira.qualirede.com/browse/PLN-112" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" display="http://jira.qualirede.com/browse/PLN-111" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://jira.qualirede.com/browse/PLN-110" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://jira.qualirede.com/browse/PLN-109" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" display="http://jira.qualirede.com/browse/PLN-108" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" display="http://jira.qualirede.com/browse/PLN-107" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" display="http://jira.qualirede.com/browse/PLN-106" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" display="http://jira.qualirede.com/browse/PLN-105" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" display="http://jira.qualirede.com/browse/PLN-104" xr:uid="{00000000-0004-0000-0800-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" display="http://jira.qualirede.com/browse/PLN-103" xr:uid="{00000000-0004-0000-0800-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" display="http://jira.qualirede.com/browse/PLN-102" xr:uid="{00000000-0004-0000-0800-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" display="http://jira.qualirede.com/browse/PLN-101" xr:uid="{00000000-0004-0000-0800-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" display="http://jira.qualirede.com/browse/PLN-100" xr:uid="{00000000-0004-0000-0800-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" display="http://jira.qualirede.com/browse/PLN-99" xr:uid="{00000000-0004-0000-0800-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" display="http://jira.qualirede.com/browse/PLN-98" xr:uid="{00000000-0004-0000-0800-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" display="http://jira.qualirede.com/browse/PLN-97" xr:uid="{00000000-0004-0000-0800-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" display="http://jira.qualirede.com/browse/PLN-96" xr:uid="{00000000-0004-0000-0800-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" display="http://jira.qualirede.com/browse/PLN-95" xr:uid="{00000000-0004-0000-0800-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" display="http://jira.qualirede.com/browse/PLN-94" xr:uid="{00000000-0004-0000-0800-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" display="http://jira.qualirede.com/browse/PLN-93" xr:uid="{00000000-0004-0000-0800-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" display="http://jira.qualirede.com/browse/PLN-92" xr:uid="{00000000-0004-0000-0800-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" display="http://jira.qualirede.com/browse/PLN-91" xr:uid="{00000000-0004-0000-0800-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" display="http://jira.qualirede.com/browse/PLN-90" xr:uid="{00000000-0004-0000-0800-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" display="http://jira.qualirede.com/browse/PLN-89" xr:uid="{00000000-0004-0000-0800-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" display="http://jira.qualirede.com/browse/PLN-88" xr:uid="{00000000-0004-0000-0800-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" display="http://jira.qualirede.com/browse/PLN-87" xr:uid="{00000000-0004-0000-0800-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" display="http://jira.qualirede.com/browse/PLN-86" xr:uid="{00000000-0004-0000-0800-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" display="http://jira.qualirede.com/browse/PLN-85" xr:uid="{00000000-0004-0000-0800-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" display="http://jira.qualirede.com/browse/PLN-84" xr:uid="{00000000-0004-0000-0800-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" display="http://jira.qualirede.com/browse/PLN-83" xr:uid="{00000000-0004-0000-0800-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" display="http://jira.qualirede.com/browse/PLN-82" xr:uid="{00000000-0004-0000-0800-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" display="http://jira.qualirede.com/browse/PLN-81" xr:uid="{00000000-0004-0000-0800-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" display="http://jira.qualirede.com/browse/PLN-80" xr:uid="{00000000-0004-0000-0800-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" display="http://jira.qualirede.com/browse/PLN-79" xr:uid="{00000000-0004-0000-0800-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" display="http://jira.qualirede.com/browse/PLN-78" xr:uid="{00000000-0004-0000-0800-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" display="http://jira.qualirede.com/browse/PLN-77" xr:uid="{00000000-0004-0000-0800-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" display="http://jira.qualirede.com/browse/PLN-76" xr:uid="{00000000-0004-0000-0800-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" display="http://jira.qualirede.com/browse/PLN-75" xr:uid="{00000000-0004-0000-0800-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" display="http://jira.qualirede.com/browse/PLN-74" xr:uid="{00000000-0004-0000-0800-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" display="http://jira.qualirede.com/browse/PLN-73" xr:uid="{00000000-0004-0000-0800-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" display="http://jira.qualirede.com/browse/PLN-72" xr:uid="{00000000-0004-0000-0800-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" display="http://jira.qualirede.com/browse/PLN-71" xr:uid="{00000000-0004-0000-0800-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" display="http://jira.qualirede.com/browse/PLN-70" xr:uid="{00000000-0004-0000-0800-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" display="http://jira.qualirede.com/browse/PLN-69" xr:uid="{00000000-0004-0000-0800-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" display="http://jira.qualirede.com/browse/PLN-68" xr:uid="{00000000-0004-0000-0800-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" display="http://jira.qualirede.com/browse/PLN-67" xr:uid="{00000000-0004-0000-0800-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" display="http://jira.qualirede.com/browse/PLN-66" xr:uid="{00000000-0004-0000-0800-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" display="http://jira.qualirede.com/browse/PLN-65" xr:uid="{00000000-0004-0000-0800-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" display="http://jira.qualirede.com/browse/PLN-64" xr:uid="{00000000-0004-0000-0800-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" display="http://jira.qualirede.com/browse/PLN-63" xr:uid="{00000000-0004-0000-0800-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" display="http://jira.qualirede.com/browse/PLN-62" xr:uid="{00000000-0004-0000-0800-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" display="http://jira.qualirede.com/browse/PLN-61" xr:uid="{00000000-0004-0000-0800-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" display="http://jira.qualirede.com/browse/PLN-60" xr:uid="{00000000-0004-0000-0800-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" display="http://jira.qualirede.com/browse/PLN-59" xr:uid="{00000000-0004-0000-0800-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" display="http://jira.qualirede.com/browse/PLN-58" xr:uid="{00000000-0004-0000-0800-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" display="http://jira.qualirede.com/browse/PLN-57" xr:uid="{00000000-0004-0000-0800-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" display="http://jira.qualirede.com/browse/PLN-56" xr:uid="{00000000-0004-0000-0800-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" display="http://jira.qualirede.com/browse/PLN-55" xr:uid="{00000000-0004-0000-0800-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" display="http://jira.qualirede.com/browse/PLN-54" xr:uid="{00000000-0004-0000-0800-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" display="http://jira.qualirede.com/browse/PLN-53" xr:uid="{00000000-0004-0000-0800-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" display="http://jira.qualirede.com/browse/PLN-52" xr:uid="{00000000-0004-0000-0800-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" display="http://jira.qualirede.com/browse/PLN-51" xr:uid="{00000000-0004-0000-0800-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" display="http://jira.qualirede.com/browse/PLN-49" xr:uid="{00000000-0004-0000-0800-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" display="http://jira.qualirede.com/browse/PLN-48" xr:uid="{00000000-0004-0000-0800-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" display="http://jira.qualirede.com/browse/PLN-47" xr:uid="{00000000-0004-0000-0800-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" display="http://jira.qualirede.com/browse/PLN-46" xr:uid="{00000000-0004-0000-0800-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" display="http://jira.qualirede.com/browse/PLN-45" xr:uid="{00000000-0004-0000-0800-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" display="http://jira.qualirede.com/browse/PLN-44" xr:uid="{00000000-0004-0000-0800-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" display="http://jira.qualirede.com/browse/PLN-43" xr:uid="{00000000-0004-0000-0800-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" display="http://jira.qualirede.com/browse/PLN-42" xr:uid="{00000000-0004-0000-0800-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" display="http://jira.qualirede.com/browse/PLN-41" xr:uid="{00000000-0004-0000-0800-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" display="http://jira.qualirede.com/browse/PLN-40" xr:uid="{00000000-0004-0000-0800-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId82" display="http://jira.qualirede.com/browse/PLN-39" xr:uid="{00000000-0004-0000-0800-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId83" display="http://jira.qualirede.com/browse/PLN-38" xr:uid="{00000000-0004-0000-0800-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId84" display="http://jira.qualirede.com/browse/PLN-37" xr:uid="{00000000-0004-0000-0800-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId85" display="http://jira.qualirede.com/browse/PLN-36" xr:uid="{00000000-0004-0000-0800-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId86" display="http://jira.qualirede.com/browse/PLN-35" xr:uid="{00000000-0004-0000-0800-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId87" display="http://jira.qualirede.com/browse/PLN-34" xr:uid="{00000000-0004-0000-0800-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId88" display="http://jira.qualirede.com/browse/PLN-33" xr:uid="{00000000-0004-0000-0800-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId89" display="http://jira.qualirede.com/browse/PLN-32" xr:uid="{00000000-0004-0000-0800-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId90" display="http://jira.qualirede.com/browse/PLN-31" xr:uid="{00000000-0004-0000-0800-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId91" display="http://jira.qualirede.com/browse/PLN-30" xr:uid="{00000000-0004-0000-0800-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId92" display="http://jira.qualirede.com/browse/PLN-29" xr:uid="{00000000-0004-0000-0800-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId93" display="http://jira.qualirede.com/browse/PLN-28" xr:uid="{00000000-0004-0000-0800-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId94" display="http://jira.qualirede.com/browse/PLN-27" xr:uid="{00000000-0004-0000-0800-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId95" display="http://jira.qualirede.com/browse/PLN-26" xr:uid="{00000000-0004-0000-0800-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId96" display="http://jira.qualirede.com/browse/PLN-25" xr:uid="{00000000-0004-0000-0800-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId97" display="http://jira.qualirede.com/browse/PLN-24" xr:uid="{00000000-0004-0000-0800-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId98" display="http://jira.qualirede.com/browse/PLN-23" xr:uid="{00000000-0004-0000-0800-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId99" display="http://jira.qualirede.com/browse/PLN-22" xr:uid="{00000000-0004-0000-0800-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId100" display="http://jira.qualirede.com/browse/PLN-21" xr:uid="{00000000-0004-0000-0800-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId101" display="http://jira.qualirede.com/browse/PLN-20" xr:uid="{00000000-0004-0000-0800-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId102" display="http://jira.qualirede.com/browse/PLN-19" xr:uid="{00000000-0004-0000-0800-000065000000}"/>
+    <hyperlink ref="B104" r:id="rId103" display="http://jira.qualirede.com/browse/PLN-18" xr:uid="{00000000-0004-0000-0800-000066000000}"/>
+    <hyperlink ref="B105" r:id="rId104" display="http://jira.qualirede.com/browse/PLN-17" xr:uid="{00000000-0004-0000-0800-000067000000}"/>
+    <hyperlink ref="B106" r:id="rId105" display="http://jira.qualirede.com/browse/PLN-16" xr:uid="{00000000-0004-0000-0800-000068000000}"/>
+    <hyperlink ref="B107" r:id="rId106" display="http://jira.qualirede.com/browse/PLN-15" xr:uid="{00000000-0004-0000-0800-000069000000}"/>
+    <hyperlink ref="B108" r:id="rId107" display="http://jira.qualirede.com/browse/PLN-14" xr:uid="{00000000-0004-0000-0800-00006A000000}"/>
+    <hyperlink ref="B109" r:id="rId108" display="http://jira.qualirede.com/browse/PLN-12" xr:uid="{00000000-0004-0000-0800-00006B000000}"/>
+    <hyperlink ref="B110" r:id="rId109" display="http://jira.qualirede.com/browse/PLN-11" xr:uid="{00000000-0004-0000-0800-00006C000000}"/>
+    <hyperlink ref="B111" r:id="rId110" display="http://jira.qualirede.com/browse/ACS-11" xr:uid="{00000000-0004-0000-0800-00006D000000}"/>
+    <hyperlink ref="B112" r:id="rId111" display="http://jira.qualirede.com/browse/ACS-10" xr:uid="{00000000-0004-0000-0800-00006E000000}"/>
+    <hyperlink ref="B113" r:id="rId112" display="http://jira.qualirede.com/browse/ACS-9" xr:uid="{00000000-0004-0000-0800-00006F000000}"/>
+    <hyperlink ref="B114" r:id="rId113" display="http://jira.qualirede.com/browse/ACS-8" xr:uid="{00000000-0004-0000-0800-000070000000}"/>
+    <hyperlink ref="B115" r:id="rId114" display="http://jira.qualirede.com/browse/ACS-7" xr:uid="{00000000-0004-0000-0800-000071000000}"/>
+    <hyperlink ref="B116" r:id="rId115" display="http://jira.qualirede.com/browse/ACS-6" xr:uid="{00000000-0004-0000-0800-000072000000}"/>
+    <hyperlink ref="B117" r:id="rId116" display="http://jira.qualirede.com/browse/ACS-5" xr:uid="{00000000-0004-0000-0800-000073000000}"/>
+    <hyperlink ref="B118" r:id="rId117" display="http://jira.qualirede.com/browse/ACS-3" xr:uid="{00000000-0004-0000-0800-000074000000}"/>
+    <hyperlink ref="B119" r:id="rId118" display="http://jira.qualirede.com/browse/ACS-2" xr:uid="{00000000-0004-0000-0800-000075000000}"/>
+    <hyperlink ref="B120" r:id="rId119" display="http://jira.qualirede.com/browse/ACS-1" xr:uid="{00000000-0004-0000-0800-000076000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961343DE-CCC7-4B43-8FA8-AB98C1361F43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741CDA9F-A220-4736-8675-897E17FACB52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3690,8 +3690,15 @@
     <t>Inconsistências em testes e impossibilidade de avaliar impactos</t>
   </si>
   <si>
+    <t>Clone de produção para homologação</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">30/08/18 - </t>
+      <t xml:space="preserve">30/08/18 - Concluído, aplicado nos protótipos
+29/08/18 - Item reportado como concluído, será avaliado em reunião do dia 30/08/18
+24/08/18 - Solicitado retorno sobre andamento da ação, pois não é possível verificar mudança sem acesso aos painéis de construção em homologação. A área de protótipos não foi modificada, será verificado novamente em reunião do dia 30/08/18
+21/08/18 - Solicitada aplicação das mudanças em homologação, para garantir ambiente consistente de validação por usuários
+20/08/18 - </t>
     </r>
     <r>
       <rPr>
@@ -3701,15 +3708,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Verificar a frequencia de clonagem e a possibilidade de do fluxo: congelamentos em produção &gt; clonagem &gt; testes. Testes de regras foram seriamente comprometidos e usuários estão solicitando "testes em produção", prática não adequada</t>
+      <t>Mudanças foram realizadas somente em produção, devem também ser aplicadas em homologação</t>
     </r>
-  </si>
-  <si>
-    <t>Clone de produção para homologação</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">30/08/18 - Documentos estão sendo finalizados, e após validação do painel de contas, o trabalho será extendido para autorizações
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+08/08/18 - Devido à demanda extraordinária do TCE, esta ação foi adiantada e concluída.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>30/08/18 - Prevista para 06/09/18, com possível retomada da apresentação via PPTs
+21/08/18 - Prevista para quinta 30/08/18, com apresentação de resumo dos itens em PPTs. Cada item deve ter seu próprio slide, com apresentação de status (sinalizado por cor), problemas e impedimentos associados, e soluções e ações em andamento. O modelo será definído por Giselli e Bernardo em conjunto, e será apresentado pelo menos uma vez a cada mês. Semanalmente a coluna ao lado direito será utilizada para retorno da QRD
+16/08/18 - Prevista para terça 21/08/18, presencial com Bernardo
+09/08/18 - Prevista para quinta 16/08/18, presencidal com Raniere e Giselli
+01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
+23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">06/09/18 - 
+30/08/18 - Documentos estão sendo finalizados, e após validação do painel de contas, o trabalho será extendido para autorizações
 28/08/18 - </t>
     </r>
     <r>
@@ -3762,7 +3787,60 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">30/08/18 - </t>
+      <t xml:space="preserve">06/09/18 - 
+30/08/18 - Clonagem de ambientes não considera regras, uma solução para esta questão será discutida internamente pela equipe QRD. O trabalho de validação será realizado juntamente com equipe de parametrização no dia 04/09/18
+29/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validação em andamento, evidências sendo coletadas e reunião agendada para 30/08/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+23/08/18 - Reunião realizada com áreas de negócio e TI PSV e QRD, plano de trabalho montado para conclusão dos itens previstos na sprint 25 do PSV. O foco da validação será a função de informação de grupos de regras para um item criticado na regulação. Reunião de validação dos itens prevista para 30/08/18
+21/08/18 - Apresentado um modelo que transforma regras do motor em linguagem mais amigável ao usuário final. Deve ser retirado, todas as regras, para 10 itens mas relevantes da despesa mensal como entrega até 03/09. Foi ressaltada a importância de extração seguindo o fluxo Procedimento-grupos-regras
+20/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descrição muito simplificada, regras imcompletas (falta reexecução, regras de idade e sexo), escopo da regra inderterminado. Se faz urgente a criação de um relatório ou extração que permita listar todas as regras associadas à um específico procedimento ou item de tabela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16/08/18 - Foi sinalizado por Denis entrega de regras da curva A, será verificado com a área de negócio no PSV
+15/08/18 - Relação da Curva A será elaborada e enviada pelo PSV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">06/09/18 - 
+30/08/18 - </t>
     </r>
     <r>
       <rPr>
@@ -3821,7 +3899,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">30/08/18 - </t>
+      <t xml:space="preserve">06/09/18 - 
+30/08/18 - </t>
     </r>
     <r>
       <rPr>
@@ -3879,7 +3958,8 @@
     </r>
   </si>
   <si>
-    <t>30/08/18 - Solicitada atualização da aba de report para Bernardo e Raniere
+    <t>06/09/18 - 
+30/08/18 - Solicitada atualização da aba de report para Bernardo e Raniere
 22/08/18 - Planilha de controle detalhado entregue pela QRD, porém muitos itens continuam pendentes, será avaliado item a item em reunião semanal
 21/08/18 - Será enviada a planilha de rastreamento dos relatórios para apresentação para equipe do PSV
 16/08/18 - Uma planilha detalhada com informações sobre cada relatório foi montada e será apresentada oficialmente na próxima reunião, está em validação interna pela equipe QRD
@@ -3893,7 +3973,24 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">30/08/18 - Denis está realizando alinhamento direto com Tulio sobre o assunto, ajustes no padrão serão executados
+      <t xml:space="preserve">06/09/18 - 
+30/08/18 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verificar a frequencia de clonagem e a possibilidade de do fluxo: congelamentos em produção &gt; clonagem &gt; testes. Testes de regras foram seriamente comprometidos e usuários estão solicitando "testes em produção", prática não adequada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">06/09/18 - 
+30/08/18 - Denis está realizando alinhamento direto com Tulio sobre o assunto, ajustes no padrão serão executados
 29/08/18 - </t>
     </r>
     <r>
@@ -3920,7 +4017,42 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">30/08/18 - Devido aos itens de validação de vidas o cadastro está despriorizado temporariamente
+      <t>06/09/18 - 
+30/08/18 - Entrega para 31/08/18 após almoço. Solicitada reunião para formalizar entrega com Neiza
+22/08/18 - Reunião realizada, pontos de atenção quanto aos números de beneficiários, entrega permanece com previsão para 30/08/18
+21/08/18 - Foi reforçada a necessidade de entendimento de conceitos para determinação dos números de modo aproximado ao histórico do PSV, aguardando reunião do dia 22/08/18 para avaliação do andamento
+20/08/18 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PSV sinaliza inconsistências sobre dados apresentados (custo assistêncial apresentado na casa de 20mi quanto 120mi esperado), aguardando reunião prevista para 22/08/18 15:00. O formato final esperado consiste em ferramenta automatizada, sem interações manuais ou compilação de planilhas (modelo antigo do PSV). Aspectos da reunião do dia 13/08/18 devem ser conversados com André Machado, o retorno não foi positivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16/08/18 - Foi alinhado com Neiza entrega até final do mês, e está sendo tratado de modo definitivo pela equipe de BI QRD
+13/08/18 - Retorno de Bernardo sobre realização de alinhamento com a equipe sobre o assunto
+09/08/18 - Reunião de alinhamento em 13/08/18, às 10:00 no Planserv
+07/08/18 - Tratado em reunião com Dulce e Ana Claudia, será relizado alinhamento para todas as demandas controladas em paralelo dentro do Jira e por expecialistas utilizando o BI ou outras extrações de sistema
+01/08/18 - Será discutido com equipe.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">06/09/18 - 
+30/08/18 - Devido aos itens de validação de vidas o cadastro está despriorizado temporariamente
 28/08/18 - </t>
     </r>
     <r>
@@ -3960,7 +4092,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">30/08/18 - Item sinalizado como possível ponto de atenção do TCE
+      <t xml:space="preserve">06/09/18 - 
+30/08/18 - Item sinalizado como possível ponto de atenção do TCE
 28/08/18 - </t>
     </r>
     <r>
@@ -4010,7 +4143,8 @@
     </r>
   </si>
   <si>
-    <t>30/08/18 - Reportado como em homologação, será notificado por release notes
+    <t>06/09/18 - 
+30/08/18 - Reportado como em homologação, será notificado por release notes
 21/08/18 - Trabalho em andamento, será avaliado na próxima reunião
 16/08/18 - Atualmente o flag de liminar foi extendido aos paineis de beneficiários, e uma solução utilizando a competência "-2"
 09/08/18 - Ação foi solicitada e contextualizada para equipe de BI QRD, novo cronograma deverá incluir item para seu acompanhamento
@@ -4018,7 +4152,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">30/08/18 - Reunião será marcada com retorno de férias de Alessandra
+      <t xml:space="preserve">06/09/18 - 
+30/08/18 - Reunião será marcada com retorno de férias de Alessandra
 24/08/18 - Tentativa de agenda para reunião de trabalho prevista para semana de 03/09/18, a definir em reunião do dia 30/08/18
 21/08/18 - Foi identificado por Bernardo que o escopo dessa demanda é atendido pela equipe de Raniere, responsável modificado, reunião deverá ser agendada para tratar do assunto
 20/08/18 - </t>
@@ -4049,130 +4184,8 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">30/08/18 - Concluído, aplicado nos protótipos
-29/08/18 - Item reportado como concluído, será avaliado em reunião do dia 30/08/18
-24/08/18 - Solicitado retorno sobre andamento da ação, pois não é possível verificar mudança sem acesso aos painéis de construção em homologação. A área de protótipos não foi modificada, será verificado novamente em reunião do dia 30/08/18
-21/08/18 - Solicitada aplicação das mudanças em homologação, para garantir ambiente consistente de validação por usuários
-20/08/18 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mudanças foram realizadas somente em produção, devem também ser aplicadas em homologação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-08/08/18 - Devido à demanda extraordinária do TCE, esta ação foi adiantada e concluída.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>30/08/18 - SMS atualmente aplicado apenas para avanço de autorizações de perícia, será discutido em próxima reunião quanto ao escopo adequado de serviços cobertos</t>
-  </si>
-  <si>
-    <t>30/08/18 - Prevista para 06/09/18, com possível retomada da apresentação via PPTs
-21/08/18 - Prevista para quinta 30/08/18, com apresentação de resumo dos itens em PPTs. Cada item deve ter seu próprio slide, com apresentação de status (sinalizado por cor), problemas e impedimentos associados, e soluções e ações em andamento. O modelo será definído por Giselli e Bernardo em conjunto, e será apresentado pelo menos uma vez a cada mês. Semanalmente a coluna ao lado direito será utilizada para retorno da QRD
-16/08/18 - Prevista para terça 21/08/18, presencial com Bernardo
-09/08/18 - Prevista para quinta 16/08/18, presencidal com Raniere e Giselli
-01/08/18 - Próxima reunião em 09/08/18 14:00, com tema principal de Relatórios do Edital
-23/07/18 -Primeira reunião realizada, com segunda reunião agendada para 31/07/18</t>
-  </si>
-  <si>
-    <r>
-      <t>30/08/18 - Entrega para 31/08/18 após almoço. Solicitada reunião para formalizar entrega com Neiza
-22/08/18 - Reunião realizada, pontos de atenção quanto aos números de beneficiários, entrega permanece com previsão para 30/08/18
-21/08/18 - Foi reforçada a necessidade de entendimento de conceitos para determinação dos números de modo aproximado ao histórico do PSV, aguardando reunião do dia 22/08/18 para avaliação do andamento
-20/08/18 -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PSV sinaliza inconsistências sobre dados apresentados (custo assistêncial apresentado na casa de 20mi quanto 120mi esperado), aguardando reunião prevista para 22/08/18 15:00. O formato final esperado consiste em ferramenta automatizada, sem interações manuais ou compilação de planilhas (modelo antigo do PSV). Aspectos da reunião do dia 13/08/18 devem ser conversados com André Machado, o retorno não foi positivo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-16/08/18 - Foi alinhado com Neiza entrega até final do mês, e está sendo tratado de modo definitivo pela equipe de BI QRD
-13/08/18 - Retorno de Bernardo sobre realização de alinhamento com a equipe sobre o assunto
-09/08/18 - Reunião de alinhamento em 13/08/18, às 10:00 no Planserv
-07/08/18 - Tratado em reunião com Dulce e Ana Claudia, será relizado alinhamento para todas as demandas controladas em paralelo dentro do Jira e por expecialistas utilizando o BI ou outras extrações de sistema
-01/08/18 - Será discutido com equipe.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">30/08/18 - Clonagem de ambientes não considera regras, uma solução para esta questão será discutida internamente pela equipe QRD. O trabalho de validação será realizado juntamente com equipe de parametrização no dia 04/09/18
-29/08/18 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Validação em andamento, evidências sendo coletadas e reunião agendada para 30/08/18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-23/08/18 - Reunião realizada com áreas de negócio e TI PSV e QRD, plano de trabalho montado para conclusão dos itens previstos na sprint 25 do PSV. O foco da validação será a função de informação de grupos de regras para um item criticado na regulação. Reunião de validação dos itens prevista para 30/08/18
-21/08/18 - Apresentado um modelo que transforma regras do motor em linguagem mais amigável ao usuário final. Deve ser retirado, todas as regras, para 10 itens mas relevantes da despesa mensal como entrega até 03/09. Foi ressaltada a importância de extração seguindo o fluxo Procedimento-grupos-regras
-20/08/18 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Descrição muito simplificada, regras imcompletas (falta reexecução, regras de idade e sexo), escopo da regra inderterminado. Se faz urgente a criação de um relatório ou extração que permita listar todas as regras associadas à um específico procedimento ou item de tabela</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-16/08/18 - Foi sinalizado por Denis entrega de regras da curva A, será verificado com a área de negócio no PSV
-15/08/18 - Relação da Curva A será elaborada e enviada pelo PSV</t>
-    </r>
+    <t>06/09/18 - 
+30/08/18 - SMS atualmente aplicado apenas para avanço de autorizações de perícia, será discutido em próxima reunião quanto ao escopo adequado de serviços cobertos</t>
   </si>
 </sst>
 </file>
@@ -5385,13 +5398,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9469,7 +9482,7 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY20" sqref="AY20:AY21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9546,7 +9559,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7">
-        <v>43342</v>
+        <v>43349</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -9619,44 +9632,44 @@
         <v>1</v>
       </c>
       <c r="B7" s="105">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E7" s="107" t="s">
         <v>417</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="G7" s="108" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H7" s="109" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I7" s="105" t="s">
         <v>413</v>
       </c>
       <c r="J7" s="107" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K7" s="107"/>
       <c r="L7" s="105" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M7" s="107" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="110">
-        <v>43342</v>
+        <v>43349</v>
       </c>
       <c r="O7" s="106" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="P7" s="106"/>
       <c r="R7" s="63" t="s">
@@ -9677,44 +9690,44 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="G8" s="90" t="s">
-        <v>393</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>403</v>
+        <v>20</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>413</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="22">
-        <v>43342</v>
+        <v>21</v>
+      </c>
+      <c r="N8" s="110">
+        <v>43349</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="P8" s="9"/>
       <c r="R8" s="16" t="s">
@@ -9735,46 +9748,44 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="G9" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>404</v>
+        <v>393</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>403</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>413</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>395</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="K9" s="14"/>
       <c r="L9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>297</v>
+        <v>105</v>
       </c>
       <c r="N9" s="110">
-        <v>43342</v>
+        <v>43349</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="P9" s="9"/>
       <c r="R9" s="65" t="s">
@@ -9795,44 +9806,46 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>393</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>403</v>
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>404</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>413</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="K10" s="14"/>
+        <v>299</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>395</v>
+      </c>
       <c r="L10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" s="22">
-        <v>43342</v>
+        <v>297</v>
+      </c>
+      <c r="N10" s="110">
+        <v>43349</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="P10" s="9"/>
       <c r="R10" s="13" t="s">
@@ -9847,44 +9860,44 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c r="G11" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>404</v>
+        <v>393</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>403</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>413</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="22">
-        <v>43342</v>
+        <v>105</v>
+      </c>
+      <c r="N11" s="110">
+        <v>43349</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="P11" s="9"/>
       <c r="R11" s="13" t="s">
@@ -9902,7 +9915,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
@@ -9932,11 +9945,11 @@
       <c r="M12" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="22">
-        <v>43342</v>
+      <c r="N12" s="110">
+        <v>43349</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="P12" s="9"/>
       <c r="R12" s="15" t="s">
@@ -9985,10 +9998,10 @@
         <v>105</v>
       </c>
       <c r="N13" s="110">
-        <v>43342</v>
+        <v>43349</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="P13" s="9"/>
       <c r="R13" s="64" t="s">
@@ -10020,8 +10033,8 @@
       <c r="G14" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>403</v>
+      <c r="H14" s="64" t="s">
+        <v>330</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>414</v>
@@ -10039,10 +10052,10 @@
         <v>305</v>
       </c>
       <c r="N14" s="110">
-        <v>43342</v>
+        <v>43349</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="P14" s="9"/>
       <c r="U14" s="14" t="s">
@@ -10090,10 +10103,10 @@
         <v>312</v>
       </c>
       <c r="N15" s="110">
-        <v>43342</v>
+        <v>43349</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="P15" s="9"/>
       <c r="U15" s="14" t="s">
@@ -10140,11 +10153,11 @@
       <c r="M16" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="N16" s="22">
-        <v>43342</v>
+      <c r="N16" s="110">
+        <v>43349</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="P16" s="9"/>
       <c r="U16" s="14" t="s">
@@ -10189,11 +10202,11 @@
       <c r="M17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="22">
-        <v>43342</v>
+      <c r="N17" s="110">
+        <v>43349</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="P17" s="9"/>
       <c r="U17" s="14" t="s">
@@ -10238,11 +10251,11 @@
       <c r="M18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="22">
-        <v>43342</v>
+      <c r="N18" s="110">
+        <v>43349</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="P18" s="9"/>
       <c r="U18" s="14" t="s">
@@ -10287,11 +10300,11 @@
       <c r="M19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N19" s="22">
-        <v>43342</v>
+      <c r="N19" s="110">
+        <v>43349</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="P19" s="9"/>
       <c r="U19" s="14" t="s">
@@ -10386,7 +10399,7 @@
         <v>43342</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="P21" s="9"/>
     </row>
@@ -10708,7 +10721,7 @@
         <v>147</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="P28" s="9"/>
     </row>

--- a/Arquivos Externos/Controle CTI_QRD.xlsx
+++ b/Arquivos Externos/Controle CTI_QRD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741CDA9F-A220-4736-8675-897E17FACB52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEDD109-FBF5-49AB-A602-A09BF71AFB1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="4725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9479,10 +9479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9627,7 +9628,7 @@
       </c>
       <c r="U6" s="23"/>
     </row>
-    <row r="7" spans="1:21" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="105">
         <v>1</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="105">
         <v>3</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="129.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -9855,7 +9856,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="105">
         <v>5</v>
       </c>
@@ -9907,7 +9908,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="115.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105">
         <v>7</v>
       </c>
@@ -10062,7 +10063,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105">
         <v>9</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="156.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="105">
         <v>13</v>
       </c>
@@ -10357,7 +10358,7 @@
       </c>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="158.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="105">
         <v>50</v>
       </c>
@@ -10403,7 +10404,7 @@
       </c>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>51</v>
       </c>
@@ -10449,7 +10450,7 @@
       </c>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="176.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>52</v>
       </c>
@@ -10495,7 +10496,7 @@
       </c>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:21" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>53</v>
       </c>
@@ -10541,7 +10542,7 @@
       </c>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>54</v>
       </c>
@@ -10725,7 +10726,7 @@
       </c>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>102</v>
       </c>
@@ -10817,7 +10818,7 @@
       </c>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:21" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="138" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>104</v>
       </c>
@@ -10909,7 +10910,7 @@
       </c>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>106</v>
       </c>
@@ -10955,7 +10956,7 @@
       </c>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6">
         <v>28</v>
@@ -10975,7 +10976,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6">
         <v>29</v>
@@ -10995,7 +10996,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6">
         <v>30</v>
@@ -11015,7 +11016,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6">
         <v>31</v>
@@ -11035,7 +11036,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6">
         <v>32</v>
@@ -11055,7 +11056,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6">
         <v>33</v>
@@ -11075,7 +11076,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6">
         <v>34</v>
@@ -11095,7 +11096,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6">
         <v>35</v>
@@ -11115,7 +11116,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6">
         <v>36</v>
@@ -11135,7 +11136,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6">
         <v>37</v>
@@ -11155,7 +11156,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6">
         <v>38</v>
@@ -11175,7 +11176,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6">
         <v>39</v>
@@ -11195,7 +11196,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6">
         <v>40</v>
@@ -11215,7 +11216,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6">
         <v>41</v>
@@ -11235,7 +11236,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6">
         <v>42</v>
@@ -11255,7 +11256,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6">
         <v>43</v>
@@ -11275,7 +11276,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6">
         <v>44</v>
@@ -11295,7 +11296,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6">
         <v>45</v>
@@ -11315,7 +11316,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6">
         <v>46</v>
@@ -11335,7 +11336,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6">
         <v>47</v>
@@ -11355,7 +11356,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6">
         <v>48</v>
@@ -11375,7 +11376,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6">
         <v>49</v>
@@ -11395,7 +11396,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6">
         <v>50</v>
@@ -11415,7 +11416,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6">
         <v>51</v>
@@ -11435,7 +11436,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6">
         <v>52</v>
@@ -11455,7 +11456,7 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6">
         <v>53</v>
@@ -11475,7 +11476,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6">
         <v>54</v>
@@ -11495,7 +11496,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6">
         <v>55</v>
@@ -11515,7 +11516,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6">
         <v>56</v>
@@ -11535,7 +11536,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6">
         <v>57</v>
@@ -11555,7 +11556,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6">
         <v>58</v>
@@ -11575,7 +11576,7 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6">
         <v>59</v>
@@ -11595,7 +11596,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6">
         <v>60</v>
@@ -11617,6 +11618,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:P66" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="BI"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A7:P66">
       <sortCondition ref="A6:A66"/>
     </sortState>
